--- a/data_clean/Norsk Hydro 16.12.2020.xlsx
+++ b/data_clean/Norsk Hydro 16.12.2020.xlsx
@@ -1626,7 +1626,7 @@
         <v>0.9773593426805562</v>
       </c>
       <c r="K2">
-        <v>46.00484444730112</v>
+        <v>-0.03995155552698891</v>
       </c>
       <c r="L2">
         <v>-0.004583825390721892</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1697,7 +1697,7 @@
         <v>0.9773593426805562</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.04777349838564494</v>
@@ -1727,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1768,7 +1768,7 @@
         <v>11.40000000000202</v>
       </c>
       <c r="K4">
-        <v>91.93548387096905</v>
+        <v>0.4193548387096905</v>
       </c>
       <c r="L4">
         <v>0.03383191045198934</v>
@@ -1798,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000416875104219</v>
+        <v>0.000416875104218839</v>
       </c>
       <c r="V4">
-        <v>1.000416875104219</v>
+        <v>0.000416875104218839</v>
       </c>
       <c r="W4">
-        <v>0.9997502497502498</v>
+        <v>-0.000249750249750158</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1839,7 +1839,7 @@
         <v>15.61052631579225</v>
       </c>
       <c r="K5">
-        <v>93.97972116603395</v>
+        <v>0.4397972116603396</v>
       </c>
       <c r="L5">
         <v>0.02918677926992624</v>
@@ -1869,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000458371530961</v>
+        <v>0.0004583715309609548</v>
       </c>
       <c r="V5">
-        <v>1.000458371530961</v>
+        <v>0.0004583715309609548</v>
       </c>
       <c r="W5">
-        <v>1.000999250562078</v>
+        <v>0.0009992505620783909</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1910,7 +1910,7 @@
         <v>4.853919035314058</v>
       </c>
       <c r="K6">
-        <v>82.91742687304949</v>
+        <v>0.3291742687304949</v>
       </c>
       <c r="L6">
         <v>0.02483954368010691</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.0001749343996</v>
+        <v>0.0001749343996002573</v>
       </c>
       <c r="V6">
-        <v>1.0001749343996</v>
+        <v>0.0001749343996002573</v>
       </c>
       <c r="W6">
-        <v>0.9995008734714249</v>
+        <v>-0.000499126528575089</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1981,7 +1981,7 @@
         <v>1.528320415649696</v>
       </c>
       <c r="K7">
-        <v>60.44805105356742</v>
+        <v>0.1044805105356742</v>
       </c>
       <c r="L7">
         <v>0.01916761747308237</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.9998667399596887</v>
+        <v>-0.0001332600403113338</v>
       </c>
       <c r="V7">
-        <v>0.9998667399596887</v>
+        <v>-0.0001332600403113338</v>
       </c>
       <c r="W7">
-        <v>0.9985018726591761</v>
+        <v>-0.001498127340823885</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -2052,7 +2052,7 @@
         <v>0.7791210748180308</v>
       </c>
       <c r="K8">
-        <v>43.79247066688362</v>
+        <v>-0.06207529333116374</v>
       </c>
       <c r="L8">
         <v>0.01213936417291206</v>
@@ -2082,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.9996192062830963</v>
+        <v>-0.0003807937169036935</v>
       </c>
       <c r="V8">
-        <v>0.9996192062830963</v>
+        <v>-0.0003807937169036935</v>
       </c>
       <c r="W8">
-        <v>0.9979994998749686</v>
+        <v>-0.00200050012503139</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -2123,7 +2123,7 @@
         <v>0.6900966285391744</v>
       </c>
       <c r="K9">
-        <v>40.83178540718442</v>
+        <v>-0.09168214592815582</v>
       </c>
       <c r="L9">
         <v>0.005603132914306646</v>
@@ -2153,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.9996517981500661</v>
+        <v>-0.0003482018499338935</v>
       </c>
       <c r="V9">
-        <v>0.9996517981500661</v>
+        <v>-0.0003482018499338935</v>
       </c>
       <c r="W9">
-        <v>0.9994988724630419</v>
+        <v>-0.0005011275369580792</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -2194,7 +2194,7 @@
         <v>0.5305614609356977</v>
       </c>
       <c r="K10">
-        <v>34.66449890952714</v>
+        <v>-0.1533550109047286</v>
       </c>
       <c r="L10">
         <v>-0.0006791474750185155</v>
@@ -2224,13 +2224,13 @@
         <v>0.006388888888885447</v>
       </c>
       <c r="U10">
-        <v>0.9995901496995591</v>
+        <v>-0.0004098503004409393</v>
       </c>
       <c r="V10">
-        <v>0.9995901496995591</v>
+        <v>-0.0004098503004409393</v>
       </c>
       <c r="W10">
-        <v>0.9987465530208073</v>
+        <v>-0.001253446979192718</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2265,7 +2265,7 @@
         <v>0.676568627260398</v>
       </c>
       <c r="K11">
-        <v>40.35436523501856</v>
+        <v>-0.09645634764981437</v>
       </c>
       <c r="L11">
         <v>-0.005434662364268396</v>
@@ -2295,13 +2295,13 @@
         <v>-0.004749999999994259</v>
       </c>
       <c r="U11">
-        <v>0.9997470395285483</v>
+        <v>-0.0002529604714517353</v>
       </c>
       <c r="V11">
-        <v>0.9997470395285483</v>
+        <v>-0.0002529604714517353</v>
       </c>
       <c r="W11">
-        <v>1.000753012048193</v>
+        <v>0.0007530120481926694</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2336,7 +2336,7 @@
         <v>0.8302603812864349</v>
       </c>
       <c r="K12">
-        <v>45.36296527944673</v>
+        <v>-0.04637034720553268</v>
       </c>
       <c r="L12">
         <v>-0.008469215401636591</v>
@@ -2366,13 +2366,13 @@
         <v>-0.01545454545454561</v>
       </c>
       <c r="U12">
-        <v>0.9998612283339893</v>
+        <v>-0.0001387716660107285</v>
       </c>
       <c r="V12">
-        <v>0.9998612283339893</v>
+        <v>-0.0001387716660107285</v>
       </c>
       <c r="W12">
-        <v>1.000752445447705</v>
+        <v>0.0007524454477050302</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2407,7 +2407,7 @@
         <v>0.884187312523628</v>
       </c>
       <c r="K13">
-        <v>46.92672042990101</v>
+        <v>-0.03073279570098991</v>
       </c>
       <c r="L13">
         <v>-0.01021340995268258</v>
@@ -2437,13 +2437,13 @@
         <v>-0.03166666666666629</v>
       </c>
       <c r="U13">
-        <v>0.9999051974547414</v>
+        <v>-9.480254525862097E-05</v>
       </c>
       <c r="V13">
-        <v>0.9999051974547414</v>
+        <v>-9.480254525862097E-05</v>
       </c>
       <c r="W13">
-        <v>1.000250626566416</v>
+        <v>0.0002506265664159457</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2478,7 +2478,7 @@
         <v>0.8366923137148006</v>
       </c>
       <c r="K14">
-        <v>45.55429929483122</v>
+        <v>-0.04445700705168781</v>
       </c>
       <c r="L14">
         <v>-0.01125056946233017</v>
@@ -2508,13 +2508,13 @@
         <v>-0.04644230769230262</v>
       </c>
       <c r="U14">
-        <v>0.9999005208216336</v>
+        <v>-9.947917836639064E-05</v>
       </c>
       <c r="V14">
-        <v>0.9999005208216336</v>
+        <v>-9.947917836639064E-05</v>
       </c>
       <c r="W14">
-        <v>0.999749436231521</v>
+        <v>-0.0002505637684789841</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2549,7 +2549,7 @@
         <v>1.458666960581319</v>
       </c>
       <c r="K15">
-        <v>59.32755366901895</v>
+        <v>0.09327553669018951</v>
       </c>
       <c r="L15">
         <v>-0.01042531951531142</v>
@@ -2579,13 +2579,13 @@
         <v>-0.0483928571428649</v>
       </c>
       <c r="U15">
-        <v>1.000111409425513</v>
+        <v>0.0001114094255127984</v>
       </c>
       <c r="V15">
-        <v>1.000111409425513</v>
+        <v>0.0001114094255127984</v>
       </c>
       <c r="W15">
-        <v>1.002756892230577</v>
+        <v>0.002756892230576513</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2620,7 +2620,7 @@
         <v>1.303500584378632</v>
       </c>
       <c r="K16">
-        <v>56.58781218543734</v>
+        <v>0.06587812185437347</v>
       </c>
       <c r="L16">
         <v>-0.008915773750489627</v>
@@ -2650,13 +2650,13 @@
         <v>-0.04091666666666072</v>
       </c>
       <c r="U16">
-        <v>1.000063170817466</v>
+        <v>6.317081746587405E-05</v>
       </c>
       <c r="V16">
-        <v>1.000063170817466</v>
+        <v>6.317081746587405E-05</v>
       </c>
       <c r="W16">
-        <v>0.999500124968758</v>
+        <v>-0.0004998750312420475</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2691,7 +2691,7 @@
         <v>1.527448931733689</v>
       </c>
       <c r="K17">
-        <v>60.43441323603497</v>
+        <v>0.1043441323603497</v>
       </c>
       <c r="L17">
         <v>-0.006682457242920136</v>
@@ -2721,13 +2721,13 @@
         <v>-0.02812499999999574</v>
       </c>
       <c r="U17">
-        <v>1.000117841887473</v>
+        <v>0.0001178418874725473</v>
       </c>
       <c r="V17">
-        <v>1.00018354134686</v>
+        <v>0.00018354134686005</v>
       </c>
       <c r="W17">
-        <v>1.001000250062516</v>
+        <v>0.001000250062515695</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2762,7 +2762,7 @@
         <v>1.58638270735343</v>
       </c>
       <c r="K18">
-        <v>61.33596172148589</v>
+        <v>0.1133596172148589</v>
       </c>
       <c r="L18">
         <v>-0.004102813534641776</v>
@@ -2792,13 +2792,13 @@
         <v>-0.01062500000000455</v>
       </c>
       <c r="U18">
-        <v>1.000118686717668</v>
+        <v>0.0001186867176681261</v>
       </c>
       <c r="V18">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W18">
-        <v>1.000249812640519</v>
+        <v>0.0002498126405194867</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2833,7 +2833,7 @@
         <v>1.411283234738707</v>
       </c>
       <c r="K19">
-        <v>58.52830619011198</v>
+        <v>0.08528306190111978</v>
       </c>
       <c r="L19">
         <v>-0.001728741019549677</v>
@@ -2863,13 +2863,13 @@
         <v>0.009374999999998579</v>
       </c>
       <c r="U19">
-        <v>1.000077684066262</v>
+        <v>7.768406626196267E-05</v>
       </c>
       <c r="V19">
-        <v>0.999983317484944</v>
+        <v>-1.668251505604346E-05</v>
       </c>
       <c r="W19">
-        <v>0.9995004995004996</v>
+        <v>-0.0004995004995004271</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2904,7 +2904,7 @@
         <v>1.201829797340211</v>
       </c>
       <c r="K20">
-        <v>54.58322885774412</v>
+        <v>0.04583228857744115</v>
       </c>
       <c r="L20">
         <v>4.924849390518262E-05</v>
@@ -2934,13 +2934,13 @@
         <v>0.02312500000000028</v>
       </c>
       <c r="U20">
-        <v>1.000029995339748</v>
+        <v>2.999533974845647E-05</v>
       </c>
       <c r="V20">
-        <v>0.9998665376530647</v>
+        <v>-0.0001334623469353424</v>
       </c>
       <c r="W20">
-        <v>0.9992503748125937</v>
+        <v>-0.0007496251874062887</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2975,7 +2975,7 @@
         <v>1.088466253421911</v>
       </c>
       <c r="K21">
-        <v>52.11797181967775</v>
+        <v>0.02117971819677744</v>
       </c>
       <c r="L21">
         <v>0.001158261025836497</v>
@@ -3005,13 +3005,13 @@
         <v>0.03687500000000199</v>
       </c>
       <c r="U21">
-        <v>1.000001975243613</v>
+        <v>1.975243613339117E-06</v>
       </c>
       <c r="V21">
-        <v>0.9998665198384891</v>
+        <v>-0.0001334801615109349</v>
       </c>
       <c r="W21">
-        <v>0.9994998749687422</v>
+        <v>-0.0005001250312578476</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -3046,7 +3046,7 @@
         <v>0.7040091814320527</v>
       </c>
       <c r="K22">
-        <v>41.31487019573462</v>
+        <v>-0.08685129804265379</v>
       </c>
       <c r="L22">
         <v>0.0007040978460077613</v>
@@ -3076,13 +3076,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U22">
-        <v>0.9998707315344166</v>
+        <v>-0.0001292684655833654</v>
       </c>
       <c r="V22">
-        <v>0.9997830657811302</v>
+        <v>-0.0002169342188698131</v>
       </c>
       <c r="W22">
-        <v>0.997247935951964</v>
+        <v>-0.002752064048035963</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -3117,7 +3117,7 @@
         <v>0.6201631446419402</v>
       </c>
       <c r="K23">
-        <v>38.27782076717945</v>
+        <v>-0.1172217923282055</v>
       </c>
       <c r="L23">
         <v>-0.001013175155071348</v>
@@ -3147,13 +3147,13 @@
         <v>0.03062500000000767</v>
       </c>
       <c r="U23">
-        <v>0.9998369717695766</v>
+        <v>-0.0001630282304233566</v>
       </c>
       <c r="V23">
-        <v>0.9998497821841671</v>
+        <v>-0.0001502178158329093</v>
       </c>
       <c r="W23">
-        <v>0.9989964877069745</v>
+        <v>-0.001003512293025532</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -3188,7 +3188,7 @@
         <v>0.6201631446419402</v>
       </c>
       <c r="K24">
-        <v>38.27782076717945</v>
+        <v>-0.1172217923282055</v>
       </c>
       <c r="L24">
         <v>-0.003339620154034959</v>
@@ -3218,13 +3218,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U24">
-        <v>0.9998511238664269</v>
+        <v>-0.0001488761335730615</v>
       </c>
       <c r="V24">
-        <v>0.9998831463675214</v>
+        <v>-0.0001168536324785974</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3259,7 +3259,7 @@
         <v>0.6861453777858019</v>
       </c>
       <c r="K25">
-        <v>40.69313280014019</v>
+        <v>-0.09306867199859808</v>
       </c>
       <c r="L25">
         <v>-0.005657052477795727</v>
@@ -3289,13 +3289,13 @@
         <v>-0.005625000000009095</v>
       </c>
       <c r="U25">
-        <v>0.9998843688443415</v>
+        <v>-0.000115631155658491</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>1.000502260170768</v>
+        <v>0.0005022601707684871</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3330,7 +3330,7 @@
         <v>0.6861453777858019</v>
       </c>
       <c r="K26">
-        <v>40.69313280014019</v>
+        <v>-0.09306867199859808</v>
       </c>
       <c r="L26">
         <v>-0.00779071057391707</v>
@@ -3360,13 +3360,13 @@
         <v>-0.03062499999999346</v>
       </c>
       <c r="U26">
-        <v>0.9998936070344526</v>
+        <v>-0.000106392965547375</v>
       </c>
       <c r="V26">
-        <v>0.999949914019066</v>
+        <v>-5.008598093403371E-05</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3401,7 +3401,7 @@
         <v>0.7958111392437047</v>
       </c>
       <c r="K27">
-        <v>44.31485704999334</v>
+        <v>-0.05685142950006655</v>
       </c>
       <c r="L27">
         <v>-0.009358912917838651</v>
@@ -3431,13 +3431,13 @@
         <v>-0.04937499999999773</v>
       </c>
       <c r="U27">
-        <v>0.9999306687003849</v>
+        <v>-6.933129961506079E-05</v>
       </c>
       <c r="V27">
-        <v>0.9999499115103349</v>
+        <v>-5.008848966514545E-05</v>
       </c>
       <c r="W27">
-        <v>1.000753012048193</v>
+        <v>0.0007530120481926694</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3472,7 +3472,7 @@
         <v>0.9497279974302623</v>
       </c>
       <c r="K28">
-        <v>48.71079446374068</v>
+        <v>-0.01289205536259325</v>
       </c>
       <c r="L28">
         <v>-0.01007542984797517</v>
@@ -3502,13 +3502,13 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="U28">
-        <v>0.9999728932915888</v>
+        <v>-2.710670841121754E-05</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W28">
-        <v>1.00100326059694</v>
+        <v>0.001003260596940114</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3543,7 +3543,7 @@
         <v>0.8173093751289318</v>
       </c>
       <c r="K29">
-        <v>44.97359592782305</v>
+        <v>-0.05026404072176954</v>
       </c>
       <c r="L29">
         <v>-0.01057506599033274</v>
@@ -3573,13 +3573,13 @@
         <v>-0.07000000000000739</v>
       </c>
       <c r="U29">
-        <v>0.9999390592066306</v>
+        <v>-6.094079336937952E-05</v>
       </c>
       <c r="V29">
-        <v>0.9999499090013524</v>
+        <v>-5.009099864761168E-05</v>
       </c>
       <c r="W29">
-        <v>0.9989977449260837</v>
+        <v>-0.001002255073916269</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3614,7 +3614,7 @@
         <v>0.8173093751289319</v>
       </c>
       <c r="K30">
-        <v>44.97359592782305</v>
+        <v>-0.05026404072176954</v>
       </c>
       <c r="L30">
         <v>-0.01087284341603535</v>
@@ -3644,13 +3644,13 @@
         <v>-0.06687500000000313</v>
       </c>
       <c r="U30">
-        <v>0.9999432585620979</v>
+        <v>-5.674143790213027E-05</v>
       </c>
       <c r="V30">
-        <v>0.9997662302965536</v>
+        <v>-0.0002337697034463515</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3685,7 +3685,7 @@
         <v>0.685022319934488</v>
       </c>
       <c r="K31">
-        <v>40.6536051083953</v>
+        <v>-0.09346394891604698</v>
       </c>
       <c r="L31">
         <v>-0.01145493079692441</v>
@@ -3715,13 +3715,13 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="U31">
-        <v>0.9999053022125894</v>
+        <v>-9.469778741055812E-05</v>
       </c>
       <c r="V31">
-        <v>0.999716070414537</v>
+        <v>-0.000283929585462972</v>
       </c>
       <c r="W31">
-        <v>0.998745924253825</v>
+        <v>-0.001254075746174976</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3756,7 +3756,7 @@
         <v>0.6028531692057901</v>
       </c>
       <c r="K32">
-        <v>37.61125353138257</v>
+        <v>-0.1238874646861743</v>
       </c>
       <c r="L32">
         <v>-0.01249789989163254</v>
@@ -3786,13 +3786,13 @@
         <v>-0.04687499999999289</v>
       </c>
       <c r="U32">
-        <v>0.9998831278331064</v>
+        <v>-0.0001168721668936001</v>
       </c>
       <c r="V32">
-        <v>0.9995823379053411</v>
+        <v>-0.0004176620946588772</v>
       </c>
       <c r="W32">
-        <v>0.9989954796584631</v>
+        <v>-0.001004520341536863</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3827,7 +3827,7 @@
         <v>0.5844057770611005</v>
       </c>
       <c r="K33">
-        <v>36.88485522598317</v>
+        <v>-0.1311514477401683</v>
       </c>
       <c r="L33">
         <v>-0.01379618338498034</v>
@@ -3857,13 +3857,13 @@
         <v>-0.03937499999999261</v>
       </c>
       <c r="U33">
-        <v>0.9997745773324986</v>
+        <v>-0.0002254226675013626</v>
       </c>
       <c r="V33">
-        <v>0.9995487364620939</v>
+        <v>-0.0004512635379061436</v>
       </c>
       <c r="W33">
-        <v>0.9997486173956762</v>
+        <v>-0.0002513826043237799</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3898,7 +3898,7 @@
         <v>0.5661690885412176</v>
       </c>
       <c r="K34">
-        <v>36.14993378962463</v>
+        <v>-0.1385006621037537</v>
       </c>
       <c r="L34">
         <v>-0.01520549838461693</v>
@@ -3928,13 +3928,13 @@
         <v>-0.03187500000000654</v>
       </c>
       <c r="U34">
-        <v>0.9997745265056619</v>
+        <v>-0.000225473494338102</v>
       </c>
       <c r="V34">
-        <v>0.9995652537413262</v>
+        <v>-0.0004347462586737905</v>
       </c>
       <c r="W34">
-        <v>0.9997485541865727</v>
+        <v>-0.0002514458134272868</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3969,7 +3969,7 @@
         <v>0.5481630717941463</v>
       </c>
       <c r="K35">
-        <v>35.4073212170658</v>
+        <v>-0.145926787829342</v>
       </c>
       <c r="L35">
         <v>-0.01662704937790367</v>
@@ -3999,13 +3999,13 @@
         <v>-0.03000000000000824</v>
       </c>
       <c r="U35">
-        <v>0.999732711888474</v>
+        <v>-0.0002672881115259873</v>
       </c>
       <c r="V35">
-        <v>0.9995985212198264</v>
+        <v>-0.0004014787801736031</v>
       </c>
       <c r="W35">
-        <v>0.9997484909456741</v>
+        <v>-0.0002515090543259157</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -4040,7 +4040,7 @@
         <v>0.4106794743128696</v>
       </c>
       <c r="K36">
-        <v>29.1121747917193</v>
+        <v>-0.208878252082807</v>
       </c>
       <c r="L36">
         <v>-0.01882384378826195</v>
@@ -4070,13 +4070,13 @@
         <v>-0.04125000000000512</v>
       </c>
       <c r="U36">
-        <v>0.9996658005330481</v>
+        <v>-0.0003341994669519011</v>
       </c>
       <c r="V36">
-        <v>0.9994644799598359</v>
+        <v>-0.0005355200401641058</v>
       </c>
       <c r="W36">
-        <v>0.9974842767295597</v>
+        <v>-0.002515723270440251</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -4111,7 +4111,7 @@
         <v>0.4001160794995543</v>
       </c>
       <c r="K37">
-        <v>28.57735050386454</v>
+        <v>-0.2142264949613547</v>
       </c>
       <c r="L37">
         <v>-0.02137038398855219</v>
@@ -4141,13 +4141,13 @@
         <v>-0.04937499999999773</v>
       </c>
       <c r="U37">
-        <v>0.9997074777056224</v>
+        <v>-0.0002925222943775951</v>
       </c>
       <c r="V37">
-        <v>0.9996316327043182</v>
+        <v>-0.0003683672956817929</v>
       </c>
       <c r="W37">
-        <v>0.9997477931904162</v>
+        <v>-0.0002522068095838215</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -4182,7 +4182,7 @@
         <v>0.3895683123615692</v>
       </c>
       <c r="K38">
-        <v>28.03520409151375</v>
+        <v>-0.2196479590848625</v>
       </c>
       <c r="L38">
         <v>-0.02397878908699598</v>
@@ -4212,13 +4212,13 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="U38">
-        <v>0.9997659136890328</v>
+        <v>-0.0002340863109672187</v>
       </c>
       <c r="V38">
-        <v>0.999681747374416</v>
+        <v>-0.0003182526255840479</v>
       </c>
       <c r="W38">
-        <v>0.9997477295660949</v>
+        <v>-0.0002522704339050774</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4253,7 +4253,7 @@
         <v>0.3596299506330785</v>
       </c>
       <c r="K39">
-        <v>26.45057579568805</v>
+        <v>-0.2354942420431195</v>
       </c>
       <c r="L39">
         <v>-0.02664568298602516</v>
@@ -4283,13 +4283,13 @@
         <v>-0.07874999999999943</v>
       </c>
       <c r="U39">
-        <v>0.9997574966969379</v>
+        <v>-0.0002425033030620805</v>
       </c>
       <c r="V39">
-        <v>0.9996313796454541</v>
+        <v>-0.0003686203545458788</v>
       </c>
       <c r="W39">
-        <v>0.9992429977289932</v>
+        <v>-0.0007570022710068347</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4324,7 +4324,7 @@
         <v>0.4944546783182646</v>
       </c>
       <c r="K40">
-        <v>33.08596008242169</v>
+        <v>-0.1691403991757831</v>
       </c>
       <c r="L40">
         <v>-0.02862201844847125</v>
@@ -4354,13 +4354,13 @@
         <v>-0.08437500000000142</v>
       </c>
       <c r="U40">
-        <v>0.9998410799869517</v>
+        <v>-0.0001589200130482915</v>
       </c>
       <c r="V40">
-        <v>0.9996815286624203</v>
+        <v>-0.0003184713375796733</v>
       </c>
       <c r="W40">
-        <v>1.001262626262626</v>
+        <v>0.001262626262626299</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4395,7 +4395,7 @@
         <v>0.4944546783182646</v>
       </c>
       <c r="K41">
-        <v>33.08596008242169</v>
+        <v>-0.1691403991757831</v>
       </c>
       <c r="L41">
         <v>-0.029950411970164</v>
@@ -4425,13 +4425,13 @@
         <v>-0.08749999999999858</v>
       </c>
       <c r="U41">
-        <v>0.9998159581053725</v>
+        <v>-0.0001840418946275069</v>
       </c>
       <c r="V41">
-        <v>0.9996814272061167</v>
+        <v>-0.0003185727938832539</v>
       </c>
       <c r="W41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4466,7 +4466,7 @@
         <v>0.5542107903117116</v>
       </c>
       <c r="K42">
-        <v>35.65866314700848</v>
+        <v>-0.1434133685299152</v>
       </c>
       <c r="L42">
         <v>-0.03050975525888747</v>
@@ -4496,13 +4496,13 @@
         <v>-0.08812500000000512</v>
       </c>
       <c r="U42">
-        <v>0.9998075571471603</v>
+        <v>-0.0001924428528397026</v>
       </c>
       <c r="V42">
-        <v>0.999664553352789</v>
+        <v>-0.0003354466472109685</v>
       </c>
       <c r="W42">
-        <v>1.000504413619168</v>
+        <v>0.000504413619167865</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4537,7 +4537,7 @@
         <v>0.5856613755714094</v>
       </c>
       <c r="K43">
-        <v>36.93483265683761</v>
+        <v>-0.1306516734316239</v>
       </c>
       <c r="L43">
         <v>-0.03036528120011266</v>
@@ -4567,13 +4567,13 @@
         <v>-0.08500000000000085</v>
       </c>
       <c r="U43">
-        <v>0.9998075201057801</v>
+        <v>-0.000192479894219888</v>
       </c>
       <c r="V43">
-        <v>0.9996141069091642</v>
+        <v>-0.0003858930908358094</v>
       </c>
       <c r="W43">
-        <v>1.000252079657172</v>
+        <v>0.0002520796571716666</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4608,7 +4608,7 @@
         <v>0.5856613755714093</v>
       </c>
       <c r="K44">
-        <v>36.93483265683761</v>
+        <v>-0.1306516734316239</v>
       </c>
       <c r="L44">
         <v>-0.02969336861485684</v>
@@ -4638,13 +4638,13 @@
         <v>-0.06687499999999602</v>
       </c>
       <c r="U44">
-        <v>0.9998158533523062</v>
+        <v>-0.0001841466476938391</v>
       </c>
       <c r="V44">
-        <v>0.9996810956880779</v>
+        <v>-0.0003189043119220525</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4679,7 +4679,7 @@
         <v>0.445832772216773</v>
       </c>
       <c r="K45">
-        <v>30.83570802819854</v>
+        <v>-0.1916429197180146</v>
       </c>
       <c r="L45">
         <v>-0.02946146878283969</v>
@@ -4709,13 +4709,13 @@
         <v>-0.05562499999999915</v>
       </c>
       <c r="U45">
-        <v>0.9996483825597751</v>
+        <v>-0.0003516174402249383</v>
       </c>
       <c r="V45">
-        <v>0.9995298858294158</v>
+        <v>-0.0004701141705841794</v>
       </c>
       <c r="W45">
-        <v>0.9977318548387097</v>
+        <v>-0.002268145161290258</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4750,7 +4750,7 @@
         <v>0.4113709530308614</v>
       </c>
       <c r="K46">
-        <v>29.14690515257233</v>
+        <v>-0.2085309484742767</v>
       </c>
       <c r="L46">
         <v>-0.02967880184639086</v>
@@ -4780,13 +4780,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U46">
-        <v>0.9996398840929267</v>
+        <v>-0.0003601159070732995</v>
       </c>
       <c r="V46">
-        <v>0.9995632600954109</v>
+        <v>-0.0004367399045891451</v>
       </c>
       <c r="W46">
-        <v>0.9992422328870927</v>
+        <v>-0.0007577671129073149</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4821,7 +4821,7 @@
         <v>0.390204706550613</v>
       </c>
       <c r="K47">
-        <v>28.06814742548181</v>
+        <v>-0.2193185257451819</v>
       </c>
       <c r="L47">
         <v>-0.03023007583218113</v>
@@ -4851,13 +4851,13 @@
         <v>-0.03499999999999659</v>
       </c>
       <c r="U47">
-        <v>0.9995894875296364</v>
+        <v>-0.0004105124703636109</v>
       </c>
       <c r="V47">
-        <v>0.9995966793264546</v>
+        <v>-0.0004033206735454264</v>
       </c>
       <c r="W47">
-        <v>0.999494438827098</v>
+        <v>-0.0005055611729020137</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4892,7 +4892,7 @@
         <v>0.3701566544492703</v>
       </c>
       <c r="K48">
-        <v>27.01564476202566</v>
+        <v>-0.2298435523797434</v>
       </c>
       <c r="L48">
         <v>-0.03102231014377544</v>
@@ -4922,13 +4922,13 @@
         <v>-0.03500000000000369</v>
       </c>
       <c r="U48">
-        <v>0.9995641752015688</v>
+        <v>-0.0004358247984311836</v>
       </c>
       <c r="V48">
-        <v>0.9995797047846405</v>
+        <v>-0.0004202952153594675</v>
       </c>
       <c r="W48">
-        <v>0.9994941831057158</v>
+        <v>-0.0005058168942841945</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4963,7 +4963,7 @@
         <v>0.3604107136200191</v>
       </c>
       <c r="K49">
-        <v>26.49278706876507</v>
+        <v>-0.2350721293123493</v>
       </c>
       <c r="L49">
         <v>-0.03188942558069924</v>
@@ -4993,13 +4993,13 @@
         <v>-0.03624999999999545</v>
       </c>
       <c r="U49">
-        <v>0.9995723700759671</v>
+        <v>-0.0004276299240328907</v>
       </c>
       <c r="V49">
-        <v>0.9995795280622971</v>
+        <v>-0.0004204719377028932</v>
       </c>
       <c r="W49">
-        <v>0.9997469635627529</v>
+        <v>-0.0002530364372470562</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -5034,7 +5034,7 @@
         <v>0.3881256958042127</v>
       </c>
       <c r="K50">
-        <v>27.960414318197</v>
+        <v>-0.22039585681803</v>
       </c>
       <c r="L50">
         <v>-0.03253959268050727</v>
@@ -5064,13 +5064,13 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="U50">
-        <v>0.9996057410809405</v>
+        <v>-0.0003942589190595314</v>
       </c>
       <c r="V50">
-        <v>0.9996130030959751</v>
+        <v>-0.0003869969040248833</v>
       </c>
       <c r="W50">
-        <v>1.000253100480891</v>
+        <v>0.0002531004808909998</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -5105,7 +5105,7 @@
         <v>0.4172993612612379</v>
       </c>
       <c r="K51">
-        <v>29.44327589972863</v>
+        <v>-0.2055672410027137</v>
       </c>
       <c r="L51">
         <v>-0.03280731299916491</v>
@@ -5135,13 +5135,13 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="U51">
-        <v>0.9996307609680779</v>
+        <v>-0.0003692390319220973</v>
       </c>
       <c r="V51">
-        <v>0.9997980104024644</v>
+        <v>-0.0002019895975355901</v>
       </c>
       <c r="W51">
-        <v>1.000253036437247</v>
+        <v>0.0002530364372468341</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -5176,7 +5176,7 @@
         <v>0.4480084827949486</v>
       </c>
       <c r="K52">
-        <v>30.93963109457769</v>
+        <v>-0.1906036890542231</v>
       </c>
       <c r="L52">
         <v>-0.03261551980100545</v>
@@ -5206,13 +5206,13 @@
         <v>-0.05562499999999915</v>
       </c>
       <c r="U52">
-        <v>0.9997313633310946</v>
+        <v>-0.0002686366689054198</v>
       </c>
       <c r="V52">
-        <v>0.9998316413286866</v>
+        <v>-0.0001683586713133733</v>
       </c>
       <c r="W52">
-        <v>1.000252972426005</v>
+        <v>0.0002529724260054156</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5247,7 +5247,7 @@
         <v>0.408403111857725</v>
       </c>
       <c r="K53">
-        <v>28.99760078767713</v>
+        <v>-0.2100239921232287</v>
       </c>
       <c r="L53">
         <v>-0.03231422048940049</v>
@@ -5277,13 +5277,13 @@
         <v>-0.05749999999999744</v>
       </c>
       <c r="U53">
-        <v>0.9997396882977295</v>
+        <v>-0.0002603117022704771</v>
       </c>
       <c r="V53">
-        <v>0.999797935575126</v>
+        <v>-0.0002020644248740266</v>
       </c>
       <c r="W53">
-        <v>0.9992412746585736</v>
+        <v>-0.0007587253414264028</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5318,7 +5318,7 @@
         <v>0.4394217686804552</v>
       </c>
       <c r="K54">
-        <v>30.52765896984323</v>
+        <v>-0.1947234103015677</v>
       </c>
       <c r="L54">
         <v>-0.03175676373912453</v>
@@ -5348,13 +5348,13 @@
         <v>-0.05562499999999915</v>
       </c>
       <c r="U54">
-        <v>0.9997480198560353</v>
+        <v>-0.0002519801439646585</v>
       </c>
       <c r="V54">
-        <v>0.9998652631578946</v>
+        <v>-0.0001347368421054096</v>
       </c>
       <c r="W54">
-        <v>1.000253100480891</v>
+        <v>0.0002531004808909998</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5389,7 +5389,7 @@
         <v>0.4255277688585953</v>
       </c>
       <c r="K55">
-        <v>29.85054224508799</v>
+        <v>-0.2014945775491201</v>
       </c>
       <c r="L55">
         <v>-0.03105601090568479</v>
@@ -5419,13 +5419,13 @@
         <v>-0.05375000000000085</v>
       </c>
       <c r="U55">
-        <v>0.999722751980643</v>
+        <v>-0.0002772480193570237</v>
       </c>
       <c r="V55">
-        <v>0.9997641787525057</v>
+        <v>-0.0002358212474943278</v>
       </c>
       <c r="W55">
-        <v>0.9997469635627529</v>
+        <v>-0.0002530364372470562</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5460,7 +5460,7 @@
         <v>0.4588107421038607</v>
       </c>
       <c r="K56">
-        <v>31.45101203752964</v>
+        <v>-0.1854898796247036</v>
       </c>
       <c r="L56">
         <v>-0.03010846178178785</v>
@@ -5490,13 +5490,13 @@
         <v>-0.04562499999999403</v>
       </c>
       <c r="U56">
-        <v>0.9997310788779267</v>
+        <v>-0.000268921122073329</v>
       </c>
       <c r="V56">
-        <v>0.9997809714757467</v>
+        <v>-0.0002190285242532619</v>
       </c>
       <c r="W56">
-        <v>1.000253100480891</v>
+        <v>0.0002531004808909998</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5531,7 +5531,7 @@
         <v>0.4024165550134972</v>
       </c>
       <c r="K57">
-        <v>28.6945097428363</v>
+        <v>-0.213054902571637</v>
       </c>
       <c r="L57">
         <v>-0.02932952762149414</v>
@@ -5561,13 +5561,13 @@
         <v>-0.03875000000000028</v>
       </c>
       <c r="U57">
-        <v>0.9996721642205073</v>
+        <v>-0.0003278357794926912</v>
       </c>
       <c r="V57">
-        <v>0.9996798112571622</v>
+        <v>-0.0003201887428377903</v>
       </c>
       <c r="W57">
-        <v>0.998987854251012</v>
+        <v>-0.001012145748988003</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5602,7 +5602,7 @@
         <v>0.4994537918622443</v>
       </c>
       <c r="K58">
-        <v>33.30904857307729</v>
+        <v>-0.1669095142692271</v>
       </c>
       <c r="L58">
         <v>-0.02832043400065148</v>
@@ -5632,13 +5632,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U58">
-        <v>0.9996636479066288</v>
+        <v>-0.0003363520933712394</v>
       </c>
       <c r="V58">
-        <v>0.9997134235768107</v>
+        <v>-0.0002865764231892998</v>
       </c>
       <c r="W58">
-        <v>1.000759878419453</v>
+        <v>0.0007598784194529085</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5673,7 +5673,7 @@
         <v>0.5675500984227765</v>
       </c>
       <c r="K59">
-        <v>36.20618562646444</v>
+        <v>-0.1379381437353556</v>
       </c>
       <c r="L59">
         <v>-0.02694939909053696</v>
@@ -5703,13 +5703,13 @@
         <v>-0.02062500000000256</v>
       </c>
       <c r="U59">
-        <v>0.9997140045254578</v>
+        <v>-0.0002859954745422222</v>
       </c>
       <c r="V59">
-        <v>0.9997470659651965</v>
+        <v>-0.0002529340348035314</v>
       </c>
       <c r="W59">
-        <v>1.000506200961782</v>
+        <v>0.0005062009617819996</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5744,7 +5744,7 @@
         <v>0.6392304211180482</v>
       </c>
       <c r="K60">
-        <v>38.995763675619</v>
+        <v>-0.1100423632438101</v>
       </c>
       <c r="L60">
         <v>-0.02516440980978634</v>
@@ -5774,13 +5774,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U60">
-        <v>0.999730750784609</v>
+        <v>-0.0002692492153909543</v>
       </c>
       <c r="V60">
-        <v>0.9999325338595692</v>
+        <v>-6.746614043084964E-05</v>
       </c>
       <c r="W60">
-        <v>1.000505944852011</v>
+        <v>0.0005059448520110532</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5815,7 +5815,7 @@
         <v>0.6769569067471655</v>
       </c>
       <c r="K61">
-        <v>40.36817547448344</v>
+        <v>-0.09631824525516558</v>
       </c>
       <c r="L61">
         <v>-0.02305857062209518</v>
@@ -5845,13 +5845,13 @@
         <v>-0.003124999999997158</v>
       </c>
       <c r="U61">
-        <v>0.9997811760943297</v>
+        <v>-0.0002188239056702956</v>
       </c>
       <c r="V61">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="W61">
-        <v>1.000252844500632</v>
+        <v>0.0002528445006322322</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5886,7 +5886,7 @@
         <v>0.5466945962489086</v>
       </c>
       <c r="K62">
-        <v>35.3459951030261</v>
+        <v>-0.146540048969739</v>
       </c>
       <c r="L62">
         <v>-0.02135989174843944</v>
@@ -5916,13 +5916,13 @@
         <v>-0.001874999999991189</v>
       </c>
       <c r="U62">
-        <v>0.9997642919076362</v>
+        <v>-0.0002357080923638399</v>
       </c>
       <c r="V62">
-        <v>0.9999325293075821</v>
+        <v>-6.747069241785919E-05</v>
       </c>
       <c r="W62">
-        <v>0.9984833164812942</v>
+        <v>-0.001516683518705819</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5957,7 +5957,7 @@
         <v>0.5804530773305538</v>
       </c>
       <c r="K63">
-        <v>36.72700478466349</v>
+        <v>-0.1327299521533651</v>
       </c>
       <c r="L63">
         <v>-0.01984657615276461</v>
@@ -5987,13 +5987,13 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>0.9997810765979303</v>
+        <v>-0.0002189234020697484</v>
       </c>
       <c r="V63">
-        <v>0.9999831311887452</v>
+        <v>-1.68688112548443E-05</v>
       </c>
       <c r="W63">
-        <v>1.000253164556962</v>
+        <v>0.0002531645569618934</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -6028,7 +6028,7 @@
         <v>0.687058807062091</v>
       </c>
       <c r="K64">
-        <v>40.72524349394563</v>
+        <v>-0.09274756506054371</v>
       </c>
       <c r="L64">
         <v>-0.0181938920506324</v>
@@ -6058,13 +6058,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U64">
-        <v>0.9998147165584444</v>
+        <v>-0.0001852834415555504</v>
       </c>
       <c r="V64">
-        <v>1.00005060728745</v>
+        <v>5.060728744954446E-05</v>
       </c>
       <c r="W64">
-        <v>1.000759301442673</v>
+        <v>0.0007593014426727773</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -6099,7 +6099,7 @@
         <v>0.6392368356020105</v>
       </c>
       <c r="K65">
-        <v>38.99600239078635</v>
+        <v>-0.1100399760921365</v>
       </c>
       <c r="L65">
         <v>-0.01667968252414188</v>
@@ -6129,13 +6129,13 @@
         <v>0.00562500000000199</v>
       </c>
       <c r="U65">
-        <v>0.9998062586867709</v>
+        <v>-0.0001937413132291343</v>
       </c>
       <c r="V65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>0.9994941831057158</v>
+        <v>-0.0005058168942841945</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6170,7 +6170,7 @@
         <v>0.6392368356020105</v>
       </c>
       <c r="K66">
-        <v>38.99600239078635</v>
+        <v>-0.1100399760921365</v>
       </c>
       <c r="L66">
         <v>-0.01528513094448045</v>
@@ -6200,13 +6200,13 @@
         <v>0.006874999999993747</v>
       </c>
       <c r="U66">
-        <v>0.9998904728204092</v>
+        <v>-0.0001095271795907848</v>
       </c>
       <c r="V66">
-        <v>0.9999831317578393</v>
+        <v>-1.686824216073912E-05</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6241,7 +6241,7 @@
         <v>0.6155020210904232</v>
       </c>
       <c r="K67">
-        <v>38.09973698918525</v>
+        <v>-0.1190026301081475</v>
       </c>
       <c r="L67">
         <v>-0.014088294631542</v>
@@ -6271,13 +6271,13 @@
         <v>0.005625000000009095</v>
       </c>
       <c r="U67">
-        <v>0.999890460822892</v>
+        <v>-0.0001095391771079868</v>
       </c>
       <c r="V67">
-        <v>0.9999493944198913</v>
+        <v>-5.060558010872018E-05</v>
       </c>
       <c r="W67">
-        <v>0.9997469635627529</v>
+        <v>-0.0002530364372470562</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6312,7 +6312,7 @@
         <v>0.6545861506084384</v>
       </c>
       <c r="K68">
-        <v>39.56192612682805</v>
+        <v>-0.1043807387317195</v>
       </c>
       <c r="L68">
         <v>-0.01294423001052047</v>
@@ -6342,13 +6342,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U68">
-        <v>0.9999073028500159</v>
+        <v>-9.269714998405565E-05</v>
       </c>
       <c r="V68">
-        <v>1.000016869380388</v>
+        <v>1.686938038769625E-05</v>
       </c>
       <c r="W68">
-        <v>1.000253100480891</v>
+        <v>0.0002531004808909998</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6383,7 +6383,7 @@
         <v>0.7780097175073456</v>
       </c>
       <c r="K69">
-        <v>43.75733776067685</v>
+        <v>-0.06242662239323155</v>
       </c>
       <c r="L69">
         <v>-0.01158179819903138</v>
@@ -6413,13 +6413,13 @@
         <v>-0.0006249999999994316</v>
       </c>
       <c r="U69">
-        <v>0.9999578610256625</v>
+        <v>-4.213897433746894E-05</v>
       </c>
       <c r="V69">
-        <v>1.00005060728745</v>
+        <v>5.060728744954446E-05</v>
       </c>
       <c r="W69">
-        <v>1.000759109311741</v>
+        <v>0.0007591093117407244</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6454,7 +6454,7 @@
         <v>0.7159952038629426</v>
       </c>
       <c r="K70">
-        <v>41.72477884851533</v>
+        <v>-0.08275221151484674</v>
       </c>
       <c r="L70">
         <v>-0.01031569143125464</v>
@@ -6484,13 +6484,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U70">
-        <v>0.9998988621997474</v>
+        <v>-0.0001011378002525598</v>
       </c>
       <c r="V70">
-        <v>1.000033736484321</v>
+        <v>3.373648432081211E-05</v>
       </c>
       <c r="W70">
-        <v>0.9994943109987359</v>
+        <v>-0.0005056890012641313</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6525,7 +6525,7 @@
         <v>0.7579474018536733</v>
       </c>
       <c r="K71">
-        <v>43.11547666639247</v>
+        <v>-0.06884523333607523</v>
       </c>
       <c r="L71">
         <v>-0.009058992728404712</v>
@@ -6555,13 +6555,13 @@
         <v>0.004375000000003126</v>
       </c>
       <c r="U71">
-        <v>0.9999072809723695</v>
+        <v>-9.271902763052786E-05</v>
       </c>
       <c r="V71">
-        <v>1.000033735346209</v>
+        <v>3.373534620898511E-05</v>
       </c>
       <c r="W71">
-        <v>1.000252972426005</v>
+        <v>0.0002529724260054156</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6596,7 +6596,7 @@
         <v>0.7258918657769011</v>
       </c>
       <c r="K72">
-        <v>42.05894240367978</v>
+        <v>-0.07941057596320222</v>
       </c>
       <c r="L72">
         <v>-0.007947111501178248</v>
@@ -6626,13 +6626,13 @@
         <v>0.002499999999990621</v>
       </c>
       <c r="U72">
-        <v>0.9998819830224146</v>
+        <v>-0.0001180169775854001</v>
       </c>
       <c r="V72">
-        <v>1.000084335520435</v>
+        <v>8.433552043451975E-05</v>
       </c>
       <c r="W72">
-        <v>0.9997470915528579</v>
+        <v>-0.0002529084471420973</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6667,7 +6667,7 @@
         <v>0.7258918657769012</v>
       </c>
       <c r="K73">
-        <v>42.05894240367978</v>
+        <v>-0.07941057596320222</v>
       </c>
       <c r="L73">
         <v>-0.006964880614473314</v>
@@ -6697,13 +6697,13 @@
         <v>0.0006249999999994316</v>
       </c>
       <c r="U73">
-        <v>0.9998735383136756</v>
+        <v>-0.0001264616863243528</v>
       </c>
       <c r="V73">
-        <v>1.000033731363422</v>
+        <v>3.373136342155192E-05</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6738,7 +6738,7 @@
         <v>0.6636888707999076</v>
       </c>
       <c r="K74">
-        <v>39.89260747298283</v>
+        <v>-0.1010739252701717</v>
       </c>
       <c r="L74">
         <v>-0.006282572961186001</v>
@@ -6768,13 +6768,13 @@
         <v>-0.0006249999999994316</v>
       </c>
       <c r="U74">
-        <v>0.9998566586283075</v>
+        <v>-0.0001433413716924736</v>
       </c>
       <c r="V74">
-        <v>0.9999662697743448</v>
+        <v>-3.373022565522632E-05</v>
       </c>
       <c r="W74">
-        <v>0.9994940551479888</v>
+        <v>-0.0005059448520111642</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6809,7 +6809,7 @@
         <v>0.7989917442130204</v>
       </c>
       <c r="K75">
-        <v>44.41330799783876</v>
+        <v>-0.05586692002161237</v>
       </c>
       <c r="L75">
         <v>-0.005526371076560677</v>
@@ -6839,13 +6839,13 @@
         <v>0.002500000000004832</v>
       </c>
       <c r="U75">
-        <v>0.9999578347290038</v>
+        <v>-4.216527099620837E-05</v>
       </c>
       <c r="V75">
-        <v>0.9999831343182891</v>
+        <v>-1.686568171088698E-05</v>
       </c>
       <c r="W75">
-        <v>1.000759301442673</v>
+        <v>0.0007593014426727773</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6880,7 +6880,7 @@
         <v>0.893941129064339</v>
       </c>
       <c r="K76">
-        <v>47.20004837246295</v>
+        <v>-0.02799951627537051</v>
       </c>
       <c r="L76">
         <v>-0.004569273309107797</v>
@@ -6910,13 +6910,13 @@
         <v>0.006874999999993747</v>
       </c>
       <c r="U76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W76">
-        <v>1.000505816894284</v>
+        <v>0.0005058168942844166</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6951,7 +6951,7 @@
         <v>0.8939411290643389</v>
       </c>
       <c r="K77">
-        <v>47.20004837246295</v>
+        <v>-0.02799951627537051</v>
       </c>
       <c r="L77">
         <v>-0.003534774960270094</v>
@@ -6981,13 +6981,13 @@
         <v>0.00812499999999261</v>
       </c>
       <c r="U77">
-        <v>1.000016866819592</v>
+        <v>1.686681959234271E-05</v>
       </c>
       <c r="V77">
-        <v>1.000101195797001</v>
+        <v>0.0001011957970011856</v>
       </c>
       <c r="W77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -7022,7 +7022,7 @@
         <v>1.05175174100557</v>
       </c>
       <c r="K78">
-        <v>51.26115991450813</v>
+        <v>0.01261159914508125</v>
       </c>
       <c r="L78">
         <v>-0.00223014147828962</v>
@@ -7052,13 +7052,13 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="U78">
-        <v>1.000059032872877</v>
+        <v>5.903287287689629E-05</v>
       </c>
       <c r="V78">
-        <v>1.000134914076597</v>
+        <v>0.0001349140765973811</v>
       </c>
       <c r="W78">
-        <v>1.000758341759353</v>
+        <v>0.0007583417593528541</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -7093,7 +7093,7 @@
         <v>0.9965695479514342</v>
       </c>
       <c r="K79">
-        <v>49.91409134602684</v>
+        <v>-0.0008590865397315461</v>
       </c>
       <c r="L79">
         <v>-0.0009289368252731495</v>
@@ -7123,13 +7123,13 @@
         <v>0.01062499999999744</v>
       </c>
       <c r="U79">
-        <v>1.000059029388203</v>
+        <v>5.902938820279147E-05</v>
       </c>
       <c r="V79">
-        <v>1.000067447938622</v>
+        <v>6.744793862245579E-05</v>
       </c>
       <c r="W79">
-        <v>0.9997474109623641</v>
+        <v>-0.0002525890376359197</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -7164,7 +7164,7 @@
         <v>1.051797903408034</v>
       </c>
       <c r="K80">
-        <v>51.2622564659511</v>
+        <v>0.01262256465951106</v>
       </c>
       <c r="L80">
         <v>0.0003827353674852828</v>
@@ -7194,13 +7194,13 @@
         <v>0.01500000000000767</v>
       </c>
       <c r="U80">
-        <v>1.000059025903939</v>
+        <v>5.902590393946916E-05</v>
       </c>
       <c r="V80">
-        <v>1.000118025931983</v>
+        <v>0.0001180259319830679</v>
       </c>
       <c r="W80">
-        <v>1.000252652854977</v>
+        <v>0.000252652854977331</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7235,7 +7235,7 @@
         <v>0.9422430901278501</v>
       </c>
       <c r="K81">
-        <v>48.51313900495462</v>
+        <v>-0.01486860995045375</v>
       </c>
       <c r="L81">
         <v>0.001431553917058577</v>
@@ -7265,13 +7265,13 @@
         <v>0.01687499999999886</v>
       </c>
       <c r="U81">
-        <v>1.000033727097193</v>
+        <v>3.372709719284828E-05</v>
       </c>
       <c r="V81">
-        <v>1.000084294288219</v>
+        <v>8.429428821910001E-05</v>
       </c>
       <c r="W81">
-        <v>0.9994948219247284</v>
+        <v>-0.0005051780752716173</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7306,7 +7306,7 @@
         <v>0.7395338216845512</v>
       </c>
       <c r="K82">
-        <v>42.51333388668422</v>
+        <v>-0.07486666113315787</v>
       </c>
       <c r="L82">
         <v>0.001788590325506637</v>
@@ -7336,13 +7336,13 @@
         <v>0.01812499999999773</v>
       </c>
       <c r="U82">
-        <v>0.9999831370201432</v>
+        <v>-1.686297985681318E-05</v>
       </c>
       <c r="V82">
-        <v>1.000016857436658</v>
+        <v>1.685743665813533E-05</v>
       </c>
       <c r="W82">
-        <v>0.9987364164771292</v>
+        <v>-0.001263583522870815</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7377,7 +7377,7 @@
         <v>0.7395338216845512</v>
       </c>
       <c r="K83">
-        <v>42.51333388668422</v>
+        <v>-0.07486666113315787</v>
       </c>
       <c r="L83">
         <v>0.001697272936636911</v>
@@ -7407,13 +7407,13 @@
         <v>0.01500000000000767</v>
       </c>
       <c r="U83">
-        <v>1.000008431632111</v>
+        <v>8.43163211072806E-06</v>
       </c>
       <c r="V83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7448,7 +7448,7 @@
         <v>0.8348844207164411</v>
       </c>
       <c r="K84">
-        <v>45.50065449847003</v>
+        <v>-0.04499345501529972</v>
       </c>
       <c r="L84">
         <v>0.00151816567306539</v>
@@ -7478,13 +7478,13 @@
         <v>0.01124999999999687</v>
       </c>
       <c r="U84">
-        <v>1.000016863122039</v>
+        <v>1.686312203852403E-05</v>
       </c>
       <c r="V84">
-        <v>0.9999831428475102</v>
+        <v>-1.685715248977981E-05</v>
       </c>
       <c r="W84">
-        <v>1.000506072874494</v>
+        <v>0.0005060728744938903</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7519,7 +7519,7 @@
         <v>1.035622523941508</v>
       </c>
       <c r="K85">
-        <v>50.87497862502852</v>
+        <v>0.008749786250285219</v>
       </c>
       <c r="L85">
         <v>0.001660111409657988</v>
@@ -7549,13 +7549,13 @@
         <v>0.01187500000000341</v>
       </c>
       <c r="U85">
-        <v>1.000059019931874</v>
+        <v>5.901993187418242E-05</v>
       </c>
       <c r="V85">
-        <v>1.000084287183291</v>
+        <v>8.428718329089868E-05</v>
       </c>
       <c r="W85">
-        <v>1.001011633788569</v>
+        <v>0.001011633788568611</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7590,7 +7590,7 @@
         <v>0.8939513876751842</v>
       </c>
       <c r="K86">
-        <v>47.20033436404643</v>
+        <v>-0.02799665635953569</v>
       </c>
       <c r="L86">
         <v>0.001705195631878853</v>
@@ -7620,13 +7620,13 @@
         <v>0.005624999999994884</v>
       </c>
       <c r="U86">
-        <v>1.00002529276374</v>
+        <v>2.529276374030331E-05</v>
       </c>
       <c r="V86">
-        <v>1.000016856015912</v>
+        <v>1.685601591217001E-05</v>
       </c>
       <c r="W86">
-        <v>0.9992420414350682</v>
+        <v>-0.0007579585649317711</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7661,7 +7661,7 @@
         <v>0.7209305328939239</v>
       </c>
       <c r="K87">
-        <v>41.89190203288474</v>
+        <v>-0.08108097967115258</v>
       </c>
       <c r="L87">
         <v>0.001222097847429637</v>
@@ -7691,13 +7691,13 @@
         <v>-0.0018750000000054</v>
       </c>
       <c r="U87">
-        <v>1.000016861416022</v>
+        <v>1.686141602164071E-05</v>
       </c>
       <c r="V87">
-        <v>0.9999494328046251</v>
+        <v>-5.05671953748843E-05</v>
       </c>
       <c r="W87">
-        <v>0.9987357774968395</v>
+        <v>-0.001264222503160495</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7732,7 +7732,7 @@
         <v>0.7209305328939238</v>
       </c>
       <c r="K88">
-        <v>41.89190203288474</v>
+        <v>-0.08108097967115263</v>
       </c>
       <c r="L88">
         <v>0.0004453716343624431</v>
@@ -7762,13 +7762,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U88">
-        <v>0.9999915694341404</v>
+        <v>-8.430565859640637E-06</v>
       </c>
       <c r="V88">
-        <v>0.9999494302474546</v>
+        <v>-5.056975254535967E-05</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7803,7 +7803,7 @@
         <v>0.6387415245089481</v>
       </c>
       <c r="K89">
-        <v>38.97756387788783</v>
+        <v>-0.1102243612211217</v>
       </c>
       <c r="L89">
         <v>-0.0007376117123547286</v>
@@ -7833,13 +7833,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U89">
-        <v>0.9999494161783924</v>
+        <v>-5.058382160760821E-05</v>
       </c>
       <c r="V89">
-        <v>0.9999325702533672</v>
+        <v>-6.742974663276335E-05</v>
       </c>
       <c r="W89">
-        <v>0.9992405063291139</v>
+        <v>-0.0007594936708861244</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7874,7 +7874,7 @@
         <v>0.6787429493901553</v>
       </c>
       <c r="K90">
-        <v>40.43161876788376</v>
+        <v>-0.09568381232116246</v>
       </c>
       <c r="L90">
         <v>-0.00199658693807625</v>
@@ -7904,13 +7904,13 @@
         <v>-0.02312500000000028</v>
       </c>
       <c r="U90">
-        <v>0.9999409825561298</v>
+        <v>-5.901744387015739E-05</v>
       </c>
       <c r="V90">
-        <v>0.999898848559435</v>
+        <v>-0.0001011514405649949</v>
       </c>
       <c r="W90">
-        <v>1.000253356979985</v>
+        <v>0.0002533569799847424</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7945,7 +7945,7 @@
         <v>0.6260233183523537</v>
       </c>
       <c r="K91">
-        <v>38.5002669572231</v>
+        <v>-0.1149973304277691</v>
       </c>
       <c r="L91">
         <v>-0.003398325176028083</v>
@@ -7975,13 +7975,13 @@
         <v>-0.02562500000000512</v>
       </c>
       <c r="U91">
-        <v>0.999915684389808</v>
+        <v>-8.431561019195399E-05</v>
       </c>
       <c r="V91">
-        <v>0.9998313972113099</v>
+        <v>-0.0001686027886901309</v>
       </c>
       <c r="W91">
-        <v>0.9994934143870315</v>
+        <v>-0.0005065856129684576</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -8016,7 +8016,7 @@
         <v>0.5787078846704204</v>
       </c>
       <c r="K92">
-        <v>36.65705925014967</v>
+        <v>-0.1334294074985033</v>
       </c>
       <c r="L92">
         <v>-0.004969120329598808</v>
@@ -8046,13 +8046,13 @@
         <v>-0.03062499999999346</v>
       </c>
       <c r="U92">
-        <v>0.999949406368052</v>
+        <v>-5.059363194803712E-05</v>
       </c>
       <c r="V92">
-        <v>0.9997976425355389</v>
+        <v>-0.0002023574644610671</v>
       </c>
       <c r="W92">
-        <v>0.9994931576279776</v>
+        <v>-0.0005068423720223647</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -8087,7 +8087,7 @@
         <v>0.6582667736208796</v>
       </c>
       <c r="K93">
-        <v>39.69607207310393</v>
+        <v>-0.1030392792689607</v>
       </c>
       <c r="L93">
         <v>-0.006340100270911891</v>
@@ -8117,13 +8117,13 @@
         <v>-0.03937500000000682</v>
       </c>
       <c r="U93">
-        <v>0.999957836506839</v>
+        <v>-4.216349316099599E-05</v>
       </c>
       <c r="V93">
-        <v>0.9997807350436001</v>
+        <v>-0.0002192649563999005</v>
       </c>
       <c r="W93">
-        <v>1.000507099391481</v>
+        <v>0.0005070993914808586</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -8158,7 +8158,7 @@
         <v>0.7420129725160698</v>
       </c>
       <c r="K94">
-        <v>42.59514620286359</v>
+        <v>-0.07404853797136413</v>
       </c>
       <c r="L94">
         <v>-0.007295496470239016</v>
@@ -8188,13 +8188,13 @@
         <v>-0.04124999999999801</v>
       </c>
       <c r="U94">
-        <v>0.9999494016748043</v>
+        <v>-5.05983251957165E-05</v>
       </c>
       <c r="V94">
-        <v>0.9998312976584115</v>
+        <v>-0.0001687023415885003</v>
       </c>
       <c r="W94">
-        <v>1.000506842372022</v>
+        <v>0.0005068423720222537</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8229,7 +8229,7 @@
         <v>0.874243812876928</v>
       </c>
       <c r="K95">
-        <v>46.64514866584943</v>
+        <v>-0.03354851334150566</v>
       </c>
       <c r="L95">
         <v>-0.0076354137846964</v>
@@ -8259,13 +8259,13 @@
         <v>-0.03562499999999602</v>
       </c>
       <c r="U95">
-        <v>0.9999915665190808</v>
+        <v>-8.433480919167735E-06</v>
       </c>
       <c r="V95">
-        <v>0.9998650153545035</v>
+        <v>-0.0001349846454965498</v>
       </c>
       <c r="W95">
-        <v>1.000759878419453</v>
+        <v>0.0007598784194529085</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8300,7 +8300,7 @@
         <v>0.800008194713738</v>
       </c>
       <c r="K96">
-        <v>44.4446973665565</v>
+        <v>-0.05555302633443499</v>
       </c>
       <c r="L96">
         <v>-0.007737175791303645</v>
@@ -8330,13 +8330,13 @@
         <v>-0.03062500000000057</v>
       </c>
       <c r="U96">
-        <v>0.9999746993438695</v>
+        <v>-2.530065613048915E-05</v>
       </c>
       <c r="V96">
-        <v>0.999864997131189</v>
+        <v>-0.0001350028688109628</v>
       </c>
       <c r="W96">
-        <v>0.9994937990382182</v>
+        <v>-0.0005062009617817775</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8371,7 +8371,7 @@
         <v>0.7054280181256396</v>
       </c>
       <c r="K97">
-        <v>41.36369349091287</v>
+        <v>-0.08636306509087127</v>
       </c>
       <c r="L97">
         <v>-0.007936357058905634</v>
@@ -8401,13 +8401,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U97">
-        <v>0.9999578311728838</v>
+        <v>-4.216882711616243E-05</v>
       </c>
       <c r="V97">
-        <v>0.9998987341772152</v>
+        <v>-0.0001012658227848018</v>
       </c>
       <c r="W97">
-        <v>0.9992403140035452</v>
+        <v>-0.0007596859964548175</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8442,7 +8442,7 @@
         <v>0.6513862663472086</v>
       </c>
       <c r="K98">
-        <v>39.44481552387168</v>
+        <v>-0.1055518447612832</v>
       </c>
       <c r="L98">
         <v>-0.008337291533378061</v>
@@ -8472,13 +8472,13 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="U98">
-        <v>0.9999325270313579</v>
+        <v>-6.747296864206831E-05</v>
       </c>
       <c r="V98">
-        <v>0.9998649652285464</v>
+        <v>-0.0001350347714536015</v>
       </c>
       <c r="W98">
-        <v>0.9994931576279776</v>
+        <v>-0.0005068423720223647</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8513,7 +8513,7 @@
         <v>0.6513862663472086</v>
       </c>
       <c r="K99">
-        <v>39.44481552387168</v>
+        <v>-0.1055518447612832</v>
       </c>
       <c r="L99">
         <v>-0.008804661500211201</v>
@@ -8543,13 +8543,13 @@
         <v>-0.02250000000000796</v>
       </c>
       <c r="U99">
-        <v>0.999907218407868</v>
+        <v>-9.278159213199633E-05</v>
       </c>
       <c r="V99">
-        <v>0.9998311837396178</v>
+        <v>-0.0001688162603822319</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8584,7 +8584,7 @@
         <v>0.6938286246273268</v>
       </c>
       <c r="K100">
-        <v>40.96215015730895</v>
+        <v>-0.09037849842691048</v>
       </c>
       <c r="L100">
         <v>-0.009158398284089755</v>
@@ -8614,13 +8614,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U100">
-        <v>0.9999325162171967</v>
+        <v>-6.748378280330147E-05</v>
       </c>
       <c r="V100">
-        <v>0.9997805018066389</v>
+        <v>-0.0002194981933610896</v>
       </c>
       <c r="W100">
-        <v>1.000253549695741</v>
+        <v>0.0002535496957405403</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8655,7 +8655,7 @@
         <v>0.7385047912379454</v>
       </c>
       <c r="K101">
-        <v>42.47930721617826</v>
+        <v>-0.07520692783821736</v>
       </c>
       <c r="L101">
         <v>-0.009295312719387515</v>
@@ -8685,13 +8685,13 @@
         <v>-0.008124999999999716</v>
       </c>
       <c r="U101">
-        <v>0.999932511662828</v>
+        <v>-6.748833717196145E-05</v>
       </c>
       <c r="V101">
-        <v>0.999848006349957</v>
+        <v>-0.0001519936500430363</v>
       </c>
       <c r="W101">
-        <v>1.000253485424588</v>
+        <v>0.0002534854245881402</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8726,7 +8726,7 @@
         <v>0.8795874226399329</v>
       </c>
       <c r="K102">
-        <v>46.79683488222793</v>
+        <v>-0.03203165117772072</v>
       </c>
       <c r="L102">
         <v>-0.00898183758847531</v>
@@ -8756,13 +8756,13 @@
         <v>-0.003124999999997158</v>
       </c>
       <c r="U102">
-        <v>0.9999662535539228</v>
+        <v>-3.374644607723187E-05</v>
       </c>
       <c r="V102">
-        <v>0.9999831092493751</v>
+        <v>-1.689075062494272E-05</v>
       </c>
       <c r="W102">
-        <v>1.000760263558033</v>
+        <v>0.0007602635580334915</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8797,7 +8797,7 @@
         <v>0.8380992648634211</v>
       </c>
       <c r="K103">
-        <v>45.59597410674638</v>
+        <v>-0.04404025893253616</v>
       </c>
       <c r="L103">
         <v>-0.008474863092781799</v>
@@ -8827,13 +8827,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U103">
-        <v>0.999957815518827</v>
+        <v>-4.218448117299101E-05</v>
       </c>
       <c r="V103">
-        <v>0.9999662179281457</v>
+        <v>-3.378207185433801E-05</v>
       </c>
       <c r="W103">
-        <v>0.9997467713345149</v>
+        <v>-0.0002532286654850502</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8868,7 +8868,7 @@
         <v>0.8380992648634211</v>
       </c>
       <c r="K104">
-        <v>45.59597410674638</v>
+        <v>-0.04404025893253616</v>
       </c>
       <c r="L104">
         <v>-0.00785206981492048</v>
@@ -8898,13 +8898,13 @@
         <v>-0.005624999999994884</v>
       </c>
       <c r="U104">
-        <v>0.9999746882435329</v>
+        <v>-2.531175646713901E-05</v>
       </c>
       <c r="V104">
-        <v>1.000016891606561</v>
+        <v>1.68916065605984E-05</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8939,7 +8939,7 @@
         <v>0.838099264863421</v>
       </c>
       <c r="K105">
-        <v>45.59597410674638</v>
+        <v>-0.04404025893253616</v>
       </c>
       <c r="L105">
         <v>-0.007170175126674584</v>
@@ -8969,13 +8969,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U105">
-        <v>0.999949375205663</v>
+        <v>-5.06247943370397E-05</v>
       </c>
       <c r="V105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -9010,7 +9010,7 @@
         <v>0.7943962393244012</v>
       </c>
       <c r="K106">
-        <v>44.27094874114845</v>
+        <v>-0.05729051258851547</v>
       </c>
       <c r="L106">
         <v>-0.006561986013731572</v>
@@ -9040,13 +9040,13 @@
         <v>0.0006249999999994316</v>
       </c>
       <c r="U106">
-        <v>0.9999240589639957</v>
+        <v>-7.594103600427893E-05</v>
       </c>
       <c r="V106">
-        <v>1.000016891321239</v>
+        <v>1.689132123927628E-05</v>
       </c>
       <c r="W106">
-        <v>0.9997467071935158</v>
+        <v>-0.0002532928064842288</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -9081,7 +9081,7 @@
         <v>0.849286139252201</v>
       </c>
       <c r="K107">
-        <v>45.92508002010053</v>
+        <v>-0.04074919979899472</v>
       </c>
       <c r="L107">
         <v>-0.005921120671760898</v>
@@ -9111,13 +9111,13 @@
         <v>0.004375000000003126</v>
       </c>
       <c r="U107">
-        <v>0.9999324917302369</v>
+        <v>-6.750826976309465E-05</v>
       </c>
       <c r="V107">
-        <v>1.000067564143709</v>
+        <v>6.756414370912012E-05</v>
       </c>
       <c r="W107">
-        <v>1.000253356979985</v>
+        <v>0.0002533569799847424</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -9152,7 +9152,7 @@
         <v>0.907064981281505</v>
       </c>
       <c r="K108">
-        <v>47.56340188638867</v>
+        <v>-0.02436598113611332</v>
       </c>
       <c r="L108">
         <v>-0.005187519922622076</v>
@@ -9182,13 +9182,13 @@
         <v>0.006250000000001421</v>
       </c>
       <c r="U108">
-        <v>0.9999156089657034</v>
+        <v>-8.439103429658257E-05</v>
       </c>
       <c r="V108">
-        <v>1.000050669684328</v>
+        <v>5.066968432787533E-05</v>
       </c>
       <c r="W108">
-        <v>1.000253292806484</v>
+        <v>0.0002532928064844508</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9223,7 +9223,7 @@
         <v>0.9070649812815051</v>
       </c>
       <c r="K109">
-        <v>47.56340188638867</v>
+        <v>-0.02436598113611332</v>
       </c>
       <c r="L109">
         <v>-0.004425568385979727</v>
@@ -9253,13 +9253,13 @@
         <v>0.00812499999999261</v>
       </c>
       <c r="U109">
-        <v>0.9999240416589303</v>
+        <v>-7.59583410696596E-05</v>
       </c>
       <c r="V109">
-        <v>1.000016889039014</v>
+        <v>1.68890390137566E-05</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9294,7 +9294,7 @@
         <v>0.8524879543077315</v>
       </c>
       <c r="K110">
-        <v>46.01854237839314</v>
+        <v>-0.03981457621606865</v>
       </c>
       <c r="L110">
         <v>-0.003771073246454534</v>
@@ -9324,13 +9324,13 @@
         <v>0.006875000000000853</v>
       </c>
       <c r="U110">
-        <v>0.9999071549752272</v>
+        <v>-9.284502477280299E-05</v>
       </c>
       <c r="V110">
-        <v>0.9999493337386632</v>
+        <v>-5.066626133676255E-05</v>
       </c>
       <c r="W110">
-        <v>0.9997467713345149</v>
+        <v>-0.0002532286654850502</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9365,7 +9365,7 @@
         <v>0.6177388147103223</v>
       </c>
       <c r="K111">
-        <v>38.18532442277691</v>
+        <v>-0.1181467557722309</v>
       </c>
       <c r="L111">
         <v>-0.003762934222520681</v>
@@ -9395,13 +9395,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U111">
-        <v>0.9998733813921293</v>
+        <v>-0.0001266186078706655</v>
       </c>
       <c r="V111">
-        <v>0.9998817727334146</v>
+        <v>-0.0001182272665853912</v>
       </c>
       <c r="W111">
-        <v>0.9984802431610943</v>
+        <v>-0.001519756838905706</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9436,7 +9436,7 @@
         <v>0.5892708849176469</v>
       </c>
       <c r="K112">
-        <v>37.07806457098607</v>
+        <v>-0.1292193542901393</v>
       </c>
       <c r="L112">
         <v>-0.00422547763676963</v>
@@ -9466,13 +9466,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U112">
-        <v>0.99990713459574</v>
+        <v>-9.286540426001189E-05</v>
       </c>
       <c r="V112">
-        <v>0.9999155419671962</v>
+        <v>-8.445803280376918E-05</v>
       </c>
       <c r="W112">
-        <v>0.9997463216641298</v>
+        <v>-0.0002536783358701999</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9507,7 +9507,7 @@
         <v>0.5620081150896974</v>
       </c>
       <c r="K113">
-        <v>35.97984604948256</v>
+        <v>-0.1402015395051744</v>
       </c>
       <c r="L113">
         <v>-0.005020608382330764</v>
@@ -9537,13 +9537,13 @@
         <v>-0.004999999999988347</v>
       </c>
       <c r="U113">
-        <v>0.9998986828774064</v>
+        <v>-0.0001013171225936471</v>
       </c>
       <c r="V113">
-        <v>0.9999324278667479</v>
+        <v>-6.757213325214728E-05</v>
       </c>
       <c r="W113">
-        <v>0.9997462572951028</v>
+        <v>-0.0002537427048971974</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9578,7 +9578,7 @@
         <v>0.4903653387737243</v>
       </c>
       <c r="K114">
-        <v>32.90235796661763</v>
+        <v>-0.1709764203338237</v>
       </c>
       <c r="L114">
         <v>-0.006225051895303829</v>
@@ -9608,13 +9608,13 @@
         <v>-0.01312500000000227</v>
       </c>
       <c r="U114">
-        <v>0.9998564528658762</v>
+        <v>-0.0001435471341237893</v>
       </c>
       <c r="V114">
-        <v>0.9998817407757805</v>
+        <v>-0.0001182592242194858</v>
       </c>
       <c r="W114">
-        <v>0.999238578680203</v>
+        <v>-0.000761421319796951</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9649,7 +9649,7 @@
         <v>0.4007422179615424</v>
       </c>
       <c r="K115">
-        <v>28.60927676933521</v>
+        <v>-0.2139072323066479</v>
       </c>
       <c r="L115">
         <v>-0.008039370696611838</v>
@@ -9679,13 +9679,13 @@
         <v>-0.02562499999999801</v>
       </c>
       <c r="U115">
-        <v>0.9997804258050351</v>
+        <v>-0.0002195741949648777</v>
       </c>
       <c r="V115">
-        <v>0.9997803497507816</v>
+        <v>-0.0002196502492184393</v>
       </c>
       <c r="W115">
-        <v>0.998729997459995</v>
+        <v>-0.001270002540004977</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9720,7 +9720,7 @@
         <v>0.4392197039138018</v>
       </c>
       <c r="K116">
-        <v>30.5179051342468</v>
+        <v>-0.194820948657532</v>
       </c>
       <c r="L116">
         <v>-0.009986361203829893</v>
@@ -9750,13 +9750,13 @@
         <v>-0.03812500000000085</v>
       </c>
       <c r="U116">
-        <v>0.9998141656459857</v>
+        <v>-0.0001858343540143137</v>
       </c>
       <c r="V116">
-        <v>0.9997803014939498</v>
+        <v>-0.0002196985060501921</v>
       </c>
       <c r="W116">
-        <v>1.000254323499491</v>
+        <v>0.0002543234994913934</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9791,7 +9791,7 @@
         <v>0.4063067321679088</v>
       </c>
       <c r="K117">
-        <v>28.89175759982048</v>
+        <v>-0.2110824240017952</v>
       </c>
       <c r="L117">
         <v>-0.01203812392542735</v>
@@ -9821,13 +9821,13 @@
         <v>-0.05124999999999602</v>
       </c>
       <c r="U117">
-        <v>0.9998394768635468</v>
+        <v>-0.0001605231364532056</v>
       </c>
       <c r="V117">
-        <v>0.9996957352220287</v>
+        <v>-0.000304264777971297</v>
       </c>
       <c r="W117">
-        <v>0.9994914823290111</v>
+        <v>-0.0005085176709889172</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9862,7 +9862,7 @@
         <v>0.4063067321679089</v>
       </c>
       <c r="K118">
-        <v>28.89175759982048</v>
+        <v>-0.2110824240017952</v>
       </c>
       <c r="L118">
         <v>-0.01397919921190632</v>
@@ -9892,13 +9892,13 @@
         <v>-0.06124999999999403</v>
       </c>
       <c r="U118">
-        <v>0.9998394510917327</v>
+        <v>-0.0001605489082673328</v>
       </c>
       <c r="V118">
-        <v>0.9997125513603082</v>
+        <v>-0.0002874486396917675</v>
       </c>
       <c r="W118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9933,7 +9933,7 @@
         <v>0.3751572113278032</v>
       </c>
       <c r="K119">
-        <v>27.28104163200109</v>
+        <v>-0.2271895836799891</v>
       </c>
       <c r="L119">
         <v>-0.0158635771182927</v>
@@ -9963,13 +9963,13 @@
         <v>-0.06562499999999716</v>
       </c>
       <c r="U119">
-        <v>0.9998478766110288</v>
+        <v>-0.0001521233889711926</v>
       </c>
       <c r="V119">
-        <v>0.9996786414992223</v>
+        <v>-0.0003213585007777464</v>
       </c>
       <c r="W119">
-        <v>0.9994912236072245</v>
+        <v>-0.0005087763927754674</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -10004,7 +10004,7 @@
         <v>0.3230215135666643</v>
       </c>
       <c r="K120">
-        <v>24.41543922410207</v>
+        <v>-0.2558456077589792</v>
       </c>
       <c r="L120">
         <v>-0.01790538936941091</v>
@@ -10034,13 +10034,13 @@
         <v>-0.07124999999999915</v>
       </c>
       <c r="U120">
-        <v>0.9998055905398666</v>
+        <v>-0.0001944094601333823</v>
       </c>
       <c r="V120">
-        <v>0.9996108620252094</v>
+        <v>-0.0003891379747905654</v>
       </c>
       <c r="W120">
-        <v>0.9989819292440825</v>
+        <v>-0.001018070755917533</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -10075,7 +10075,7 @@
         <v>0.3116250360887897</v>
       </c>
       <c r="K121">
-        <v>23.75869837145244</v>
+        <v>-0.2624130162854756</v>
       </c>
       <c r="L121">
         <v>-0.01994024740443507</v>
@@ -10105,13 +10105,13 @@
         <v>-0.07625000000000881</v>
       </c>
       <c r="U121">
-        <v>0.9998140069662845</v>
+        <v>-0.0001859930337154703</v>
       </c>
       <c r="V121">
-        <v>0.9996107105378964</v>
+        <v>-0.0003892894621035925</v>
       </c>
       <c r="W121">
-        <v>0.9997452229299364</v>
+        <v>-0.0002547770700636054</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -10146,7 +10146,7 @@
         <v>0.3487627856755443</v>
       </c>
       <c r="K122">
-        <v>25.85797809515202</v>
+        <v>-0.2414202190484798</v>
       </c>
       <c r="L122">
         <v>-0.02167699401879717</v>
@@ -10176,13 +10176,13 @@
         <v>-0.07750000000000767</v>
       </c>
       <c r="U122">
-        <v>0.9998393397710168</v>
+        <v>-0.0001606602289832004</v>
       </c>
       <c r="V122">
-        <v>0.9996105589325929</v>
+        <v>-0.0003894410674071258</v>
       </c>
       <c r="W122">
-        <v>1.000254841997961</v>
+        <v>0.0002548419979611083</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10217,7 +10217,7 @@
         <v>0.3487627856755443</v>
       </c>
       <c r="K123">
-        <v>25.85797809515201</v>
+        <v>-0.2414202190484799</v>
       </c>
       <c r="L123">
         <v>-0.02304409232257357</v>
@@ -10247,13 +10247,13 @@
         <v>-0.07187500000000568</v>
       </c>
       <c r="U123">
-        <v>0.9998223996346507</v>
+        <v>-0.0001776003653493063</v>
       </c>
       <c r="V123">
-        <v>0.9995934683921673</v>
+        <v>-0.0004065316078326608</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10288,7 +10288,7 @@
         <v>0.3104391963089872</v>
       </c>
       <c r="K124">
-        <v>23.68970625904485</v>
+        <v>-0.2631029374095515</v>
       </c>
       <c r="L124">
         <v>-0.02429377648925695</v>
@@ -10318,13 +10318,13 @@
         <v>-0.06874999999999432</v>
       </c>
       <c r="U124">
-        <v>0.9997800747745769</v>
+        <v>-0.0002199252254231343</v>
       </c>
       <c r="V124">
-        <v>0.999542465939131</v>
+        <v>-0.0004575340608690137</v>
       </c>
       <c r="W124">
-        <v>0.9992356687898089</v>
+        <v>-0.0007643312101911492</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10359,7 +10359,7 @@
         <v>0.4261069855420352</v>
       </c>
       <c r="K125">
-        <v>29.87903361121819</v>
+        <v>-0.2012096638878181</v>
       </c>
       <c r="L125">
         <v>-0.02502769168403438</v>
@@ -10389,13 +10389,13 @@
         <v>-0.06124999999999403</v>
       </c>
       <c r="U125">
-        <v>0.9997800263968323</v>
+        <v>-0.0002199736031677224</v>
       </c>
       <c r="V125">
-        <v>0.9996100703568703</v>
+        <v>-0.0003899296431296717</v>
       </c>
       <c r="W125">
-        <v>1.000764915859256</v>
+        <v>0.0007649158592555327</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10430,7 +10430,7 @@
         <v>0.4666921747466038</v>
       </c>
       <c r="K126">
-        <v>31.81936760705995</v>
+        <v>-0.1818063239294005</v>
       </c>
       <c r="L126">
         <v>-0.02521909710924407</v>
@@ -10460,13 +10460,13 @@
         <v>-0.05374999999999375</v>
       </c>
       <c r="U126">
-        <v>0.9998053651518999</v>
+        <v>-0.000194634848100117</v>
       </c>
       <c r="V126">
-        <v>0.999728638784302</v>
+        <v>-0.0002713612156980405</v>
       </c>
       <c r="W126">
-        <v>1.000254777070064</v>
+        <v>0.0002547770700636054</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10501,7 +10501,7 @@
         <v>0.5948559301294826</v>
       </c>
       <c r="K127">
-        <v>37.2984116553517</v>
+        <v>-0.127015883446483</v>
       </c>
       <c r="L127">
         <v>-0.02470061734399639</v>
@@ -10531,13 +10531,13 @@
         <v>-0.04562499999999403</v>
       </c>
       <c r="U127">
-        <v>0.9998561114543746</v>
+        <v>-0.0001438885456254146</v>
       </c>
       <c r="V127">
-        <v>0.9997964238455537</v>
+        <v>-0.0002035761544463277</v>
       </c>
       <c r="W127">
-        <v>1.000764136525726</v>
+        <v>0.0007641365257260446</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10572,7 +10572,7 @@
         <v>0.6847954075911626</v>
       </c>
       <c r="K128">
-        <v>40.64561219158647</v>
+        <v>-0.09354387808413528</v>
       </c>
       <c r="L128">
         <v>-0.02351006847321799</v>
@@ -10602,13 +10602,13 @@
         <v>-0.03187499999999943</v>
       </c>
       <c r="U128">
-        <v>0.9998899517480743</v>
+        <v>-0.0001100482519257318</v>
       </c>
       <c r="V128">
-        <v>0.999847286795398</v>
+        <v>-0.000152713204601973</v>
       </c>
       <c r="W128">
-        <v>1.000509035377959</v>
+        <v>0.0005090353779588774</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10643,7 +10643,7 @@
         <v>0.6847954075911625</v>
       </c>
       <c r="K129">
-        <v>40.64561219158647</v>
+        <v>-0.09354387808413533</v>
       </c>
       <c r="L129">
         <v>-0.02190229117275799</v>
@@ -10673,13 +10673,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U129">
-        <v>0.9998899396361235</v>
+        <v>-0.0001100603638765074</v>
       </c>
       <c r="V129">
-        <v>0.999898175647009</v>
+        <v>-0.0001018243529909979</v>
       </c>
       <c r="W129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10714,7 +10714,7 @@
         <v>0.6522929757934833</v>
       </c>
       <c r="K130">
-        <v>39.47804568256012</v>
+        <v>-0.1052195431743988</v>
       </c>
       <c r="L130">
         <v>-0.02015667807454543</v>
@@ -10744,13 +10744,13 @@
         <v>-0.006875000000000853</v>
       </c>
       <c r="U130">
-        <v>0.9998729932940457</v>
+        <v>-0.0001270067059543356</v>
       </c>
       <c r="V130">
-        <v>0.9999660550925847</v>
+        <v>-3.394490741526202E-05</v>
       </c>
       <c r="W130">
-        <v>0.9997456118036122</v>
+        <v>-0.0002543881963877892</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10785,7 +10785,7 @@
         <v>0.7022540090065539</v>
       </c>
       <c r="K131">
-        <v>41.25436070592036</v>
+        <v>-0.08745639294079638</v>
       </c>
       <c r="L131">
         <v>-0.01827275076893164</v>
@@ -10815,13 +10815,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U131">
-        <v>0.9998729771612938</v>
+        <v>-0.0001270228387062478</v>
       </c>
       <c r="V131">
-        <v>0.999966053940289</v>
+        <v>-3.394605971096532E-05</v>
       </c>
       <c r="W131">
-        <v>1.000254452926209</v>
+        <v>0.0002544529262087369</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10856,7 +10856,7 @@
         <v>0.8600256928372283</v>
       </c>
       <c r="K132">
-        <v>46.23730178293239</v>
+        <v>-0.03762698217067606</v>
       </c>
       <c r="L132">
         <v>-0.01608079004786838</v>
@@ -10886,13 +10886,13 @@
         <v>0.015625</v>
       </c>
       <c r="U132">
-        <v>0.9998729610244425</v>
+        <v>-0.0001270389755575474</v>
       </c>
       <c r="V132">
-        <v>1.000050920818128</v>
+        <v>5.092081812763105E-05</v>
       </c>
       <c r="W132">
-        <v>1.000763164589163</v>
+        <v>0.0007631645891630345</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10927,7 +10927,7 @@
         <v>0.9153841783918376</v>
       </c>
       <c r="K133">
-        <v>47.79115274724661</v>
+        <v>-0.02208847252753388</v>
       </c>
       <c r="L133">
         <v>-0.01369052897963753</v>
@@ -10957,13 +10957,13 @@
         <v>0.02562500000000512</v>
       </c>
       <c r="U133">
-        <v>0.9998898855656917</v>
+        <v>-0.000110114434308306</v>
       </c>
       <c r="V133">
-        <v>1.000067890967107</v>
+        <v>6.789096710679843E-05</v>
       </c>
       <c r="W133">
-        <v>1.000254194204372</v>
+        <v>0.0002541942043721157</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10998,7 +10998,7 @@
         <v>0.8649799867084423</v>
       </c>
       <c r="K134">
-        <v>46.38012165669782</v>
+        <v>-0.03619878343302185</v>
       </c>
       <c r="L134">
         <v>-0.01137494842221092</v>
@@ -11028,13 +11028,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U134">
-        <v>0.9998814021652578</v>
+        <v>-0.0001185978347422179</v>
       </c>
       <c r="V134">
-        <v>1.000084857947795</v>
+        <v>8.485794779522493E-05</v>
       </c>
       <c r="W134">
-        <v>0.9997458703939009</v>
+        <v>-0.0002541296060990517</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -11069,7 +11069,7 @@
         <v>0.8649799867084424</v>
       </c>
       <c r="K135">
-        <v>46.38012165669782</v>
+        <v>-0.03619878343302185</v>
       </c>
       <c r="L135">
         <v>-0.00921066997980434</v>
@@ -11099,13 +11099,13 @@
         <v>0.03687500000000199</v>
       </c>
       <c r="U135">
-        <v>0.9998813880981428</v>
+        <v>-0.0001186119018572462</v>
       </c>
       <c r="V135">
-        <v>1.000152731345563</v>
+        <v>0.0001527313455631507</v>
       </c>
       <c r="W135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -11140,7 +11140,7 @@
         <v>0.9259920963659586</v>
       </c>
       <c r="K136">
-        <v>48.0787069746111</v>
+        <v>-0.01921293025388898</v>
       </c>
       <c r="L136">
         <v>-0.007149818731443608</v>
@@ -11170,13 +11170,13 @@
         <v>0.03562499999999602</v>
       </c>
       <c r="U136">
-        <v>0.9998983205951634</v>
+        <v>-0.0001016794048366298</v>
       </c>
       <c r="V136">
-        <v>1.00018664313832</v>
+        <v>0.0001866431383195089</v>
       </c>
       <c r="W136">
-        <v>1.000254194204372</v>
+        <v>0.0002541942043721157</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -11211,7 +11211,7 @@
         <v>0.9902153696896598</v>
       </c>
       <c r="K137">
-        <v>49.75418162126178</v>
+        <v>-0.002458183787382218</v>
       </c>
       <c r="L137">
         <v>-0.005164303080873437</v>
@@ -11241,13 +11241,13 @@
         <v>0.03437500000000426</v>
       </c>
       <c r="U137">
-        <v>0.9998983102554108</v>
+        <v>-0.0001016897445892395</v>
       </c>
       <c r="V137">
-        <v>1.000186608309159</v>
+        <v>0.0001866083091588422</v>
       </c>
       <c r="W137">
-        <v>1.000254129606099</v>
+        <v>0.0002541296060991627</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11282,7 +11282,7 @@
         <v>0.9902153696896598</v>
       </c>
       <c r="K138">
-        <v>49.75418162126178</v>
+        <v>-0.002458183787382218</v>
       </c>
       <c r="L138">
         <v>-0.003332133326840416</v>
@@ -11312,13 +11312,13 @@
         <v>0.0350000000000108</v>
       </c>
       <c r="U138">
-        <v>0.9998898249063511</v>
+        <v>-0.0001101750936488566</v>
       </c>
       <c r="V138">
-        <v>1.000186573492995</v>
+        <v>0.0001865734929951124</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11353,7 +11353,7 @@
         <v>1.132538413066334</v>
       </c>
       <c r="K139">
-        <v>53.10752697944979</v>
+        <v>0.03107526979449782</v>
       </c>
       <c r="L139">
         <v>-0.001512314542054033</v>
@@ -11383,13 +11383,13 @@
         <v>0.03562500000001023</v>
       </c>
       <c r="U139">
-        <v>0.9999067646485452</v>
+        <v>-9.323535145477901E-05</v>
       </c>
       <c r="V139">
-        <v>1.000271329003375</v>
+        <v>0.0002713290033748983</v>
       </c>
       <c r="W139">
-        <v>1.000508130081301</v>
+        <v>0.000508130081300795</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11424,7 +11424,7 @@
         <v>1.132538413066333</v>
       </c>
       <c r="K140">
-        <v>53.10752697944979</v>
+        <v>0.03107526979449782</v>
       </c>
       <c r="L140">
         <v>0.0001895392727505471</v>
@@ -11454,13 +11454,13 @@
         <v>0.03062500000000057</v>
       </c>
       <c r="U140">
-        <v>0.999915232686276</v>
+        <v>-8.476731372397683E-05</v>
       </c>
       <c r="V140">
-        <v>1.000220395015682</v>
+        <v>0.0002203950156818291</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11495,7 +11495,7 @@
         <v>1.369086407598118</v>
       </c>
       <c r="K141">
-        <v>57.78963583629508</v>
+        <v>0.07789635836295072</v>
       </c>
       <c r="L141">
         <v>0.00198851904528171</v>
@@ -11525,13 +11525,13 @@
         <v>0.02812499999998863</v>
       </c>
       <c r="U141">
-        <v>0.999991522550017</v>
+        <v>-8.477449983002039E-06</v>
       </c>
       <c r="V141">
-        <v>1.000254245906641</v>
+        <v>0.0002542459066410263</v>
       </c>
       <c r="W141">
-        <v>1.000761808024378</v>
+        <v>0.0007618080243776415</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11566,7 +11566,7 @@
         <v>1.452085703925118</v>
       </c>
       <c r="K142">
-        <v>59.21839116800552</v>
+        <v>0.09218391168005524</v>
       </c>
       <c r="L142">
         <v>0.003816969298608427</v>
@@ -11596,13 +11596,13 @@
         <v>0.02812499999999574</v>
       </c>
       <c r="U142">
-        <v>1.000008477521851</v>
+        <v>8.47752185095807E-06</v>
       </c>
       <c r="V142">
-        <v>1.000220290444478</v>
+        <v>0.0002202904444781328</v>
       </c>
       <c r="W142">
-        <v>1.000253742704897</v>
+        <v>0.0002537427048974195</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11637,7 +11637,7 @@
         <v>1.714188744957628</v>
       </c>
       <c r="K143">
-        <v>63.15657848564208</v>
+        <v>0.1315657848564208</v>
       </c>
       <c r="L143">
         <v>0.005810496990872774</v>
@@ -11667,13 +11667,13 @@
         <v>0.03187499999999233</v>
       </c>
       <c r="U143">
-        <v>1.000042387249915</v>
+        <v>4.238724991489917E-05</v>
       </c>
       <c r="V143">
-        <v>1.000237183614001</v>
+        <v>0.0002371836140007133</v>
       </c>
       <c r="W143">
-        <v>1.00076103500761</v>
+        <v>0.0007610350076103778</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11708,7 +11708,7 @@
         <v>1.714188744957628</v>
       </c>
       <c r="K144">
-        <v>63.15657848564208</v>
+        <v>0.1315657848564208</v>
       </c>
       <c r="L144">
         <v>0.007755633244446562</v>
@@ -11738,13 +11738,13 @@
         <v>0.03562500000000313</v>
       </c>
       <c r="U144">
-        <v>1.0000678167253</v>
+        <v>6.781672529987404E-05</v>
       </c>
       <c r="V144">
-        <v>1.000237127371274</v>
+        <v>0.0002371273712735711</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11779,7 +11779,7 @@
         <v>1.155089214448343</v>
       </c>
       <c r="K145">
-        <v>53.59820868223412</v>
+        <v>0.03598208682234127</v>
       </c>
       <c r="L145">
         <v>0.009056145440453852</v>
@@ -11809,13 +11809,13 @@
         <v>0.03499999999999659</v>
       </c>
       <c r="U145">
-        <v>1.000067812126504</v>
+        <v>6.781212650364132E-05</v>
       </c>
       <c r="V145">
-        <v>1.000169336539439</v>
+        <v>0.0001693365394386248</v>
       </c>
       <c r="W145">
-        <v>0.9987325728770594</v>
+        <v>-0.00126742712294059</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11850,7 +11850,7 @@
         <v>1.080870961360728</v>
       </c>
       <c r="K146">
-        <v>51.94319981542355</v>
+        <v>0.01943199815423557</v>
       </c>
       <c r="L146">
         <v>0.009757632911859972</v>
@@ -11880,13 +11880,13 @@
         <v>0.03312499999999119</v>
       </c>
       <c r="U146">
-        <v>1.000050855646248</v>
+        <v>5.085564624773831E-05</v>
       </c>
       <c r="V146">
-        <v>1.000135446295544</v>
+        <v>0.0001354462955438507</v>
       </c>
       <c r="W146">
-        <v>0.9997461928934011</v>
+        <v>-0.0002538071065989467</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11921,7 +11921,7 @@
         <v>0.8507177330765573</v>
       </c>
       <c r="K147">
-        <v>45.96690883068154</v>
+        <v>-0.04033091169318459</v>
       </c>
       <c r="L147">
         <v>0.009645743461637081</v>
@@ -11951,13 +11951,13 @@
         <v>0.02687500000000398</v>
       </c>
       <c r="U147">
-        <v>1.000033902040055</v>
+        <v>3.390204005548902E-05</v>
       </c>
       <c r="V147">
-        <v>1.000016928494041</v>
+        <v>1.692849404100194E-05</v>
       </c>
       <c r="W147">
-        <v>0.998984513835999</v>
+        <v>-0.001015486164001045</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11992,7 +11992,7 @@
         <v>0.8055771894045266</v>
       </c>
       <c r="K148">
-        <v>44.61604821614984</v>
+        <v>-0.05383951783850166</v>
       </c>
       <c r="L148">
         <v>0.008920689356033625</v>
@@ -12022,13 +12022,13 @@
         <v>0.02187499999999432</v>
       </c>
       <c r="U148">
-        <v>1.000025425668059</v>
+        <v>2.542566805940893E-05</v>
       </c>
       <c r="V148">
-        <v>0.9999830717925281</v>
+        <v>-1.692820747190016E-05</v>
       </c>
       <c r="W148">
-        <v>0.9997458703939009</v>
+        <v>-0.0002541296060990517</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -12063,7 +12063,7 @@
         <v>0.7246296267776255</v>
       </c>
       <c r="K149">
-        <v>42.0165359290247</v>
+        <v>-0.07983464070975299</v>
       </c>
       <c r="L149">
         <v>0.007652952995870766</v>
@@ -12093,13 +12093,13 @@
         <v>0.01249999999999574</v>
       </c>
       <c r="U149">
-        <v>1.000025425021611</v>
+        <v>2.542502161118065E-05</v>
       </c>
       <c r="V149">
-        <v>0.9999661430119177</v>
+        <v>-3.385698808233695E-05</v>
       </c>
       <c r="W149">
-        <v>0.9994916115912557</v>
+        <v>-0.0005083884087443424</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -12134,7 +12134,7 @@
         <v>0.6254037882915342</v>
       </c>
       <c r="K150">
-        <v>38.47682605372156</v>
+        <v>-0.1152317394627844</v>
       </c>
       <c r="L150">
         <v>0.005831916557739457</v>
@@ -12164,13 +12164,13 @@
         <v>-0.0006249999999994316</v>
       </c>
       <c r="U150">
-        <v>1.000033899166928</v>
+        <v>3.389916692819739E-05</v>
       </c>
       <c r="V150">
-        <v>0.9999153546639579</v>
+        <v>-8.464533604213287E-05</v>
       </c>
       <c r="W150">
-        <v>0.9992370295015259</v>
+        <v>-0.0007629704984740693</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -12205,7 +12205,7 @@
         <v>0.5705752398525359</v>
       </c>
       <c r="K151">
-        <v>36.32906118563974</v>
+        <v>-0.1367093881436026</v>
       </c>
       <c r="L151">
         <v>0.003585567362708088</v>
@@ -12235,13 +12235,13 @@
         <v>-0.01874999999999005</v>
       </c>
       <c r="U151">
-        <v>1.00002542351336</v>
+        <v>2.542351336010107E-05</v>
       </c>
       <c r="V151">
-        <v>0.9998645559976298</v>
+        <v>-0.0001354440023701997</v>
       </c>
       <c r="W151">
-        <v>0.9994909646220413</v>
+        <v>-0.0005090353779586554</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12276,7 +12276,7 @@
         <v>0.6167168387644946</v>
       </c>
       <c r="K152">
-        <v>38.14624948397232</v>
+        <v>-0.1185375051602768</v>
       </c>
       <c r="L152">
         <v>0.001304228619613749</v>
@@ -12306,13 +12306,13 @@
         <v>-0.03562499999999602</v>
       </c>
       <c r="U152">
-        <v>1.000025422867022</v>
+        <v>2.542286702156282E-05</v>
       </c>
       <c r="V152">
-        <v>0.9998645376500669</v>
+        <v>-0.0001354623499331131</v>
       </c>
       <c r="W152">
-        <v>1.000254647313471</v>
+        <v>0.0002546473134708016</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12347,7 +12347,7 @@
         <v>0.5621130591469341</v>
       </c>
       <c r="K153">
-        <v>35.98414697678173</v>
+        <v>-0.1401585302321827</v>
       </c>
       <c r="L153">
         <v>-0.001042776797430799</v>
@@ -12377,13 +12377,13 @@
         <v>-0.04687500000000711</v>
       </c>
       <c r="U153">
-        <v>1.000008474073572</v>
+        <v>8.474073571740348E-06</v>
       </c>
       <c r="V153">
-        <v>0.9998306491219159</v>
+        <v>-0.000169350878084118</v>
       </c>
       <c r="W153">
-        <v>0.9994908350305498</v>
+        <v>-0.0005091649694501932</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12418,7 +12418,7 @@
         <v>0.5141907685154194</v>
       </c>
       <c r="K154">
-        <v>33.95812332283303</v>
+        <v>-0.1604187667716697</v>
       </c>
       <c r="L154">
         <v>-0.003461363564115422</v>
@@ -12448,13 +12448,13 @@
         <v>-0.05812500000000398</v>
       </c>
       <c r="U154">
-        <v>1.000016948003525</v>
+        <v>1.694800352525228E-05</v>
       </c>
       <c r="V154">
-        <v>0.9997628686122731</v>
+        <v>-0.0002371313877268522</v>
       </c>
       <c r="W154">
-        <v>0.9994905756495162</v>
+        <v>-0.0005094243504838447</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12489,7 +12489,7 @@
         <v>0.7385429501334196</v>
       </c>
       <c r="K155">
-        <v>42.48056972516798</v>
+        <v>-0.07519430274832017</v>
       </c>
       <c r="L155">
         <v>-0.005294126825074521</v>
@@ -12519,13 +12519,13 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="U155">
-        <v>1.00003389543259</v>
+        <v>3.389543259024741E-05</v>
       </c>
       <c r="V155">
-        <v>0.9998475222363407</v>
+        <v>-0.0001524777636593422</v>
       </c>
       <c r="W155">
-        <v>1.001274209989806</v>
+        <v>0.001274209989806208</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12560,7 +12560,7 @@
         <v>0.7385429501334195</v>
       </c>
       <c r="K156">
-        <v>42.48056972516797</v>
+        <v>-0.07519430274832023</v>
       </c>
       <c r="L156">
         <v>-0.006636038017571356</v>
@@ -12590,13 +12590,13 @@
         <v>-0.06062500000000171</v>
       </c>
       <c r="U156">
-        <v>1.000025420712797</v>
+        <v>2.542071279698632E-05</v>
       </c>
       <c r="V156">
-        <v>0.9997966653111018</v>
+        <v>-0.0002033346888982157</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12631,7 +12631,7 @@
         <v>0.6717471844484398</v>
       </c>
       <c r="K157">
-        <v>40.18234280263314</v>
+        <v>-0.09817657197366858</v>
       </c>
       <c r="L157">
         <v>-0.007756066561969853</v>
@@ -12661,13 +12661,13 @@
         <v>-0.05812499999999687</v>
       </c>
       <c r="U157">
-        <v>0.9999830532889329</v>
+        <v>-1.694671106711176E-05</v>
       </c>
       <c r="V157">
-        <v>0.9997457799471223</v>
+        <v>-0.0002542200528776739</v>
       </c>
       <c r="W157">
-        <v>0.9994909646220413</v>
+        <v>-0.0005090353779586554</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12702,7 +12702,7 @@
         <v>0.7193485678800173</v>
       </c>
       <c r="K158">
-        <v>41.83843702891409</v>
+        <v>-0.08161562971085906</v>
       </c>
       <c r="L158">
         <v>-0.008549618715405738</v>
@@ -12732,13 +12732,13 @@
         <v>-0.05062500000000369</v>
       </c>
       <c r="U158">
-        <v>0.9999745795026053</v>
+        <v>-2.542049739473473E-05</v>
       </c>
       <c r="V158">
-        <v>0.9997118106765668</v>
+        <v>-0.0002881893234332189</v>
       </c>
       <c r="W158">
-        <v>1.000254647313471</v>
+        <v>0.0002546473134708016</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12773,7 +12773,7 @@
         <v>0.8195620066833382</v>
       </c>
       <c r="K159">
-        <v>45.0417190330996</v>
+        <v>-0.04958280966900397</v>
       </c>
       <c r="L159">
         <v>-0.008878635082427084</v>
@@ -12803,13 +12803,13 @@
         <v>-0.03750000000000142</v>
       </c>
       <c r="U159">
-        <v>0.9999915262854626</v>
+        <v>-8.473714537382548E-06</v>
       </c>
       <c r="V159">
-        <v>0.999745641999593</v>
+        <v>-0.0002543580004069623</v>
       </c>
       <c r="W159">
-        <v>1.00050916496945</v>
+        <v>0.0005091649694499711</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12844,7 +12844,7 @@
         <v>0.7785008252069131</v>
       </c>
       <c r="K160">
-        <v>43.77286837167148</v>
+        <v>-0.06227131628328519</v>
       </c>
       <c r="L160">
         <v>-0.008965474361412663</v>
@@ -12874,13 +12874,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U160">
-        <v>0.9999915262136583</v>
+        <v>-8.4737863417228E-06</v>
       </c>
       <c r="V160">
-        <v>0.9998134233424359</v>
+        <v>-0.0001865766575640526</v>
       </c>
       <c r="W160">
-        <v>0.9997455470737914</v>
+        <v>-0.0002544529262086259</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12915,7 +12915,7 @@
         <v>0.7042219107770453</v>
       </c>
       <c r="K161">
-        <v>41.3221955617243</v>
+        <v>-0.08677804438275699</v>
       </c>
       <c r="L161">
         <v>-0.009052563528934809</v>
@@ -12945,13 +12945,13 @@
         <v>-0.01687499999999886</v>
       </c>
       <c r="U161">
-        <v>0.9999661045674095</v>
+        <v>-3.389543259046945E-05</v>
       </c>
       <c r="V161">
-        <v>0.9997964238455533</v>
+        <v>-0.0002035761544466608</v>
       </c>
       <c r="W161">
-        <v>0.9994909646220413</v>
+        <v>-0.0005090353779586554</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12986,7 +12986,7 @@
         <v>0.7042219107770453</v>
       </c>
       <c r="K162">
-        <v>41.3221955617243</v>
+        <v>-0.08677804438275699</v>
       </c>
       <c r="L162">
         <v>-0.009101348314893488</v>
@@ -13016,13 +13016,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U162">
-        <v>0.9999406809823228</v>
+        <v>-5.931901767719516E-05</v>
       </c>
       <c r="V162">
-        <v>0.9998642549292432</v>
+        <v>-0.0001357450707567542</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -13057,7 +13057,7 @@
         <v>0.7042219107770454</v>
       </c>
       <c r="K163">
-        <v>41.3221955617243</v>
+        <v>-0.08677804438275699</v>
       </c>
       <c r="L163">
         <v>-0.009090723375942826</v>
@@ -13087,13 +13087,13 @@
         <v>-0.003125000000004263</v>
       </c>
       <c r="U163">
-        <v>0.9999322028152782</v>
+        <v>-6.77971847218295E-05</v>
       </c>
       <c r="V163">
-        <v>0.9998812069375147</v>
+        <v>-0.0001187930624853006</v>
       </c>
       <c r="W163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -13128,7 +13128,7 @@
         <v>0.9267914109689098</v>
       </c>
       <c r="K164">
-        <v>48.10024612383246</v>
+        <v>-0.01899753876167543</v>
       </c>
       <c r="L164">
         <v>-0.008641330798173211</v>
@@ -13158,13 +13158,13 @@
         <v>0.001250000000005969</v>
       </c>
       <c r="U164">
-        <v>0.9999745743319406</v>
+        <v>-2.542566805940893E-05</v>
       </c>
       <c r="V164">
-        <v>0.9999830275462923</v>
+        <v>-1.697245370768652E-05</v>
       </c>
       <c r="W164">
-        <v>1.001018589253883</v>
+        <v>0.001018589253883428</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -13199,7 +13199,7 @@
         <v>0.9853623320720216</v>
       </c>
       <c r="K165">
-        <v>49.63136028896293</v>
+        <v>-0.003686397110370665</v>
       </c>
       <c r="L165">
         <v>-0.007830600299838446</v>
@@ -13229,13 +13229,13 @@
         <v>0.007500000000000284</v>
       </c>
       <c r="U165">
-        <v>0.9999830491236394</v>
+        <v>-1.695087636055526E-05</v>
       </c>
       <c r="V165">
-        <v>1.00005091822533</v>
+        <v>5.091822533009882E-05</v>
       </c>
       <c r="W165">
-        <v>1.000254388196388</v>
+        <v>0.0002543881963876782</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13270,7 +13270,7 @@
         <v>0.9281392075478235</v>
       </c>
       <c r="K166">
-        <v>48.13652478589532</v>
+        <v>-0.01863475214104682</v>
       </c>
       <c r="L166">
         <v>-0.0069166292140065</v>
@@ -13300,13 +13300,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U166">
-        <v>0.9999660976726054</v>
+        <v>-3.39023273946415E-05</v>
       </c>
       <c r="V166">
-        <v>1.000067887510395</v>
+        <v>6.788751039521479E-05</v>
       </c>
       <c r="W166">
-        <v>0.9997456765005087</v>
+        <v>-0.0002543234994912824</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13341,7 +13341,7 @@
         <v>0.9281392075478235</v>
       </c>
       <c r="K167">
-        <v>48.13652478589532</v>
+        <v>-0.01863475214104682</v>
       </c>
       <c r="L167">
         <v>-0.005973126174239488</v>
@@ -13371,13 +13371,13 @@
         <v>0.008749999999999147</v>
       </c>
       <c r="U167">
-        <v>0.999957620653998</v>
+        <v>-4.237934600204163E-05</v>
       </c>
       <c r="V167">
-        <v>1.000050912176496</v>
+        <v>5.091217649577651E-05</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13412,7 +13412,7 @@
         <v>1.185527264967142</v>
       </c>
       <c r="K168">
-        <v>54.24445093733322</v>
+        <v>0.04244450937333222</v>
       </c>
       <c r="L168">
         <v>-0.004679583796365786</v>
@@ -13442,13 +13442,13 @@
         <v>0.01187500000000341</v>
       </c>
       <c r="U168">
-        <v>0.9999915237715826</v>
+        <v>-8.476228417375609E-06</v>
       </c>
       <c r="V168">
-        <v>1.000152728753733</v>
+        <v>0.0001527287537332889</v>
       </c>
       <c r="W168">
-        <v>1.001017552785551</v>
+        <v>0.001017552785550713</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13483,7 +13483,7 @@
         <v>1.320994663608864</v>
       </c>
       <c r="K169">
-        <v>56.91502373188909</v>
+        <v>0.06915023731889081</v>
       </c>
       <c r="L169">
         <v>-0.003054036581680357</v>
@@ -13513,13 +13513,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U169">
-        <v>0.9999915236997357</v>
+        <v>-8.476300264348424E-06</v>
       </c>
       <c r="V169">
-        <v>1.000220574511767</v>
+        <v>0.0002205745117669355</v>
       </c>
       <c r="W169">
-        <v>1.000508259212198</v>
+        <v>0.0005082592121981033</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13554,7 +13554,7 @@
         <v>1.463591925337044</v>
       </c>
       <c r="K170">
-        <v>59.40886192573512</v>
+        <v>0.09408861925735124</v>
       </c>
       <c r="L170">
         <v>-0.001134510299834069</v>
@@ -13584,13 +13584,13 @@
         <v>0.02312500000000028</v>
       </c>
       <c r="U170">
-        <v>1.000008476372113</v>
+        <v>8.476372112653507E-06</v>
       </c>
       <c r="V170">
-        <v>1.000169635284139</v>
+        <v>0.0001696352841389359</v>
       </c>
       <c r="W170">
-        <v>1.000508001016002</v>
+        <v>0.0005080010160021242</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13625,7 +13625,7 @@
         <v>1.361416031561543</v>
       </c>
       <c r="K171">
-        <v>57.65252769378693</v>
+        <v>0.07652527693786926</v>
       </c>
       <c r="L171">
         <v>0.0007522875982194582</v>
@@ -13655,13 +13655,13 @@
         <v>0.03125</v>
       </c>
       <c r="U171">
-        <v>0.9999745710992067</v>
+        <v>-2.542890079326732E-05</v>
       </c>
       <c r="V171">
-        <v>1.000152645861601</v>
+        <v>0.0001526458616012416</v>
       </c>
       <c r="W171">
-        <v>0.9997461284589998</v>
+        <v>-0.0002538715410002057</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13696,7 +13696,7 @@
         <v>1.655360185074183</v>
       </c>
       <c r="K172">
-        <v>62.34032559420699</v>
+        <v>0.1234032559420699</v>
       </c>
       <c r="L172">
         <v>0.002866741762378632</v>
@@ -13726,13 +13726,13 @@
         <v>0.03687499999999488</v>
       </c>
       <c r="U172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V172">
-        <v>1.000254370940664</v>
+        <v>0.0002543709406637173</v>
       </c>
       <c r="W172">
-        <v>1.001015744032504</v>
+        <v>0.001015744032503818</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13767,7 +13767,7 @@
         <v>1.536505742972694</v>
       </c>
       <c r="K173">
-        <v>60.57568555598711</v>
+        <v>0.1057568555598711</v>
       </c>
       <c r="L173">
         <v>0.004881175766500925</v>
@@ -13797,13 +13797,13 @@
         <v>0.03937499999999972</v>
       </c>
       <c r="U173">
-        <v>0.9999660939367482</v>
+        <v>-3.390606325182066E-05</v>
       </c>
       <c r="V173">
-        <v>1.000220398752204</v>
+        <v>0.0002203987522038098</v>
       </c>
       <c r="W173">
-        <v>0.9997463216641298</v>
+        <v>-0.0002536783358701999</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13838,7 +13838,7 @@
         <v>1.612084423783234</v>
       </c>
       <c r="K174">
-        <v>61.71639818013073</v>
+        <v>0.1171639818013073</v>
       </c>
       <c r="L174">
         <v>0.006781332247460306</v>
@@ -13868,13 +13868,13 @@
         <v>0.04437500000000227</v>
       </c>
       <c r="U174">
-        <v>0.9999745695903162</v>
+        <v>-2.543040968383536E-05</v>
       </c>
       <c r="V174">
-        <v>1.00020340017289</v>
+        <v>0.0002034001728903334</v>
       </c>
       <c r="W174">
-        <v>1.000253742704897</v>
+        <v>0.0002537427048974195</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13909,7 +13909,7 @@
         <v>1.301464514870762</v>
       </c>
       <c r="K175">
-        <v>56.54940610474046</v>
+        <v>0.06549406104740463</v>
       </c>
       <c r="L175">
         <v>0.008188428988303518</v>
@@ -13939,13 +13939,13 @@
         <v>0.04874999999999829</v>
       </c>
       <c r="U175">
-        <v>0.9999915229811979</v>
+        <v>-8.477018802133252E-06</v>
       </c>
       <c r="V175">
-        <v>1.000169465674728</v>
+        <v>0.0001694656747275314</v>
       </c>
       <c r="W175">
-        <v>0.9992389649923896</v>
+        <v>-0.0007610350076103778</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13980,7 +13980,7 @@
         <v>1.369072290317083</v>
       </c>
       <c r="K176">
-        <v>57.78938430510463</v>
+        <v>0.0778938430510463</v>
       </c>
       <c r="L176">
         <v>0.009269837245086102</v>
@@ -14010,13 +14010,13 @@
         <v>0.04812499999999886</v>
       </c>
       <c r="U176">
-        <v>1.000008477090663</v>
+        <v>8.477090662539766E-06</v>
       </c>
       <c r="V176">
-        <v>1.000220268049272</v>
+        <v>0.0002202680492722209</v>
       </c>
       <c r="W176">
-        <v>1.000253871541</v>
+        <v>0.0002538715410000947</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -14051,7 +14051,7 @@
         <v>1.511404449151494</v>
       </c>
       <c r="K177">
-        <v>60.18164257302875</v>
+        <v>0.1018164257302875</v>
       </c>
       <c r="L177">
         <v>0.010236366111618</v>
@@ -14081,13 +14081,13 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="U177">
-        <v>1.000059339131614</v>
+        <v>5.93391316141556E-05</v>
       </c>
       <c r="V177">
-        <v>1.000254099471473</v>
+        <v>0.000254099471473257</v>
       </c>
       <c r="W177">
-        <v>1.000507614213198</v>
+        <v>0.0005076142131981154</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -14122,7 +14122,7 @@
         <v>1.511404449151494</v>
       </c>
       <c r="K178">
-        <v>60.18164257302875</v>
+        <v>0.1018164257302875</v>
       </c>
       <c r="L178">
         <v>0.01103428377742724</v>
@@ -14152,13 +14152,13 @@
         <v>0.03937500000000682</v>
       </c>
       <c r="U178">
-        <v>1.000067812126503</v>
+        <v>6.781212650341928E-05</v>
       </c>
       <c r="V178">
-        <v>1.000254034921334</v>
+        <v>0.0002540349213338011</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -14193,7 +14193,7 @@
         <v>1.400934616286155</v>
       </c>
       <c r="K179">
-        <v>58.34955299420719</v>
+        <v>0.08349552994207188</v>
       </c>
       <c r="L179">
         <v>0.01154631598587599</v>
@@ -14223,13 +14223,13 @@
         <v>0.03437499999999716</v>
       </c>
       <c r="U179">
-        <v>1.000076283469372</v>
+        <v>7.628346937238462E-05</v>
       </c>
       <c r="V179">
-        <v>1.000169313602655</v>
+        <v>0.0001693136026548192</v>
       </c>
       <c r="W179">
-        <v>0.9997463216641298</v>
+        <v>-0.0002536783358701999</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14264,7 +14264,7 @@
         <v>1.554810085767979</v>
       </c>
       <c r="K180">
-        <v>60.85814732098183</v>
+        <v>0.1085814732098183</v>
       </c>
       <c r="L180">
         <v>0.01199555381072762</v>
@@ -14294,13 +14294,13 @@
         <v>0.02812499999999574</v>
       </c>
       <c r="U180">
-        <v>1.000118654123231</v>
+        <v>0.0001186541232305327</v>
       </c>
       <c r="V180">
-        <v>1.000186213434453</v>
+        <v>0.0001862134344530197</v>
       </c>
       <c r="W180">
-        <v>1.000507485409795</v>
+        <v>0.0005074854097946169</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14335,7 +14335,7 @@
         <v>1.63579717496891</v>
       </c>
       <c r="K181">
-        <v>62.06081372661782</v>
+        <v>0.1206081372661781</v>
       </c>
       <c r="L181">
         <v>0.01242687703942569</v>
@@ -14365,13 +14365,13 @@
         <v>0.02437499999999915</v>
       </c>
       <c r="U181">
-        <v>1.000144062913122</v>
+        <v>0.0001440629131217452</v>
       </c>
       <c r="V181">
-        <v>1.000220029450096</v>
+        <v>0.0002200294500955824</v>
       </c>
       <c r="W181">
-        <v>1.000253613999493</v>
+        <v>0.0002536139994926412</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14406,7 +14406,7 @@
         <v>1.891545877708753</v>
       </c>
       <c r="K182">
-        <v>65.41642283080787</v>
+        <v>0.1541642283080787</v>
       </c>
       <c r="L182">
         <v>0.01305211367936022</v>
@@ -14436,13 +14436,13 @@
         <v>0.02062499999999545</v>
       </c>
       <c r="U182">
-        <v>1.000160988298693</v>
+        <v>0.0001609882986925992</v>
       </c>
       <c r="V182">
-        <v>1.000270745904968</v>
+        <v>0.0002707459049682281</v>
       </c>
       <c r="W182">
-        <v>1.000760649087221</v>
+        <v>0.0007606490872211769</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14477,7 +14477,7 @@
         <v>1.891545877708753</v>
       </c>
       <c r="K183">
-        <v>65.41642283080789</v>
+        <v>0.1541642283080789</v>
       </c>
       <c r="L183">
         <v>0.01370721196106862</v>
@@ -14507,13 +14507,13 @@
         <v>0.02062499999999545</v>
       </c>
       <c r="U183">
-        <v>1.000177905794646</v>
+        <v>0.0001779057946458273</v>
       </c>
       <c r="V183">
-        <v>1.000203004466098</v>
+        <v>0.0002030044660983332</v>
       </c>
       <c r="W183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14548,7 +14548,7 @@
         <v>1.590979991216697</v>
       </c>
       <c r="K184">
-        <v>61.40456493720701</v>
+        <v>0.1140456493720701</v>
       </c>
       <c r="L184">
         <v>0.01410347835804504</v>
@@ -14578,13 +14578,13 @@
         <v>0.02062500000000256</v>
       </c>
       <c r="U184">
-        <v>1.000177874149804</v>
+        <v>0.0001778741498039693</v>
       </c>
       <c r="V184">
-        <v>1.000135308842433</v>
+        <v>0.0001353088424327353</v>
       </c>
       <c r="W184">
-        <v>0.9994932860400305</v>
+        <v>-0.0005067139599694848</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14619,7 +14619,7 @@
         <v>1.363000752630255</v>
       </c>
       <c r="K185">
-        <v>57.68092757114442</v>
+        <v>0.07680927571144414</v>
       </c>
       <c r="L185">
         <v>0.014081216845086</v>
@@ -14649,13 +14649,13 @@
         <v>0.01812499999999773</v>
       </c>
       <c r="U185">
-        <v>1.000118561677478</v>
+        <v>0.0001185616774783682</v>
       </c>
       <c r="V185">
-        <v>1.000067645268214</v>
+        <v>6.764526821356753E-05</v>
       </c>
       <c r="W185">
-        <v>0.9994930291508237</v>
+        <v>-0.0005069708491762803</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14690,7 +14690,7 @@
         <v>1.438419094534372</v>
       </c>
       <c r="K186">
-        <v>58.98982245334841</v>
+        <v>0.08989822453348406</v>
       </c>
       <c r="L186">
         <v>0.01384806806983526</v>
@@ -14720,13 +14720,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U186">
-        <v>1.000127015309579</v>
+        <v>0.0001270153095787041</v>
       </c>
       <c r="V186">
-        <v>1.000101461038961</v>
+        <v>0.000101461038960915</v>
       </c>
       <c r="W186">
-        <v>1.000253613999493</v>
+        <v>0.0002536139994926412</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14761,7 +14761,7 @@
         <v>1.438419094534372</v>
       </c>
       <c r="K187">
-        <v>58.98982245334841</v>
+        <v>0.08989822453348406</v>
       </c>
       <c r="L187">
         <v>0.01345157778927213</v>
@@ -14791,13 +14791,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U187">
-        <v>1.00014393240257</v>
+        <v>0.0001439324025702682</v>
       </c>
       <c r="V187">
-        <v>1.000033816915221</v>
+        <v>3.381691522119645E-05</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14832,7 +14832,7 @@
         <v>1.438419094534372</v>
       </c>
       <c r="K188">
-        <v>58.98982245334841</v>
+        <v>0.08989822453348406</v>
       </c>
       <c r="L188">
         <v>0.01293241178283069</v>
@@ -14862,13 +14862,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U188">
-        <v>1.000135446295544</v>
+        <v>0.0001354462955440727</v>
       </c>
       <c r="V188">
-        <v>1.000050723657514</v>
+        <v>5.072365751379593E-05</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14903,7 +14903,7 @@
         <v>0.9415059511023429</v>
       </c>
       <c r="K189">
-        <v>48.49359079058075</v>
+        <v>-0.01506409209419252</v>
       </c>
       <c r="L189">
         <v>0.01177015631000605</v>
@@ -14933,13 +14933,13 @@
         <v>0.01187499999999631</v>
       </c>
       <c r="U189">
-        <v>1.000067713976165</v>
+        <v>6.771397616467389E-05</v>
       </c>
       <c r="V189">
-        <v>0.9999323718869934</v>
+        <v>-6.762811300664584E-05</v>
       </c>
       <c r="W189">
-        <v>0.998478701825558</v>
+        <v>-0.001521298174442021</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14974,7 +14974,7 @@
         <v>0.9415059511023429</v>
       </c>
       <c r="K190">
-        <v>48.49359079058075</v>
+        <v>-0.01506409209419252</v>
       </c>
       <c r="L190">
         <v>0.01024973991896335</v>
@@ -15004,13 +15004,13 @@
         <v>0.003124999999997158</v>
       </c>
       <c r="U190">
-        <v>1.000076173065204</v>
+        <v>7.617306520368849E-05</v>
       </c>
       <c r="V190">
-        <v>0.9999830918282806</v>
+        <v>-1.690817171939862E-05</v>
       </c>
       <c r="W190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -15045,7 +15045,7 @@
         <v>0.9415059511023428</v>
       </c>
       <c r="K191">
-        <v>48.49359079058075</v>
+        <v>-0.01506409209419252</v>
       </c>
       <c r="L191">
         <v>0.00857206516404083</v>
@@ -15075,13 +15075,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U191">
-        <v>1.000093093321824</v>
+        <v>9.309332182372287E-05</v>
       </c>
       <c r="V191">
-        <v>0.9999661830847789</v>
+        <v>-3.381691522108543E-05</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -15116,7 +15116,7 @@
         <v>1.008660119943552</v>
       </c>
       <c r="K192">
-        <v>50.2155695694251</v>
+        <v>0.002155695694251003</v>
       </c>
       <c r="L192">
         <v>0.006967341755224136</v>
@@ -15146,13 +15146,13 @@
         <v>-0.01437499999999403</v>
       </c>
       <c r="U192">
-        <v>1.000101546897742</v>
+        <v>0.0001015468977421108</v>
       </c>
       <c r="V192">
-        <v>0.999949272911735</v>
+        <v>-5.072708826503458E-05</v>
       </c>
       <c r="W192">
-        <v>1.000253936008126</v>
+        <v>0.0002539360081259545</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -15187,7 +15187,7 @@
         <v>1.008660119943552</v>
       </c>
       <c r="K193">
-        <v>50.2155695694251</v>
+        <v>0.002155695694251003</v>
       </c>
       <c r="L193">
         <v>0.005483729512317299</v>
@@ -15217,13 +15217,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U193">
-        <v>1.000101536587017</v>
+        <v>0.0001015365870169482</v>
       </c>
       <c r="V193">
-        <v>0.999949270338367</v>
+        <v>-5.072966163299775E-05</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15258,7 +15258,7 @@
         <v>0.9388045630092362</v>
       </c>
       <c r="K194">
-        <v>48.42182553728413</v>
+        <v>-0.0157817446271587</v>
       </c>
       <c r="L194">
         <v>0.004055649595318242</v>
@@ -15288,13 +15288,13 @@
         <v>-0.02250000000000085</v>
       </c>
       <c r="U194">
-        <v>1.000059223662391</v>
+        <v>5.922366239108356E-05</v>
       </c>
       <c r="V194">
-        <v>0.9999492677647377</v>
+        <v>-5.073223526230741E-05</v>
       </c>
       <c r="W194">
-        <v>0.9997461284589998</v>
+        <v>-0.0002538715410002057</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15329,7 +15329,7 @@
         <v>1.011705398226288</v>
       </c>
       <c r="K195">
-        <v>50.29093221692919</v>
+        <v>0.00290932216929185</v>
       </c>
       <c r="L195">
         <v>0.002829872935233938</v>
@@ -15359,13 +15359,13 @@
         <v>-0.02750000000000341</v>
       </c>
       <c r="U195">
-        <v>1.000059220155157</v>
+        <v>5.922015515702483E-05</v>
       </c>
       <c r="V195">
-        <v>0.9999323535877965</v>
+        <v>-6.764641220347034E-05</v>
       </c>
       <c r="W195">
-        <v>1.000253936008126</v>
+        <v>0.0002539360081259545</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15400,7 +15400,7 @@
         <v>1.088443119507395</v>
       </c>
       <c r="K196">
-        <v>52.11744142517648</v>
+        <v>0.02117441425176481</v>
       </c>
       <c r="L196">
         <v>0.001886862881684155</v>
@@ -15430,13 +15430,13 @@
         <v>-0.03062499999999346</v>
       </c>
       <c r="U196">
-        <v>1.00007613569072</v>
+        <v>7.613569071973636E-05</v>
       </c>
       <c r="V196">
-        <v>0.99993234901145</v>
+        <v>-6.76509885499943E-05</v>
       </c>
       <c r="W196">
-        <v>1.000253871541</v>
+        <v>0.0002538715410000947</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15471,7 +15471,7 @@
         <v>0.9370584279891909</v>
       </c>
       <c r="K197">
-        <v>48.37533109220286</v>
+        <v>-0.01624668907797144</v>
       </c>
       <c r="L197">
         <v>0.000983536661784416</v>
@@ -15501,13 +15501,13 @@
         <v>-0.02687499999999687</v>
       </c>
       <c r="U197">
-        <v>1.000059212140181</v>
+        <v>5.921214018056453E-05</v>
       </c>
       <c r="V197">
-        <v>0.9998477749775889</v>
+        <v>-0.0001522250224110788</v>
       </c>
       <c r="W197">
-        <v>0.9994923857868021</v>
+        <v>-0.0005076142131978933</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15542,7 +15542,7 @@
         <v>0.9370584279891911</v>
       </c>
       <c r="K198">
-        <v>48.37533109220286</v>
+        <v>-0.01624668907797139</v>
       </c>
       <c r="L198">
         <v>0.0001582275078154191</v>
@@ -15572,13 +15572,13 @@
         <v>-0.02124999999999488</v>
       </c>
       <c r="U198">
-        <v>1.00002537512899</v>
+        <v>2.537512899025707E-05</v>
       </c>
       <c r="V198">
-        <v>0.9998477518016037</v>
+        <v>-0.0001522481983963209</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15613,7 +15613,7 @@
         <v>0.7611158219487622</v>
       </c>
       <c r="K199">
-        <v>43.21781750314126</v>
+        <v>-0.06782182496858746</v>
       </c>
       <c r="L199">
         <v>-0.0008450476177209395</v>
@@ -15643,13 +15643,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U199">
-        <v>0.9999830836765935</v>
+        <v>-1.691632340650173E-05</v>
       </c>
       <c r="V199">
-        <v>0.9998308095761781</v>
+        <v>-0.0001691904238219077</v>
       </c>
       <c r="W199">
-        <v>0.9992381919756221</v>
+        <v>-0.0007618080243778635</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15684,7 +15684,7 @@
         <v>0.8928776115864547</v>
       </c>
       <c r="K200">
-        <v>47.1703826027145</v>
+        <v>-0.02829617397285505</v>
       </c>
       <c r="L200">
         <v>-0.001704327559795252</v>
@@ -15714,13 +15714,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U200">
-        <v>0.9999830833904269</v>
+        <v>-1.691660957314767E-05</v>
       </c>
       <c r="V200">
-        <v>0.9998984685675606</v>
+        <v>-0.0001015314324394057</v>
       </c>
       <c r="W200">
-        <v>1.000508259212198</v>
+        <v>0.0005082592121981033</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15755,7 +15755,7 @@
         <v>0.8928776115864546</v>
       </c>
       <c r="K201">
-        <v>47.1703826027145</v>
+        <v>-0.02829617397285505</v>
       </c>
       <c r="L201">
         <v>-0.002415434491805307</v>
@@ -15785,13 +15785,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U201">
-        <v>0.9999915415521252</v>
+        <v>-8.458447874781783E-06</v>
       </c>
       <c r="V201">
-        <v>0.999881534634196</v>
+        <v>-0.0001184653658039547</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15826,7 +15826,7 @@
         <v>1.111872275804278</v>
       </c>
       <c r="K202">
-        <v>52.64865155639379</v>
+        <v>0.026486515563938</v>
       </c>
       <c r="L202">
         <v>-0.002705438995475094</v>
@@ -15856,13 +15856,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U202">
-        <v>0.9999830829611582</v>
+        <v>-1.691703884176832E-05</v>
       </c>
       <c r="V202">
-        <v>0.9999322974848514</v>
+        <v>-6.770251514864878E-05</v>
       </c>
       <c r="W202">
-        <v>1.000762001524003</v>
+        <v>0.0007620015240030753</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15897,7 +15897,7 @@
         <v>1.032532256568738</v>
       </c>
       <c r="K203">
-        <v>50.80028881371011</v>
+        <v>0.00800288813710115</v>
       </c>
       <c r="L203">
         <v>-0.002804406513465881</v>
@@ -15927,13 +15927,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U203">
-        <v>0.9999830826749676</v>
+        <v>-1.691732503239507E-05</v>
       </c>
       <c r="V203">
-        <v>0.9999153661261384</v>
+        <v>-8.463387386159482E-05</v>
       </c>
       <c r="W203">
-        <v>0.9997461928934011</v>
+        <v>-0.0002538071065989467</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15968,7 +15968,7 @@
         <v>0.9603943722153957</v>
       </c>
       <c r="K204">
-        <v>48.98985560390467</v>
+        <v>-0.01010144396095336</v>
       </c>
       <c r="L204">
         <v>-0.002863537261520676</v>
@@ -15998,13 +15998,13 @@
         <v>-0.004375000000003126</v>
       </c>
       <c r="U204">
-        <v>0.9999661647775335</v>
+        <v>-3.383522246647175E-05</v>
       </c>
       <c r="V204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W204">
-        <v>0.9997461284589998</v>
+        <v>-0.0002538715410002057</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -16039,7 +16039,7 @@
         <v>0.8946033423973387</v>
       </c>
       <c r="K205">
-        <v>47.21850333407262</v>
+        <v>-0.0278149666592738</v>
       </c>
       <c r="L205">
         <v>-0.002976766682733233</v>
@@ -16069,13 +16069,13 @@
         <v>-0.005000000000002558</v>
       </c>
       <c r="U205">
-        <v>0.9999830818163362</v>
+        <v>-1.691818366378328E-05</v>
       </c>
       <c r="V205">
-        <v>0.9999830717925281</v>
+        <v>-1.692820747190016E-05</v>
       </c>
       <c r="W205">
-        <v>0.9997460639918739</v>
+        <v>-0.0002539360081260655</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -16110,7 +16110,7 @@
         <v>0.8344326819740323</v>
       </c>
       <c r="K206">
-        <v>45.48723374662622</v>
+        <v>-0.04512766253373784</v>
       </c>
       <c r="L206">
         <v>-0.003197155041723821</v>
@@ -16140,13 +16140,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U206">
-        <v>0.9999661630602126</v>
+        <v>-3.383693978742386E-05</v>
       </c>
       <c r="V206">
-        <v>0.9999661430119177</v>
+        <v>-3.385698808233695E-05</v>
       </c>
       <c r="W206">
-        <v>0.999745999491999</v>
+        <v>-0.0002540005080009511</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -16181,7 +16181,7 @@
         <v>0.7792613115592154</v>
       </c>
       <c r="K207">
-        <v>43.79690079791187</v>
+        <v>-0.06203099202088125</v>
       </c>
       <c r="L207">
         <v>-0.003549228479803986</v>
@@ -16211,13 +16211,13 @@
         <v>-0.004375000000003126</v>
       </c>
       <c r="U207">
-        <v>0.9999407833516624</v>
+        <v>-5.92166483376344E-05</v>
       </c>
       <c r="V207">
-        <v>0.9999322837311665</v>
+        <v>-6.771626883350645E-05</v>
       </c>
       <c r="W207">
-        <v>0.9997459349593496</v>
+        <v>-0.0002540650406503975</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16252,7 +16252,7 @@
         <v>0.8488596482579284</v>
       </c>
       <c r="K208">
-        <v>45.91260613307012</v>
+        <v>-0.04087393866929878</v>
       </c>
       <c r="L208">
         <v>-0.003853319900395284</v>
@@ -16282,13 +16282,13 @@
         <v>-0.0037500000000108</v>
       </c>
       <c r="U208">
-        <v>0.9999492398670086</v>
+        <v>-5.076013299143423E-05</v>
       </c>
       <c r="V208">
-        <v>0.9999492093590219</v>
+        <v>-5.079064097812669E-05</v>
       </c>
       <c r="W208">
-        <v>1.000254129606099</v>
+        <v>0.0002541296060991627</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16323,7 +16323,7 @@
         <v>0.7909160272427206</v>
       </c>
       <c r="K209">
-        <v>44.16265281071879</v>
+        <v>-0.05837347189281211</v>
       </c>
       <c r="L209">
         <v>-0.004187388035145948</v>
@@ -16353,13 +16353,13 @@
         <v>-0.003749999999989484</v>
       </c>
       <c r="U209">
-        <v>0.9999492372902866</v>
+        <v>-5.076270971338115E-05</v>
       </c>
       <c r="V209">
-        <v>0.9999492067792018</v>
+        <v>-5.079322079815096E-05</v>
       </c>
       <c r="W209">
-        <v>0.9997459349593496</v>
+        <v>-0.0002540650406503975</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16394,7 +16394,7 @@
         <v>0.6915376376553068</v>
       </c>
       <c r="K210">
-        <v>40.88219039653583</v>
+        <v>-0.09117809603464172</v>
       </c>
       <c r="L210">
         <v>-0.004687990805186779</v>
@@ -16424,13 +16424,13 @@
         <v>-0.009374999999998579</v>
       </c>
       <c r="U210">
-        <v>0.9999153911888383</v>
+        <v>-8.46088111616794E-05</v>
       </c>
       <c r="V210">
-        <v>0.9998984083982392</v>
+        <v>-0.0001015916017608198</v>
       </c>
       <c r="W210">
-        <v>0.9994917407878017</v>
+        <v>-0.0005082592121983254</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16465,7 +16465,7 @@
         <v>0.6486420078208822</v>
       </c>
       <c r="K211">
-        <v>39.34401797017382</v>
+        <v>-0.1065598202982618</v>
       </c>
       <c r="L211">
         <v>-0.005333015502467182</v>
@@ -16495,13 +16495,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U211">
-        <v>0.9998984608354979</v>
+        <v>-0.0001015391645020625</v>
       </c>
       <c r="V211">
-        <v>0.9998645307684494</v>
+        <v>-0.0001354692315506112</v>
       </c>
       <c r="W211">
-        <v>0.9997457411645055</v>
+        <v>-0.0002542588354944586</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16536,7 +16536,7 @@
         <v>0.7139360599503465</v>
       </c>
       <c r="K212">
-        <v>41.65476627938089</v>
+        <v>-0.08345233720619105</v>
       </c>
       <c r="L212">
         <v>-0.005912636152884369</v>
@@ -16566,13 +16566,13 @@
         <v>-0.015625</v>
       </c>
       <c r="U212">
-        <v>0.9998815256116242</v>
+        <v>-0.0001184743883757555</v>
       </c>
       <c r="V212">
-        <v>0.9999153202587812</v>
+        <v>-8.467974121884048E-05</v>
       </c>
       <c r="W212">
-        <v>1.000254323499491</v>
+        <v>0.0002543234994913934</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16607,7 +16607,7 @@
         <v>0.7139360599503465</v>
       </c>
       <c r="K213">
-        <v>41.65476627938089</v>
+        <v>-0.08345233720619105</v>
       </c>
       <c r="L213">
         <v>-0.006394219921636861</v>
@@ -16637,13 +16637,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U213">
-        <v>0.99988151157378</v>
+        <v>-0.0001184884262199759</v>
       </c>
       <c r="V213">
-        <v>0.9999153130875156</v>
+        <v>-8.468691248442184E-05</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16678,7 +16678,7 @@
         <v>0.7139360599503464</v>
       </c>
       <c r="K214">
-        <v>41.65476627938089</v>
+        <v>-0.08345233720619105</v>
       </c>
       <c r="L214">
         <v>-0.006762483667522798</v>
@@ -16708,13 +16708,13 @@
         <v>-0.01812500000000483</v>
       </c>
       <c r="U214">
-        <v>0.9998984264565224</v>
+        <v>-0.0001015735434776177</v>
       </c>
       <c r="V214">
-        <v>0.9999661223660138</v>
+        <v>-3.387763398621235E-05</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16749,7 +16749,7 @@
         <v>0.619568612189291</v>
       </c>
       <c r="K215">
-        <v>38.25516298144196</v>
+        <v>-0.1174483701855804</v>
       </c>
       <c r="L215">
         <v>-0.007198975243011877</v>
@@ -16779,13 +16779,13 @@
         <v>-0.02062499999999545</v>
       </c>
       <c r="U215">
-        <v>0.9998984161382896</v>
+        <v>-0.0001015838617104414</v>
       </c>
       <c r="V215">
-        <v>0.9998983636548431</v>
+        <v>-0.0001016363451569191</v>
       </c>
       <c r="W215">
-        <v>0.9994914823290111</v>
+        <v>-0.0005085176709889172</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16820,7 +16820,7 @@
         <v>0.619568612189291</v>
       </c>
       <c r="K216">
-        <v>38.25516298144196</v>
+        <v>-0.1174483701855804</v>
       </c>
       <c r="L216">
         <v>-0.007622848656541368</v>
@@ -16850,13 +16850,13 @@
         <v>-0.02312499999999318</v>
       </c>
       <c r="U216">
-        <v>0.9998899396361235</v>
+        <v>-0.0001100603638765074</v>
       </c>
       <c r="V216">
-        <v>0.9998983533238464</v>
+        <v>-0.0001016466761536439</v>
       </c>
       <c r="W216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16891,7 +16891,7 @@
         <v>0.4096034214887705</v>
       </c>
       <c r="K217">
-        <v>29.05806095846182</v>
+        <v>-0.2094193904153818</v>
       </c>
       <c r="L217">
         <v>-0.008631743944587121</v>
@@ -16921,13 +16921,13 @@
         <v>-0.02874999999999517</v>
       </c>
       <c r="U217">
-        <v>0.9998306577253947</v>
+        <v>-0.0001693422746052997</v>
       </c>
       <c r="V217">
-        <v>0.9997289146419978</v>
+        <v>-0.0002710853580022432</v>
       </c>
       <c r="W217">
-        <v>0.9982192826252861</v>
+        <v>-0.001780717374713858</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16962,7 +16962,7 @@
         <v>0.4605642227077378</v>
       </c>
       <c r="K218">
-        <v>31.53330853564923</v>
+        <v>-0.1846669146435078</v>
       </c>
       <c r="L218">
         <v>-0.009807103502874899</v>
@@ -16992,13 +16992,13 @@
         <v>-0.0293749999999946</v>
       </c>
       <c r="U218">
-        <v>0.9998390975915449</v>
+        <v>-0.0001609024084551214</v>
       </c>
       <c r="V218">
-        <v>0.99976273599295</v>
+        <v>-0.000237264007050042</v>
       </c>
       <c r="W218">
-        <v>1.000254841997961</v>
+        <v>0.0002548419979611083</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -17033,7 +17033,7 @@
         <v>0.5142071713592824</v>
       </c>
       <c r="K219">
-        <v>33.95883872995304</v>
+        <v>-0.1604116127004696</v>
       </c>
       <c r="L219">
         <v>-0.01088043119260644</v>
@@ -17063,13 +17063,13 @@
         <v>-0.02875000000000227</v>
       </c>
       <c r="U219">
-        <v>0.9998983610722906</v>
+        <v>-0.0001016389277094243</v>
       </c>
       <c r="V219">
-        <v>0.9997965825874696</v>
+        <v>-0.0002034174125303823</v>
       </c>
       <c r="W219">
-        <v>1.000254777070064</v>
+        <v>0.0002547770700636054</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -17104,7 +17104,7 @@
         <v>0.5706734330977906</v>
       </c>
       <c r="K220">
-        <v>36.33304167959785</v>
+        <v>-0.1366695832040215</v>
       </c>
       <c r="L220">
         <v>-0.01169160251704306</v>
@@ -17134,13 +17134,13 @@
         <v>-0.02937500000000881</v>
       </c>
       <c r="U220">
-        <v>0.9999068215123718</v>
+        <v>-9.317848762824266E-05</v>
       </c>
       <c r="V220">
-        <v>0.9998304510003393</v>
+        <v>-0.0001695489996607069</v>
       </c>
       <c r="W220">
-        <v>1.000254712175242</v>
+        <v>0.0002547121752420889</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -17175,7 +17175,7 @@
         <v>0.6301116033488096</v>
       </c>
       <c r="K221">
-        <v>38.65450697083216</v>
+        <v>-0.1134549302916784</v>
       </c>
       <c r="L221">
         <v>-0.01215728875472274</v>
@@ -17205,13 +17205,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U221">
-        <v>0.9999152843903016</v>
+        <v>-8.471560969836034E-05</v>
       </c>
       <c r="V221">
-        <v>0.9998643377988806</v>
+        <v>-0.0001356622011193798</v>
       </c>
       <c r="W221">
-        <v>1.000254647313471</v>
+        <v>0.0002546473134708016</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17246,7 +17246,7 @@
         <v>0.7552445933509547</v>
       </c>
       <c r="K222">
-        <v>43.02788319143088</v>
+        <v>-0.06972116808569118</v>
       </c>
       <c r="L222">
         <v>-0.01215471894567133</v>
@@ -17276,13 +17276,13 @@
         <v>-0.02999999999999403</v>
       </c>
       <c r="U222">
-        <v>0.9999237494916633</v>
+        <v>-7.625050833670599E-05</v>
       </c>
       <c r="V222">
-        <v>0.9999151996200942</v>
+        <v>-8.48003799057695E-05</v>
       </c>
       <c r="W222">
-        <v>1.00050916496945</v>
+        <v>0.0005091649694499711</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17317,7 +17317,7 @@
         <v>0.8211040617731832</v>
       </c>
       <c r="K223">
-        <v>45.08825602056402</v>
+        <v>-0.04911743979435984</v>
       </c>
       <c r="L223">
         <v>-0.01173178214923134</v>
@@ -17347,13 +17347,13 @@
         <v>-0.02749999999999631</v>
       </c>
       <c r="U223">
-        <v>0.9999322166018487</v>
+        <v>-6.778339815127765E-05</v>
       </c>
       <c r="V223">
-        <v>0.9999151924283801</v>
+        <v>-8.480757161988262E-05</v>
       </c>
       <c r="W223">
-        <v>1.000254452926209</v>
+        <v>0.0002544529262087369</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17388,7 +17388,7 @@
         <v>0.8211040617731831</v>
       </c>
       <c r="K224">
-        <v>45.08825602056402</v>
+        <v>-0.04911743979435984</v>
       </c>
       <c r="L224">
         <v>-0.01103831995176392</v>
@@ -17418,13 +17418,13 @@
         <v>-0.02437499999999204</v>
       </c>
       <c r="U224">
-        <v>0.99994068550608</v>
+        <v>-5.931449392004851E-05</v>
       </c>
       <c r="V224">
-        <v>0.9999321481883567</v>
+        <v>-6.785181164326026E-05</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17459,7 +17459,7 @@
         <v>0.8940785420193677</v>
       </c>
       <c r="K225">
-        <v>47.20387894084623</v>
+        <v>-0.02796121059153767</v>
       </c>
       <c r="L225">
         <v>-0.01009232627075529</v>
@@ -17489,13 +17489,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U225">
-        <v>0.9999406819876617</v>
+        <v>-5.931801233827194E-05</v>
       </c>
       <c r="V225">
-        <v>0.999983035896044</v>
+        <v>-1.696410395601866E-05</v>
       </c>
       <c r="W225">
-        <v>1.000254388196388</v>
+        <v>0.0002543881963876782</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17530,7 +17530,7 @@
         <v>0.7750129299240053</v>
       </c>
       <c r="K226">
-        <v>43.66238222034734</v>
+        <v>-0.0633761777965266</v>
       </c>
       <c r="L226">
         <v>-0.009201929595927805</v>
@@ -17560,13 +17560,13 @@
         <v>-0.004374999999996021</v>
       </c>
       <c r="U226">
-        <v>0.9999152549554665</v>
+        <v>-8.474504453348519E-05</v>
       </c>
       <c r="V226">
-        <v>0.9999660712165163</v>
+        <v>-3.392878348373873E-05</v>
       </c>
       <c r="W226">
-        <v>0.9994913530010172</v>
+        <v>-0.0005086469989827869</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17601,7 +17601,7 @@
         <v>0.7242501202282118</v>
       </c>
       <c r="K227">
-        <v>42.00377379891696</v>
+        <v>-0.0799622620108304</v>
       </c>
       <c r="L227">
         <v>-0.008461022457339894</v>
@@ -17631,13 +17631,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U227">
-        <v>0.9999237229958216</v>
+        <v>-7.627700417844885E-05</v>
       </c>
       <c r="V227">
-        <v>0.9999321401306305</v>
+        <v>-6.785986936952426E-05</v>
       </c>
       <c r="W227">
-        <v>0.9997455470737914</v>
+        <v>-0.0002544529262086259</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17672,7 +17672,7 @@
         <v>0.7931967589986481</v>
       </c>
       <c r="K228">
-        <v>44.23367123647841</v>
+        <v>-0.05766328763521594</v>
       </c>
       <c r="L228">
         <v>-0.007734518641485732</v>
@@ -17702,13 +17702,13 @@
         <v>0.006875000000000853</v>
       </c>
       <c r="U228">
-        <v>0.9999321930463968</v>
+        <v>-6.780695360319999E-05</v>
       </c>
       <c r="V228">
-        <v>0.9999491016440168</v>
+        <v>-5.089835598315329E-05</v>
       </c>
       <c r="W228">
-        <v>1.000254517688979</v>
+        <v>0.0002545176889794387</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17743,7 +17743,7 @@
         <v>0.6926570249170464</v>
       </c>
       <c r="K229">
-        <v>40.92128616256397</v>
+        <v>-0.09078713837436025</v>
       </c>
       <c r="L229">
         <v>-0.007220053764188396</v>
@@ -17773,13 +17773,13 @@
         <v>0.00999999999999801</v>
       </c>
       <c r="U229">
-        <v>0.9999406648922646</v>
+        <v>-5.933510773536987E-05</v>
       </c>
       <c r="V229">
-        <v>0.9999151650887372</v>
+        <v>-8.483491126276554E-05</v>
       </c>
       <c r="W229">
-        <v>0.9994910941475827</v>
+        <v>-0.0005089058524172518</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17814,7 +17814,7 @@
         <v>0.6926570249170464</v>
       </c>
       <c r="K230">
-        <v>40.92128616256397</v>
+        <v>-0.09078713837436025</v>
       </c>
       <c r="L230">
         <v>-0.006840579515423182</v>
@@ -17844,13 +17844,13 @@
         <v>0.01062500000000455</v>
       </c>
       <c r="U230">
-        <v>0.999923707477515</v>
+        <v>-7.629252248497753E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999490947346986</v>
+        <v>-5.090526530138195E-05</v>
       </c>
       <c r="W230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17885,7 +17885,7 @@
         <v>0.6472081073941606</v>
       </c>
       <c r="K231">
-        <v>39.29121672537337</v>
+        <v>-0.1070878327462663</v>
       </c>
       <c r="L231">
         <v>-0.006634795564257488</v>
@@ -17915,13 +17915,13 @@
         <v>0.00812499999999261</v>
       </c>
       <c r="U231">
-        <v>0.9999152240628019</v>
+        <v>-8.477593719813381E-05</v>
       </c>
       <c r="V231">
-        <v>0.999932122857628</v>
+        <v>-6.787714237199705E-05</v>
       </c>
       <c r="W231">
-        <v>0.999745417515275</v>
+        <v>-0.0002545824847249856</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17956,7 +17956,7 @@
         <v>0.6472081073941606</v>
       </c>
       <c r="K232">
-        <v>39.29121672537337</v>
+        <v>-0.1070878327462663</v>
       </c>
       <c r="L232">
         <v>-0.006523234216637334</v>
@@ -17986,13 +17986,13 @@
         <v>0.00562500000000199</v>
       </c>
       <c r="U232">
-        <v>0.9998897819378032</v>
+        <v>-0.0001102180621967985</v>
       </c>
       <c r="V232">
-        <v>1.000050911312494</v>
+        <v>5.091131249379544E-05</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -18027,7 +18027,7 @@
         <v>0.7926160353328976</v>
       </c>
       <c r="K233">
-        <v>44.21560555692034</v>
+        <v>-0.0578439444307966</v>
       </c>
       <c r="L233">
         <v>-0.006266903915843854</v>
@@ -18057,13 +18057,13 @@
         <v>-0.001250000000005969</v>
       </c>
       <c r="U233">
-        <v>0.9999152075295711</v>
+        <v>-8.479247042891824E-05</v>
       </c>
       <c r="V233">
-        <v>1.000067878294218</v>
+        <v>6.787829421828206E-05</v>
       </c>
       <c r="W233">
-        <v>1.000509294626942</v>
+        <v>0.0005092946269416032</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -18098,7 +18098,7 @@
         <v>0.7362690085249398</v>
       </c>
       <c r="K234">
-        <v>42.40523818083021</v>
+        <v>-0.07594761819169787</v>
       </c>
       <c r="L234">
         <v>-0.006008995145006767</v>
@@ -18128,13 +18128,13 @@
         <v>-0.005624999999994884</v>
       </c>
       <c r="U234">
-        <v>0.9999152003391986</v>
+        <v>-8.479966080143786E-05</v>
       </c>
       <c r="V234">
-        <v>1.000033936843534</v>
+        <v>3.393684353381055E-05</v>
       </c>
       <c r="W234">
-        <v>0.9997454823110207</v>
+        <v>-0.0002545176889793277</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -18169,7 +18169,7 @@
         <v>0.8111005248630355</v>
       </c>
       <c r="K235">
-        <v>44.78495333241511</v>
+        <v>-0.05215046667584894</v>
       </c>
       <c r="L235">
         <v>-0.005652059318054848</v>
@@ -18199,13 +18199,13 @@
         <v>-0.007500000000000284</v>
       </c>
       <c r="U235">
-        <v>0.9999321545180851</v>
+        <v>-6.784548191485218E-05</v>
       </c>
       <c r="V235">
-        <v>1.000033935691864</v>
+        <v>3.393569186416201E-05</v>
       </c>
       <c r="W235">
-        <v>1.000254582484725</v>
+        <v>0.0002545824847250966</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18240,7 +18240,7 @@
         <v>0.8111005248630354</v>
       </c>
       <c r="K236">
-        <v>44.78495333241511</v>
+        <v>-0.05215046667584894</v>
       </c>
       <c r="L236">
         <v>-0.005237280928761472</v>
@@ -18270,13 +18270,13 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="U236">
-        <v>0.999940631175418</v>
+        <v>-5.936882458201787E-05</v>
       </c>
       <c r="V236">
-        <v>1.000016967270136</v>
+        <v>1.696727013600352E-05</v>
       </c>
       <c r="W236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18311,7 +18311,7 @@
         <v>0.8940163324398727</v>
       </c>
       <c r="K237">
-        <v>47.20214483516097</v>
+        <v>-0.0279785516483903</v>
       </c>
       <c r="L237">
         <v>-0.004702167826663882</v>
@@ -18341,13 +18341,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U237">
-        <v>0.9999575911789652</v>
+        <v>-4.240882103478949E-05</v>
       </c>
       <c r="V237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W237">
-        <v>1.000254517688979</v>
+        <v>0.0002545176889794387</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18382,7 +18382,7 @@
         <v>0.9812961298892371</v>
       </c>
       <c r="K238">
-        <v>49.52798903130628</v>
+        <v>-0.004720109686937257</v>
       </c>
       <c r="L238">
         <v>-0.004018460489618887</v>
@@ -18412,13 +18412,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U238">
-        <v>0.9999575893803809</v>
+        <v>-4.2410619619071E-05</v>
       </c>
       <c r="V238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W238">
-        <v>1.000254452926209</v>
+        <v>0.0002544529262087369</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18453,7 +18453,7 @@
         <v>0.9812961298892371</v>
       </c>
       <c r="K239">
-        <v>49.52798903130628</v>
+        <v>-0.004720109686937257</v>
       </c>
       <c r="L239">
         <v>-0.003273638408179356</v>
@@ -18483,13 +18483,13 @@
         <v>-0.0006249999999923261</v>
       </c>
       <c r="U239">
-        <v>0.9999660700653151</v>
+        <v>-3.392993468487315E-05</v>
       </c>
       <c r="V239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18524,7 +18524,7 @@
         <v>0.8947644309443922</v>
       </c>
       <c r="K240">
-        <v>47.22299069644356</v>
+        <v>-0.02777009303556438</v>
       </c>
       <c r="L240">
         <v>-0.002619970937626173</v>
@@ -18554,13 +18554,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U240">
-        <v>0.9999745516855267</v>
+        <v>-2.544831447326423E-05</v>
       </c>
       <c r="V240">
-        <v>0.9999660660354949</v>
+        <v>-3.393396450512842E-05</v>
       </c>
       <c r="W240">
-        <v>0.9997456118036122</v>
+        <v>-0.0002543881963877892</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18595,7 +18595,7 @@
         <v>0.8187649250071085</v>
       </c>
       <c r="K241">
-        <v>45.01763332630293</v>
+        <v>-0.0498236667369707</v>
       </c>
       <c r="L241">
         <v>-0.002146297640148598</v>
@@ -18625,13 +18625,13 @@
         <v>0.00562500000000199</v>
       </c>
       <c r="U241">
-        <v>0.9999745510378936</v>
+        <v>-2.544896210643355E-05</v>
       </c>
       <c r="V241">
-        <v>0.999983032441971</v>
+        <v>-1.696755802904626E-05</v>
       </c>
       <c r="W241">
-        <v>0.9997455470737914</v>
+        <v>-0.0002544529262086259</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18666,7 +18666,7 @@
         <v>0.9081733515910154</v>
       </c>
       <c r="K242">
-        <v>47.59385989924814</v>
+        <v>-0.02406140100751863</v>
       </c>
       <c r="L242">
         <v>-0.001711388786479995</v>
@@ -18696,13 +18696,13 @@
         <v>0.008124999999999716</v>
       </c>
       <c r="U242">
-        <v>0.9999745503902272</v>
+        <v>-2.544960977279853E-05</v>
       </c>
       <c r="V242">
-        <v>1.000016967845932</v>
+        <v>1.696784593185896E-05</v>
       </c>
       <c r="W242">
-        <v>1.000254517688979</v>
+        <v>0.0002545176889794387</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18737,7 +18737,7 @@
         <v>0.8300535785023457</v>
       </c>
       <c r="K243">
-        <v>45.35679109360468</v>
+        <v>-0.04643208906395313</v>
       </c>
       <c r="L243">
         <v>-0.00141410495965345</v>
@@ -18767,13 +18767,13 @@
         <v>0.008124999999999716</v>
       </c>
       <c r="U243">
-        <v>0.9999660663233711</v>
+        <v>-3.393367662885005E-05</v>
       </c>
       <c r="V243">
-        <v>0.9999830324419711</v>
+        <v>-1.696755802893524E-05</v>
       </c>
       <c r="W243">
-        <v>0.9997455470737914</v>
+        <v>-0.0002544529262086259</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18808,7 +18808,7 @@
         <v>1.101691168228898</v>
       </c>
       <c r="K244">
-        <v>52.41927000898503</v>
+        <v>0.02419270008985031</v>
       </c>
       <c r="L244">
         <v>-0.0009360157929166849</v>
@@ -18838,13 +18838,13 @@
         <v>0.01062500000000455</v>
       </c>
       <c r="U244">
-        <v>0.9999915162929592</v>
+        <v>-8.483707040762845E-06</v>
       </c>
       <c r="V244">
-        <v>1.000067871383728</v>
+        <v>6.787138372787993E-05</v>
       </c>
       <c r="W244">
-        <v>1.000763553066938</v>
+        <v>0.0007635530669380941</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18879,7 +18879,7 @@
         <v>1.292314038212465</v>
       </c>
       <c r="K245">
-        <v>56.37595969268701</v>
+        <v>0.06375959692687017</v>
       </c>
       <c r="L245">
         <v>-0.0001901174730548529</v>
@@ -18909,13 +18909,13 @@
         <v>0.01187499999999631</v>
       </c>
       <c r="U245">
-        <v>1.000025451337043</v>
+        <v>2.545133704345837E-05</v>
       </c>
       <c r="V245">
-        <v>1.000101800166274</v>
+        <v>0.0001018001662735912</v>
       </c>
       <c r="W245">
-        <v>1.000508646998983</v>
+        <v>0.0005086469989827869</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18950,7 +18950,7 @@
         <v>1.392641864519571</v>
       </c>
       <c r="K246">
-        <v>58.20519506788809</v>
+        <v>0.08205195067888094</v>
       </c>
       <c r="L246">
         <v>0.0007638492643187752</v>
@@ -18980,13 +18980,13 @@
         <v>0.01249999999999574</v>
       </c>
       <c r="U246">
-        <v>1.000033934252386</v>
+        <v>3.393425238606973E-05</v>
       </c>
       <c r="V246">
-        <v>1.000135719738739</v>
+        <v>0.0001357197387394926</v>
       </c>
       <c r="W246">
-        <v>1.000254194204372</v>
+        <v>0.0002541942043721157</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -19021,7 +19021,7 @@
         <v>1.498250102737576</v>
       </c>
       <c r="K247">
-        <v>59.97198203237528</v>
+        <v>0.09971982032375282</v>
       </c>
       <c r="L247">
         <v>0.001872939539401283</v>
@@ -19051,13 +19051,13 @@
         <v>0.01312499999999517</v>
       </c>
       <c r="U247">
-        <v>1.000101799302675</v>
+        <v>0.0001017993026746211</v>
       </c>
       <c r="V247">
-        <v>1.000152663986566</v>
+        <v>0.0001526639865656598</v>
       </c>
       <c r="W247">
-        <v>1.000254129606099</v>
+        <v>0.0002541296060991627</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -19092,7 +19092,7 @@
         <v>1.498250102737576</v>
       </c>
       <c r="K248">
-        <v>59.97198203237528</v>
+        <v>0.09971982032375282</v>
       </c>
       <c r="L248">
         <v>0.002998469904029712</v>
@@ -19122,13 +19122,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U248">
-        <v>1.000093306528912</v>
+        <v>9.330652891237357E-05</v>
       </c>
       <c r="V248">
-        <v>1.000118720531868</v>
+        <v>0.0001187205318682327</v>
       </c>
       <c r="W248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -19163,7 +19163,7 @@
         <v>1.108950471904654</v>
       </c>
       <c r="K249">
-        <v>52.58304956318527</v>
+        <v>0.02583049563185269</v>
       </c>
       <c r="L249">
         <v>0.003773292159723924</v>
@@ -19193,13 +19193,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U249">
-        <v>1.000059371342301</v>
+        <v>5.937134230116214E-05</v>
       </c>
       <c r="V249">
-        <v>1.000084790313555</v>
+        <v>8.479031355457245E-05</v>
       </c>
       <c r="W249">
-        <v>0.9992378048780487</v>
+        <v>-0.0007621951219513035</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19234,7 +19234,7 @@
         <v>1.291291673078198</v>
       </c>
       <c r="K250">
-        <v>56.3564948212566</v>
+        <v>0.06356494821256597</v>
       </c>
       <c r="L250">
         <v>0.004457814403718096</v>
@@ -19264,13 +19264,13 @@
         <v>0.01937499999999659</v>
       </c>
       <c r="U250">
-        <v>1.000067848934348</v>
+        <v>6.78489343477473E-05</v>
       </c>
       <c r="V250">
-        <v>1.00010173974972</v>
+        <v>0.0001017397497200534</v>
       </c>
       <c r="W250">
-        <v>1.000508517670989</v>
+        <v>0.0005085176709891392</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19305,7 +19305,7 @@
         <v>1.291291673078199</v>
       </c>
       <c r="K251">
-        <v>56.3564948212566</v>
+        <v>0.06356494821256597</v>
       </c>
       <c r="L251">
         <v>0.005027736855349131</v>
@@ -19335,13 +19335,13 @@
         <v>0.02312500000000028</v>
       </c>
       <c r="U251">
-        <v>1.000059363789784</v>
+        <v>5.936378978432799E-05</v>
       </c>
       <c r="V251">
-        <v>1.000101729399796</v>
+        <v>0.0001017293997964686</v>
       </c>
       <c r="W251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19376,7 +19376,7 @@
         <v>1.172813942834715</v>
       </c>
       <c r="K252">
-        <v>53.97673126602955</v>
+        <v>0.03976731266029554</v>
       </c>
       <c r="L252">
         <v>0.005380926312486528</v>
@@ -19406,13 +19406,13 @@
         <v>0.02249999999999375</v>
       </c>
       <c r="U252">
-        <v>1.000033920151962</v>
+        <v>3.392015196235221E-05</v>
       </c>
       <c r="V252">
-        <v>1.000067812701319</v>
+        <v>6.781270131916983E-05</v>
       </c>
       <c r="W252">
-        <v>0.9997458703939009</v>
+        <v>-0.0002541296060990517</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19447,7 +19447,7 @@
         <v>1.069519387304224</v>
       </c>
       <c r="K253">
-        <v>51.67960222384726</v>
+        <v>0.01679602223847265</v>
       </c>
       <c r="L253">
         <v>0.005468061734158879</v>
@@ -19477,13 +19477,13 @@
         <v>0.01937499999999659</v>
       </c>
       <c r="U253">
-        <v>1.000016959500712</v>
+        <v>1.695950071245456E-05</v>
       </c>
       <c r="V253">
-        <v>1.000033904051534</v>
+        <v>3.390405153380627E-05</v>
       </c>
       <c r="W253">
-        <v>0.9997458057956278</v>
+        <v>-0.0002541942043722267</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19518,7 +19518,7 @@
         <v>1.069519387304223</v>
       </c>
       <c r="K254">
-        <v>51.67960222384725</v>
+        <v>0.01679602223847243</v>
       </c>
       <c r="L254">
         <v>0.005368562417963901</v>
@@ -19548,13 +19548,13 @@
         <v>0.015625</v>
       </c>
       <c r="U254">
-        <v>1.000016959213092</v>
+        <v>1.695921309208259E-05</v>
       </c>
       <c r="V254">
-        <v>1.000033902902089</v>
+        <v>3.390290208860058E-05</v>
       </c>
       <c r="W254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19589,7 +19589,7 @@
         <v>1.069519387304223</v>
       </c>
       <c r="K255">
-        <v>51.67960222384725</v>
+        <v>0.01679602223847243</v>
       </c>
       <c r="L255">
         <v>0.005142799076491005</v>
@@ -19619,13 +19619,13 @@
         <v>0.01062499999999744</v>
       </c>
       <c r="U255">
-        <v>1.000008479462741</v>
+        <v>8.479462741295407E-06</v>
       </c>
       <c r="V255">
-        <v>1.000050852629081</v>
+        <v>5.085262908077759E-05</v>
       </c>
       <c r="W255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19660,7 +19660,7 @@
         <v>1.069519387304223</v>
       </c>
       <c r="K256">
-        <v>51.67960222384725</v>
+        <v>0.01679602223847243</v>
       </c>
       <c r="L256">
         <v>0.004836212801180117</v>
@@ -19690,13 +19690,13 @@
         <v>0.005000000000002558</v>
       </c>
       <c r="U256">
-        <v>1.000025438172522</v>
+        <v>2.543817252176339E-05</v>
       </c>
       <c r="V256">
-        <v>1.00006780005763</v>
+        <v>6.780005762996311E-05</v>
       </c>
       <c r="W256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19731,7 +19731,7 @@
         <v>0.9651552977953807</v>
       </c>
       <c r="K257">
-        <v>49.11343642297099</v>
+        <v>-0.008865635770290092</v>
       </c>
       <c r="L257">
         <v>0.004389978049372273</v>
@@ -19761,13 +19761,13 @@
         <v>0.001874999999998295</v>
       </c>
       <c r="U257">
-        <v>1.000025437525437</v>
+        <v>2.543752543737732E-05</v>
       </c>
       <c r="V257">
-        <v>1.000033897730547</v>
+        <v>3.389773054718326E-05</v>
       </c>
       <c r="W257">
-        <v>0.9997457411645055</v>
+        <v>-0.0002542588354944586</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19802,7 +19802,7 @@
         <v>1.170587639890715</v>
       </c>
       <c r="K258">
-        <v>53.92952665802758</v>
+        <v>0.03929526658027582</v>
       </c>
       <c r="L258">
         <v>0.004056843542093633</v>
@@ -19832,13 +19832,13 @@
         <v>-0.001874999999998295</v>
       </c>
       <c r="U258">
-        <v>1.000033915837848</v>
+        <v>3.391583784839725E-05</v>
       </c>
       <c r="V258">
-        <v>1.000084741453824</v>
+        <v>8.474145382408871E-05</v>
       </c>
       <c r="W258">
-        <v>1.000508646998983</v>
+        <v>0.0005086469989827869</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19873,7 +19873,7 @@
         <v>1.056370452435832</v>
       </c>
       <c r="K259">
-        <v>51.37062979992392</v>
+        <v>0.01370629799923917</v>
       </c>
       <c r="L259">
         <v>0.003706061882586961</v>
@@ -19903,13 +19903,13 @@
         <v>-0.006875000000000853</v>
       </c>
       <c r="U259">
-        <v>1.000042393359504</v>
+        <v>4.239335950417811E-05</v>
       </c>
       <c r="V259">
-        <v>1.000016946854664</v>
+        <v>1.69468546640239E-05</v>
       </c>
       <c r="W259">
-        <v>0.9997458057956278</v>
+        <v>-0.0002541942043722267</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19944,7 +19944,7 @@
         <v>0.9579784782305228</v>
       </c>
       <c r="K260">
-        <v>48.9269156367987</v>
+        <v>-0.01073084363201304</v>
       </c>
       <c r="L260">
         <v>0.003260843212867833</v>
@@ -19974,13 +19974,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U260">
-        <v>1.000033913249907</v>
+        <v>3.391324990653644E-05</v>
       </c>
       <c r="V260">
-        <v>0.9999661068650545</v>
+        <v>-3.389313494550628E-05</v>
       </c>
       <c r="W260">
-        <v>0.9997457411645055</v>
+        <v>-0.0002542588354944586</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -20015,7 +20015,7 @@
         <v>0.8724410988997837</v>
       </c>
       <c r="K261">
-        <v>46.59378067552651</v>
+        <v>-0.03406219324473492</v>
       </c>
       <c r="L261">
         <v>0.002682317434108357</v>
@@ -20045,13 +20045,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U261">
-        <v>1.000033912099837</v>
+        <v>3.391209983716337E-05</v>
       </c>
       <c r="V261">
-        <v>0.9999322114325419</v>
+        <v>-6.77885674581491E-05</v>
       </c>
       <c r="W261">
-        <v>0.9997456765005087</v>
+        <v>-0.0002543234994912824</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -20086,7 +20086,7 @@
         <v>0.9664300023146569</v>
       </c>
       <c r="K262">
-        <v>49.14642276496421</v>
+        <v>-0.008535772350357851</v>
       </c>
       <c r="L262">
         <v>0.002142748987446364</v>
@@ -20116,13 +20116,13 @@
         <v>-0.009375000000005684</v>
       </c>
       <c r="U262">
-        <v>1.000042388687307</v>
+        <v>4.238868730710443E-05</v>
       </c>
       <c r="V262">
-        <v>0.9999322068369406</v>
+        <v>-6.779316305938199E-05</v>
       </c>
       <c r="W262">
-        <v>1.000254388196388</v>
+        <v>0.0002543881963876782</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -20157,7 +20157,7 @@
         <v>1.065365690119787</v>
       </c>
       <c r="K263">
-        <v>51.58242413032425</v>
+        <v>0.01582424130324245</v>
       </c>
       <c r="L263">
         <v>0.001745965174246034</v>
@@ -20187,13 +20187,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U263">
-        <v>1.000033909512466</v>
+        <v>3.390951246617924E-05</v>
       </c>
       <c r="V263">
-        <v>0.9999491516805367</v>
+        <v>-5.08483194633369E-05</v>
       </c>
       <c r="W263">
-        <v>1.000254323499491</v>
+        <v>0.0002543234994913934</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20228,7 +20228,7 @@
         <v>1.169508519388418</v>
       </c>
       <c r="K264">
-        <v>53.90661105668767</v>
+        <v>0.0390661105668767</v>
       </c>
       <c r="L264">
         <v>0.001547204896797858</v>
@@ -20258,13 +20258,13 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="U264">
-        <v>1.000050862543975</v>
+        <v>5.086254397479451E-05</v>
       </c>
       <c r="V264">
-        <v>1.000016950301716</v>
+        <v>1.6950301715557E-05</v>
       </c>
       <c r="W264">
-        <v>1.000254258835495</v>
+        <v>0.0002542588354945696</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20299,7 +20299,7 @@
         <v>0.959204739547697</v>
       </c>
       <c r="K265">
-        <v>48.95888215180306</v>
+        <v>-0.01041117848196937</v>
       </c>
       <c r="L265">
         <v>0.001290240585000268</v>
@@ -20329,13 +20329,13 @@
         <v>-0.004375000000003126</v>
       </c>
       <c r="U265">
-        <v>1.000025429978554</v>
+        <v>2.542997855403684E-05</v>
       </c>
       <c r="V265">
-        <v>0.9999491499567775</v>
+        <v>-5.085004322247233E-05</v>
       </c>
       <c r="W265">
-        <v>0.9994916115912557</v>
+        <v>-0.0005083884087443424</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20370,7 +20370,7 @@
         <v>1.148491432344174</v>
       </c>
       <c r="K266">
-        <v>53.45571385830844</v>
+        <v>0.0345571385830844</v>
       </c>
       <c r="L266">
         <v>0.001194888134376527</v>
@@ -20400,13 +20400,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U266">
-        <v>1.000042382219811</v>
+        <v>4.23822198110102E-05</v>
       </c>
       <c r="V266">
-        <v>0.9999830491236394</v>
+        <v>-1.695087636055526E-05</v>
       </c>
       <c r="W266">
-        <v>1.000508646998983</v>
+        <v>0.0005086469989827869</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20441,7 +20441,7 @@
         <v>1.447365157812189</v>
       </c>
       <c r="K267">
-        <v>59.139730464499</v>
+        <v>0.09139730464499007</v>
       </c>
       <c r="L267">
         <v>0.001476951196300376</v>
@@ -20471,13 +20471,13 @@
         <v>7.105427357601002E-15</v>
       </c>
       <c r="U267">
-        <v>1.000059332593089</v>
+        <v>5.933259308865679E-05</v>
       </c>
       <c r="V267">
-        <v>1.000050853491092</v>
+        <v>5.085349109212878E-05</v>
       </c>
       <c r="W267">
-        <v>1.000762582613116</v>
+        <v>0.0007625826131163471</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20512,7 +20512,7 @@
         <v>1.657101105509117</v>
       </c>
       <c r="K268">
-        <v>62.36500003983124</v>
+        <v>0.1236500003983124</v>
       </c>
       <c r="L268">
         <v>0.002149481091629776</v>
@@ -20542,13 +20542,13 @@
         <v>0.005625000000009095</v>
       </c>
       <c r="U268">
-        <v>1.00006780465479</v>
+        <v>6.780465478972708E-05</v>
       </c>
       <c r="V268">
-        <v>1.000101701810292</v>
+        <v>0.0001017018102924538</v>
       </c>
       <c r="W268">
-        <v>1.000508001016002</v>
+        <v>0.0005080010160021242</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20583,7 +20583,7 @@
         <v>1.492363110134448</v>
       </c>
       <c r="K269">
-        <v>59.8774353570794</v>
+        <v>0.098774353570794</v>
       </c>
       <c r="L269">
         <v>0.002915253847682192</v>
@@ -20613,13 +20613,13 @@
         <v>0.01124999999999687</v>
       </c>
       <c r="U269">
-        <v>1.000059325050426</v>
+        <v>5.932505042638425E-05</v>
       </c>
       <c r="V269">
-        <v>1.000084742890071</v>
+        <v>8.474289007143199E-05</v>
       </c>
       <c r="W269">
-        <v>0.9997461284589998</v>
+        <v>-0.0002538715410002057</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20654,7 +20654,7 @@
         <v>1.492363110134448</v>
       </c>
       <c r="K270">
-        <v>59.8774353570794</v>
+        <v>0.098774353570794</v>
       </c>
       <c r="L270">
         <v>0.003678062196116595</v>
@@ -20684,13 +20684,13 @@
         <v>0.015625</v>
       </c>
       <c r="U270">
-        <v>1.000067796035627</v>
+        <v>6.77960356270102E-05</v>
       </c>
       <c r="V270">
-        <v>1.000084735709323</v>
+        <v>8.473570932299168E-05</v>
       </c>
       <c r="W270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20725,7 +20725,7 @@
         <v>1.712669733940966</v>
       </c>
       <c r="K271">
-        <v>63.13594731094669</v>
+        <v>0.1313594731094669</v>
       </c>
       <c r="L271">
         <v>0.004562200838417282</v>
@@ -20755,13 +20755,13 @@
         <v>0.01999999999998892</v>
       </c>
       <c r="U271">
-        <v>1.000093213229499</v>
+        <v>9.321322949928934E-05</v>
       </c>
       <c r="V271">
-        <v>1.000118619941707</v>
+        <v>0.0001186199417066991</v>
       </c>
       <c r="W271">
-        <v>1.000507872016252</v>
+        <v>0.000507872016251909</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20796,7 +20796,7 @@
         <v>1.390264922155058</v>
       </c>
       <c r="K272">
-        <v>58.16363321357693</v>
+        <v>0.08163633213576926</v>
       </c>
       <c r="L272">
         <v>0.005261653669877259</v>
@@ -20826,13 +20826,13 @@
         <v>0.02187500000000142</v>
       </c>
       <c r="U272">
-        <v>1.000067785121166</v>
+        <v>6.778512116589752E-05</v>
       </c>
       <c r="V272">
-        <v>1.000101662176587</v>
+        <v>0.0001016621765872472</v>
       </c>
       <c r="W272">
-        <v>0.9994923857868021</v>
+        <v>-0.0005076142131978933</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20867,7 +20867,7 @@
         <v>1.489342251357784</v>
       </c>
       <c r="K273">
-        <v>59.82874594867133</v>
+        <v>0.09828745948671336</v>
       </c>
       <c r="L273">
         <v>0.005878024258542281</v>
@@ -20897,13 +20897,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U273">
-        <v>1.000084725658318</v>
+        <v>8.472565831829648E-05</v>
       </c>
       <c r="V273">
-        <v>1.0000847098687</v>
+        <v>8.470986869979491E-05</v>
       </c>
       <c r="W273">
-        <v>1.000253936008126</v>
+        <v>0.0002539360081259545</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20938,7 +20938,7 @@
         <v>2.010801878740629</v>
       </c>
       <c r="K274">
-        <v>66.78625694167945</v>
+        <v>0.1678625694167946</v>
       </c>
       <c r="L274">
         <v>0.006846186412727925</v>
@@ -20968,13 +20968,13 @@
         <v>0.03249999999999886</v>
       </c>
       <c r="U274">
-        <v>1.000101662176587</v>
+        <v>0.0001016621765872472</v>
       </c>
       <c r="V274">
-        <v>1.0001863459258</v>
+        <v>0.0001863459258002464</v>
       </c>
       <c r="W274">
-        <v>1.001269357705001</v>
+        <v>0.00126935770500114</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -21009,7 +21009,7 @@
         <v>2.230363827112399</v>
       </c>
       <c r="K275">
-        <v>69.04373459091468</v>
+        <v>0.1904373459091468</v>
       </c>
       <c r="L275">
         <v>0.008125823346842054</v>
@@ -21039,13 +21039,13 @@
         <v>0.03562499999999602</v>
       </c>
       <c r="U275">
-        <v>1.000101651842439</v>
+        <v>0.0001016518424394874</v>
       </c>
       <c r="V275">
-        <v>1.000237123354957</v>
+        <v>0.0002371233549567364</v>
       </c>
       <c r="W275">
-        <v>1.000507099391481</v>
+        <v>0.0005070993914808586</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -21080,7 +21080,7 @@
         <v>2.230363827112399</v>
       </c>
       <c r="K276">
-        <v>69.04373459091468</v>
+        <v>0.1904373459091468</v>
       </c>
       <c r="L276">
         <v>0.009482811448815111</v>
@@ -21110,13 +21110,13 @@
         <v>0.03562500000000313</v>
       </c>
       <c r="U276">
-        <v>1.000093171384527</v>
+        <v>9.317138452669127E-05</v>
       </c>
       <c r="V276">
-        <v>1.000254000508001</v>
+        <v>0.0002540005080011731</v>
       </c>
       <c r="W276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -21151,7 +21151,7 @@
         <v>1.500348464912469</v>
       </c>
       <c r="K277">
-        <v>60.00557466156992</v>
+        <v>0.1000557466156992</v>
       </c>
       <c r="L277">
         <v>0.01039523966025582</v>
@@ -21181,13 +21181,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U277">
-        <v>1.000050816020598</v>
+        <v>5.081602059764379E-05</v>
       </c>
       <c r="V277">
-        <v>1.000169290672084</v>
+        <v>0.0001692906720838216</v>
       </c>
       <c r="W277">
-        <v>0.9989863152559554</v>
+        <v>-0.001013684744044618</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21222,7 +21222,7 @@
         <v>1.672615700873493</v>
       </c>
       <c r="K278">
-        <v>62.58347207669366</v>
+        <v>0.1258347207669366</v>
       </c>
       <c r="L278">
         <v>0.01112735229408431</v>
@@ -21252,13 +21252,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U278">
-        <v>1.000067751251281</v>
+        <v>6.77512512805567E-05</v>
       </c>
       <c r="V278">
-        <v>1.000186188219364</v>
+        <v>0.000186188219363892</v>
       </c>
       <c r="W278">
-        <v>1.00050735667174</v>
+        <v>0.0005073566717401778</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21293,7 +21293,7 @@
         <v>1.227456626528077</v>
       </c>
       <c r="K279">
-        <v>55.10574760063032</v>
+        <v>0.05105747600630317</v>
       </c>
       <c r="L279">
         <v>0.0112928191206267</v>
@@ -21323,13 +21323,13 @@
         <v>0.02937500000000171</v>
       </c>
       <c r="U279">
-        <v>1.00005927832869</v>
+        <v>5.927832869012661E-05</v>
       </c>
       <c r="V279">
-        <v>1.000101538305326</v>
+        <v>0.0001015383053255547</v>
       </c>
       <c r="W279">
-        <v>0.9989858012170386</v>
+        <v>-0.001014198782961384</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21364,7 +21364,7 @@
         <v>1.297494905354793</v>
       </c>
       <c r="K280">
-        <v>56.47433220986515</v>
+        <v>0.06474332209865152</v>
       </c>
       <c r="L280">
         <v>0.01115590540793496</v>
@@ -21394,13 +21394,13 @@
         <v>0.02874999999999517</v>
       </c>
       <c r="U280">
-        <v>1.000050806984267</v>
+        <v>5.0806984266627E-05</v>
       </c>
       <c r="V280">
-        <v>1.000152291994517</v>
+        <v>0.000152291994517384</v>
       </c>
       <c r="W280">
-        <v>1.000253807106599</v>
+        <v>0.0002538071065989467</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21435,7 +21435,7 @@
         <v>1.444943913411089</v>
       </c>
       <c r="K281">
-        <v>59.09926626476926</v>
+        <v>0.09099266264769257</v>
       </c>
       <c r="L281">
         <v>0.01098894297578912</v>
@@ -21465,13 +21465,13 @@
         <v>0.02687499999999687</v>
       </c>
       <c r="U281">
-        <v>1.000067739204064</v>
+        <v>6.773920406422107E-05</v>
       </c>
       <c r="V281">
-        <v>1.000152268805198</v>
+        <v>0.0001522688051975862</v>
       </c>
       <c r="W281">
-        <v>1.000507485409795</v>
+        <v>0.0005074854097946169</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21506,7 +21506,7 @@
         <v>1.444943913411089</v>
       </c>
       <c r="K282">
-        <v>59.09926626476926</v>
+        <v>0.09099266264769257</v>
       </c>
       <c r="L282">
         <v>0.0107743546119417</v>
@@ -21536,13 +21536,13 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="U282">
-        <v>1.000076201442748</v>
+        <v>7.62014427475588E-05</v>
       </c>
       <c r="V282">
-        <v>1.000101497081959</v>
+        <v>0.0001014970819588346</v>
       </c>
       <c r="W282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21577,7 +21577,7 @@
         <v>1.526633114550282</v>
       </c>
       <c r="K283">
-        <v>60.42163801933741</v>
+        <v>0.1042163801933742</v>
       </c>
       <c r="L283">
         <v>0.010597807855154</v>
@@ -21607,13 +21607,13 @@
         <v>0.01312499999999517</v>
       </c>
       <c r="U283">
-        <v>1.000093128000203</v>
+        <v>9.312800020300216E-05</v>
       </c>
       <c r="V283">
-        <v>1.000084572317789</v>
+        <v>8.457231778891128E-05</v>
       </c>
       <c r="W283">
-        <v>1.000253613999493</v>
+        <v>0.0002536139994926412</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21648,7 +21648,7 @@
         <v>1.612621747328441</v>
       </c>
       <c r="K284">
-        <v>61.72427175795507</v>
+        <v>0.1172427175795506</v>
       </c>
       <c r="L284">
         <v>0.01050938667771944</v>
@@ -21678,13 +21678,13 @@
         <v>0.00812499999999261</v>
       </c>
       <c r="U284">
-        <v>1.000101584721658</v>
+        <v>0.000101584721657888</v>
       </c>
       <c r="V284">
-        <v>1.000118391232284</v>
+        <v>0.0001183912322835212</v>
       </c>
       <c r="W284">
-        <v>1.000253549695741</v>
+        <v>0.0002535496957405403</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21719,7 +21719,7 @@
         <v>1.268239990942175</v>
       </c>
       <c r="K285">
-        <v>55.91295436138471</v>
+        <v>0.05912954361384704</v>
       </c>
       <c r="L285">
         <v>0.01016423470659827</v>
@@ -21749,13 +21749,13 @@
         <v>0.00562500000000199</v>
       </c>
       <c r="U285">
-        <v>1.000076180802438</v>
+        <v>7.618080243787517E-05</v>
       </c>
       <c r="V285">
-        <v>1.000067644124262</v>
+        <v>6.764412426218946E-05</v>
       </c>
       <c r="W285">
-        <v>0.9992395437262357</v>
+        <v>-0.0007604562737643095</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21790,7 +21790,7 @@
         <v>1.268239990942175</v>
       </c>
       <c r="K286">
-        <v>55.91295436138471</v>
+        <v>0.05912954361384704</v>
       </c>
       <c r="L286">
         <v>0.009648567815489301</v>
@@ -21820,13 +21820,13 @@
         <v>0.000625000000006537</v>
       </c>
       <c r="U286">
-        <v>1.000076174999365</v>
+        <v>7.617499936496408E-05</v>
       </c>
       <c r="V286">
-        <v>1.000033819774422</v>
+        <v>3.381977442229456E-05</v>
       </c>
       <c r="W286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21861,7 +21861,7 @@
         <v>1.268239990942175</v>
       </c>
       <c r="K287">
-        <v>55.91295436138471</v>
+        <v>0.05912954361384704</v>
       </c>
       <c r="L287">
         <v>0.009027356663522605</v>
@@ -21891,13 +21891,13 @@
         <v>0.001874999999998295</v>
       </c>
       <c r="U287">
-        <v>1.000084632441308</v>
+        <v>8.463244130751946E-05</v>
       </c>
       <c r="V287">
-        <v>1.000067637261367</v>
+        <v>6.763726136727044E-05</v>
       </c>
       <c r="W287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21932,7 +21932,7 @@
         <v>1.087635365026626</v>
       </c>
       <c r="K288">
-        <v>52.09891455411104</v>
+        <v>0.02098914554111042</v>
       </c>
       <c r="L288">
         <v>0.008164060003015498</v>
@@ -21962,13 +21962,13 @@
         <v>-0.0006249999999923261</v>
       </c>
       <c r="U288">
-        <v>1.000050775167558</v>
+        <v>5.077516755802591E-05</v>
       </c>
       <c r="V288">
-        <v>1.000016908171719</v>
+        <v>1.690817171939862E-05</v>
       </c>
       <c r="W288">
-        <v>0.9994926433282597</v>
+        <v>-0.0005073566717402889</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -22003,7 +22003,7 @@
         <v>1.087635365026626</v>
       </c>
       <c r="K289">
-        <v>52.09891455411104</v>
+        <v>0.02098914554111042</v>
       </c>
       <c r="L289">
         <v>0.007179458265158482</v>
@@ -22033,13 +22033,13 @@
         <v>-0.005000000000002558</v>
       </c>
       <c r="U289">
-        <v>1.000059234687833</v>
+        <v>5.923468783319841E-05</v>
       </c>
       <c r="V289">
-        <v>0.9999323684566482</v>
+        <v>-6.763154335176491E-05</v>
       </c>
       <c r="W289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -22074,7 +22074,7 @@
         <v>1.087635365026626</v>
       </c>
       <c r="K290">
-        <v>52.09891455411104</v>
+        <v>0.02098914554111042</v>
       </c>
       <c r="L290">
         <v>0.00615801533074627</v>
@@ -22104,13 +22104,13 @@
         <v>-0.006250000000001421</v>
       </c>
       <c r="U290">
-        <v>1.000067692776335</v>
+        <v>6.769277633456028E-05</v>
       </c>
       <c r="V290">
-        <v>0.9998985458234698</v>
+        <v>-0.0001014541765301802</v>
       </c>
       <c r="W290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -22145,7 +22145,7 @@
         <v>1.170682874887562</v>
       </c>
       <c r="K291">
-        <v>53.93154792121358</v>
+        <v>0.03931547921213574</v>
       </c>
       <c r="L291">
         <v>0.005249372142628392</v>
@@ -22175,13 +22175,13 @@
         <v>-0.006875000000000853</v>
       </c>
       <c r="U291">
-        <v>1.000084610242916</v>
+        <v>8.461024291617214E-05</v>
       </c>
       <c r="V291">
-        <v>0.9999154462745627</v>
+        <v>-8.455372543725304E-05</v>
       </c>
       <c r="W291">
-        <v>1.000253807106599</v>
+        <v>0.0002538071065989467</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -22216,7 +22216,7 @@
         <v>1.345519737752753</v>
       </c>
       <c r="K292">
-        <v>57.36552611754604</v>
+        <v>0.0736552611754604</v>
       </c>
       <c r="L292">
         <v>0.004632688427904136</v>
@@ -22246,13 +22246,13 @@
         <v>-0.007500000000000284</v>
       </c>
       <c r="U292">
-        <v>1.000093063393091</v>
+        <v>9.30633930913416E-05</v>
       </c>
       <c r="V292">
-        <v>1.000016912175075</v>
+        <v>1.691217507460152E-05</v>
       </c>
       <c r="W292">
-        <v>1.000507485409795</v>
+        <v>0.0005074854097946169</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -22287,7 +22287,7 @@
         <v>1.345519737752753</v>
       </c>
       <c r="K293">
-        <v>57.36552611754604</v>
+        <v>0.0736552611754604</v>
       </c>
       <c r="L293">
         <v>0.004215280375052402</v>
@@ -22317,13 +22317,13 @@
         <v>-0.006875000000000853</v>
       </c>
       <c r="U293">
-        <v>1.000084595211911</v>
+        <v>8.459521191084285E-05</v>
       </c>
       <c r="V293">
-        <v>0.9999830881109422</v>
+        <v>-1.691188905783569E-05</v>
       </c>
       <c r="W293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -22358,7 +22358,7 @@
         <v>1.442382265655871</v>
       </c>
       <c r="K294">
-        <v>59.05636828183148</v>
+        <v>0.09056368281831484</v>
       </c>
       <c r="L294">
         <v>0.004022238237996608</v>
@@ -22388,13 +22388,13 @@
         <v>-0.004374999999996021</v>
       </c>
       <c r="U294">
-        <v>1.000084588056167</v>
+        <v>8.458805616662346E-05</v>
       </c>
       <c r="V294">
-        <v>1.000067648700299</v>
+        <v>6.764870029929426E-05</v>
       </c>
       <c r="W294">
-        <v>1.000253613999493</v>
+        <v>0.0002536139994926412</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -22429,7 +22429,7 @@
         <v>1.198070415102648</v>
       </c>
       <c r="K295">
-        <v>54.50555209109164</v>
+        <v>0.04505552091091647</v>
       </c>
       <c r="L295">
         <v>0.003777941043370155</v>
@@ -22459,13 +22459,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U295">
-        <v>1.000084580901633</v>
+        <v>8.458090163254717E-05</v>
       </c>
       <c r="V295">
-        <v>1.000016911031066</v>
+        <v>1.69110310657139E-05</v>
       </c>
       <c r="W295">
-        <v>0.9994929006085194</v>
+        <v>-0.0005070993914806365</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -22500,7 +22500,7 @@
         <v>1.198070415102648</v>
       </c>
       <c r="K296">
-        <v>54.50555209109164</v>
+        <v>0.04505552091091647</v>
       </c>
       <c r="L296">
         <v>0.003504407624005819</v>
@@ -22530,13 +22530,13 @@
         <v>-0.003750000000003695</v>
       </c>
       <c r="U296">
-        <v>1.000067658998647</v>
+        <v>6.765899864680236E-05</v>
       </c>
       <c r="V296">
-        <v>0.9999830892549124</v>
+        <v>-1.691074508758383E-05</v>
       </c>
       <c r="W296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -22571,7 +22571,7 @@
         <v>1.09528876496364</v>
       </c>
       <c r="K297">
-        <v>52.27388144672492</v>
+        <v>0.02273881446724924</v>
       </c>
       <c r="L297">
         <v>0.003125436979846254</v>
@@ -22601,13 +22601,13 @@
         <v>-0.001249999999991758</v>
       </c>
       <c r="U297">
-        <v>1.000033827210608</v>
+        <v>3.382721060818383E-05</v>
       </c>
       <c r="V297">
-        <v>0.9999661779378688</v>
+        <v>-3.382206213120575E-05</v>
       </c>
       <c r="W297">
-        <v>0.9997463216641298</v>
+        <v>-0.0002536783358701999</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -22642,7 +22642,7 @@
         <v>1.185593315772009</v>
       </c>
       <c r="K298">
-        <v>54.24583371555682</v>
+        <v>0.04245833715556824</v>
       </c>
       <c r="L298">
         <v>0.002787766814341353</v>
@@ -22672,13 +22672,13 @@
         <v>0.001874999999998295</v>
       </c>
       <c r="U298">
-        <v>1.000025369549775</v>
+        <v>2.53695497749451E-05</v>
       </c>
       <c r="V298">
-        <v>0.9999661767938984</v>
+        <v>-3.382320610156864E-05</v>
       </c>
       <c r="W298">
-        <v>1.000253742704897</v>
+        <v>0.0002537427048974195</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -22713,7 +22713,7 @@
         <v>0.9962007632636929</v>
       </c>
       <c r="K299">
-        <v>49.90483831069938</v>
+        <v>-0.0009516168930061575</v>
       </c>
       <c r="L299">
         <v>0.002301697243811544</v>
@@ -22743,13 +22743,13 @@
         <v>0.003125000000004263</v>
       </c>
       <c r="U299">
-        <v>1.000016912604119</v>
+        <v>1.691260411851303E-05</v>
       </c>
       <c r="V299">
-        <v>0.9999154391246259</v>
+        <v>-8.456087537411783E-05</v>
       </c>
       <c r="W299">
-        <v>0.9994926433282597</v>
+        <v>-0.0005073566717402889</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -22784,7 +22784,7 @@
         <v>0.9962007632636929</v>
       </c>
       <c r="K300">
-        <v>49.90483831069938</v>
+        <v>-0.0009516168930061575</v>
       </c>
       <c r="L300">
         <v>0.001748330860177047</v>
@@ -22814,13 +22814,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U300">
-        <v>1.000016912318087</v>
+        <v>1.691231808664817E-05</v>
       </c>
       <c r="V300">
-        <v>0.9999661727893916</v>
+        <v>-3.382721060840588E-05</v>
       </c>
       <c r="W300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -22855,7 +22855,7 @@
         <v>1.08470212413709</v>
       </c>
       <c r="K301">
-        <v>52.03151623333598</v>
+        <v>0.02031516233335973</v>
       </c>
       <c r="L301">
         <v>0.001275486944705595</v>
@@ -22885,13 +22885,13 @@
         <v>0.0006249999999994316</v>
       </c>
       <c r="U301">
-        <v>1.000008456016033</v>
+        <v>8.456016032720726E-06</v>
       </c>
       <c r="V301">
-        <v>0.9999830858225365</v>
+        <v>-1.691417746352286E-05</v>
       </c>
       <c r="W301">
-        <v>1.000253807106599</v>
+        <v>0.0002538071065989467</v>
       </c>
     </row>
     <row r="302" spans="1:23">
@@ -22926,7 +22926,7 @@
         <v>1.271020778607467</v>
       </c>
       <c r="K302">
-        <v>55.96693744857873</v>
+        <v>0.05966937448578735</v>
       </c>
       <c r="L302">
         <v>0.001061686812978525</v>
@@ -22956,13 +22956,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U302">
-        <v>1.000042279722645</v>
+        <v>4.227972264470026E-05</v>
       </c>
       <c r="V302">
-        <v>1.000016914463558</v>
+        <v>1.69144635580043E-05</v>
       </c>
       <c r="W302">
-        <v>1.000507485409795</v>
+        <v>0.0005074854097946169</v>
       </c>
     </row>
     <row r="303" spans="1:23">
@@ -22997,7 +22997,7 @@
         <v>1.157512288058081</v>
       </c>
       <c r="K303">
-        <v>53.65032192238066</v>
+        <v>0.03650321922380662</v>
       </c>
       <c r="L303">
         <v>0.0009221851465274414</v>
@@ -23027,13 +23027,13 @@
         <v>-0.001250000000005969</v>
       </c>
       <c r="U303">
-        <v>1.000025366761088</v>
+        <v>2.5366761087664E-05</v>
       </c>
       <c r="V303">
-        <v>1.000033828354927</v>
+        <v>3.382835492704572E-05</v>
       </c>
       <c r="W303">
-        <v>0.9997463860005072</v>
+        <v>-0.0002536139994927522</v>
       </c>
     </row>
     <row r="304" spans="1:23">
@@ -23068,7 +23068,7 @@
         <v>1.05805003379565</v>
       </c>
       <c r="K304">
-        <v>51.41031638790113</v>
+        <v>0.01410316387901123</v>
       </c>
       <c r="L304">
         <v>0.000740839010166597</v>
@@ -23098,13 +23098,13 @@
         <v>-0.003125000000004263</v>
       </c>
       <c r="U304">
-        <v>0.9999746338823687</v>
+        <v>-2.536611763126473E-05</v>
       </c>
       <c r="V304">
-        <v>1.000016913605304</v>
+        <v>1.691360530386987E-05</v>
       </c>
       <c r="W304">
-        <v>0.9997463216641298</v>
+        <v>-0.0002536783358701999</v>
       </c>
     </row>
     <row r="305" spans="1:23">
@@ -23139,7 +23139,7 @@
         <v>1.329400353347398</v>
       </c>
       <c r="K305">
-        <v>57.07049676699076</v>
+        <v>0.07070496766990753</v>
       </c>
       <c r="L305">
         <v>0.0008201593886558355</v>
@@ -23169,13 +23169,13 @@
         <v>-0.001874999999998295</v>
       </c>
       <c r="U305">
-        <v>0.9999830888259419</v>
+        <v>-1.69111740581096E-05</v>
       </c>
       <c r="V305">
-        <v>1.000067653276956</v>
+        <v>6.765327695568146E-05</v>
       </c>
       <c r="W305">
-        <v>1.000761228114692</v>
+        <v>0.0007612281146918143</v>
       </c>
     </row>
     <row r="306" spans="1:23">
@@ -23210,7 +23210,7 @@
         <v>1.424610991786653</v>
       </c>
       <c r="K306">
-        <v>58.75627045379689</v>
+        <v>0.08756270453796899</v>
       </c>
       <c r="L306">
         <v>0.001141736187945207</v>
@@ -23240,13 +23240,13 @@
         <v>-0.001250000000005969</v>
       </c>
       <c r="U306">
-        <v>0.9999915442699743</v>
+        <v>-8.455730025724861E-06</v>
       </c>
       <c r="V306">
-        <v>1.0000676487003</v>
+        <v>6.764870029951631E-05</v>
       </c>
       <c r="W306">
-        <v>1.000253549695741</v>
+        <v>0.0002535496957405403</v>
       </c>
     </row>
     <row r="307" spans="1:23">
@@ -23281,7 +23281,7 @@
         <v>1.424610991786653</v>
       </c>
       <c r="K307">
-        <v>58.75627045379689</v>
+        <v>0.08756270453796899</v>
       </c>
       <c r="L307">
         <v>0.001585418238310403</v>
@@ -23311,13 +23311,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U307">
-        <v>1.000025367404576</v>
+        <v>2.536740457625974E-05</v>
       </c>
       <c r="V307">
-        <v>1.000033822062131</v>
+        <v>3.382206213098371E-05</v>
       </c>
       <c r="W307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:23">
@@ -23352,7 +23352,7 @@
         <v>1.288661632493692</v>
       </c>
       <c r="K308">
-        <v>56.30634140921851</v>
+        <v>0.06306341409218508</v>
       </c>
       <c r="L308">
         <v>0.001976631944663897</v>
@@ -23382,13 +23382,13 @@
         <v>0.006875000000007958</v>
       </c>
       <c r="U308">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V308">
-        <v>1.000016910459119</v>
+        <v>1.691045911900169E-05</v>
       </c>
       <c r="W308">
-        <v>0.9997465145754117</v>
+        <v>-0.0002534854245882512</v>
       </c>
     </row>
     <row r="309" spans="1:23">
@@ -23423,7 +23423,7 @@
         <v>1.288661632493692</v>
       </c>
       <c r="K309">
-        <v>56.30634140921851</v>
+        <v>0.06306341409218508</v>
       </c>
       <c r="L309">
         <v>0.002303921562923309</v>
@@ -23453,13 +23453,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U309">
-        <v>1.000033822348117</v>
+        <v>3.382234811666329E-05</v>
       </c>
       <c r="V309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:23">
@@ -23494,7 +23494,7 @@
         <v>1.165430601699428</v>
       </c>
       <c r="K310">
-        <v>53.81980843832164</v>
+        <v>0.03819808438321648</v>
       </c>
       <c r="L310">
         <v>0.002470851159416381</v>
@@ -23524,13 +23524,13 @@
         <v>0.01062499999999034</v>
       </c>
       <c r="U310">
-        <v>1.000016910602102</v>
+        <v>1.691060210173845E-05</v>
       </c>
       <c r="V310">
-        <v>1.00001691017316</v>
+        <v>1.69101731601895E-05</v>
       </c>
       <c r="W310">
-        <v>0.9997464503042597</v>
+        <v>-0.0002535496957403183</v>
       </c>
     </row>
     <row r="311" spans="1:23">
@@ -23565,7 +23565,7 @@
         <v>1.165430601699428</v>
       </c>
       <c r="K311">
-        <v>53.81980843832164</v>
+        <v>0.03819808438321648</v>
       </c>
       <c r="L311">
         <v>0.00252099644780358</v>
@@ -23595,13 +23595,13 @@
         <v>0.01124999999999687</v>
       </c>
       <c r="U311">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V311">
-        <v>1.000016909887211</v>
+        <v>1.690988721114728E-05</v>
       </c>
       <c r="W311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:23">
@@ -23636,7 +23636,7 @@
         <v>1.271388655388177</v>
       </c>
       <c r="K312">
-        <v>55.97406909522927</v>
+        <v>0.05974069095229273</v>
       </c>
       <c r="L312">
         <v>0.002580391199463874</v>
@@ -23666,13 +23666,13 @@
         <v>0.0137499999999946</v>
       </c>
       <c r="U312">
-        <v>1.000008455158069</v>
+        <v>8.455158069020641E-06</v>
       </c>
       <c r="V312">
-        <v>1.000050728803815</v>
+        <v>5.072880381495892E-05</v>
       </c>
       <c r="W312">
-        <v>1.000253613999493</v>
+        <v>0.0002536139994926412</v>
       </c>
     </row>
     <row r="313" spans="1:23">
@@ -23707,7 +23707,7 @@
         <v>0.7139650472927486</v>
       </c>
       <c r="K313">
-        <v>41.65575304003279</v>
+        <v>-0.08344246959967205</v>
       </c>
       <c r="L313">
         <v>0.001985602007870773</v>
@@ -23737,13 +23737,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U313">
-        <v>0.9999408143939392</v>
+        <v>-5.918560606077428E-05</v>
       </c>
       <c r="V313">
-        <v>0.9999154562824435</v>
+        <v>-8.454371755650669E-05</v>
       </c>
       <c r="W313">
-        <v>0.9982251521298174</v>
+        <v>-0.001774847870182561</v>
       </c>
     </row>
     <row r="314" spans="1:23">
@@ -23778,7 +23778,7 @@
         <v>0.7798953972345362</v>
       </c>
       <c r="K314">
-        <v>43.81692308695654</v>
+        <v>-0.06183076913043467</v>
       </c>
       <c r="L314">
         <v>0.001117577180408337</v>
@@ -23808,13 +23808,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U314">
-        <v>0.9999408108907963</v>
+        <v>-5.918910920366116E-05</v>
       </c>
       <c r="V314">
-        <v>0.9999661796536798</v>
+        <v>-3.382034632015696E-05</v>
       </c>
       <c r="W314">
-        <v>1.000254000508001</v>
+        <v>0.0002540005080011731</v>
       </c>
     </row>
     <row r="315" spans="1:23">
@@ -23849,7 +23849,7 @@
         <v>0.6848392103092144</v>
       </c>
       <c r="K315">
-        <v>40.64715529641119</v>
+        <v>-0.09352844703588808</v>
       </c>
       <c r="L315">
         <v>-4.946250005786455E-05</v>
@@ -23879,13 +23879,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U315">
-        <v>0.9999492634747754</v>
+        <v>-5.073652522458172E-05</v>
       </c>
       <c r="V315">
-        <v>0.99993235701965</v>
+        <v>-6.764298035000227E-05</v>
       </c>
       <c r="W315">
-        <v>0.999492127983748</v>
+        <v>-0.0005078720162520201</v>
       </c>
     </row>
     <row r="316" spans="1:23">
@@ -23920,7 +23920,7 @@
         <v>0.6435557040970495</v>
       </c>
       <c r="K316">
-        <v>39.15630620202263</v>
+        <v>-0.1084369379797737</v>
       </c>
       <c r="L316">
         <v>-0.001415485343835874</v>
@@ -23950,13 +23950,13 @@
         <v>-0.01562499999999289</v>
       </c>
       <c r="U316">
-        <v>0.9999408043838582</v>
+        <v>-5.919561614176061E-05</v>
       </c>
       <c r="V316">
-        <v>0.9998985286656522</v>
+        <v>-0.0001014713343477913</v>
       </c>
       <c r="W316">
-        <v>0.9997459349593496</v>
+        <v>-0.0002540650406503975</v>
       </c>
     </row>
     <row r="317" spans="1:23">
@@ -23991,7 +23991,7 @@
         <v>0.7070104854156798</v>
       </c>
       <c r="K317">
-        <v>41.41805170244829</v>
+        <v>-0.08581948297551711</v>
       </c>
       <c r="L317">
         <v>-0.002717532678195509</v>
@@ -24021,13 +24021,13 @@
         <v>-0.02250000000000796</v>
       </c>
       <c r="U317">
-        <v>0.9999492578967397</v>
+        <v>-5.074210326028172E-05</v>
       </c>
       <c r="V317">
-        <v>0.9998816047628711</v>
+        <v>-0.0001183952371288655</v>
       </c>
       <c r="W317">
-        <v>1.000254129606099</v>
+        <v>0.0002541296060991627</v>
       </c>
     </row>
     <row r="318" spans="1:23">
@@ -24062,7 +24062,7 @@
         <v>0.8405994987181068</v>
       </c>
       <c r="K318">
-        <v>45.66987545653174</v>
+        <v>-0.04330124543468261</v>
       </c>
       <c r="L318">
         <v>-0.003703273915549356</v>
@@ -24092,13 +24092,13 @@
         <v>-0.02562499999999091</v>
       </c>
       <c r="U318">
-        <v>0.9999830851072828</v>
+        <v>-1.691489271715696E-05</v>
       </c>
       <c r="V318">
-        <v>0.999932337567874</v>
+        <v>-6.766243212597001E-05</v>
       </c>
       <c r="W318">
-        <v>1.000508130081301</v>
+        <v>0.000508130081300795</v>
       </c>
     </row>
     <row r="319" spans="1:23">
@@ -24133,7 +24133,7 @@
         <v>0.9109095057193592</v>
       </c>
       <c r="K319">
-        <v>47.66889813426558</v>
+        <v>-0.0233110186573442</v>
       </c>
       <c r="L319">
         <v>-0.004328753796417408</v>
@@ -24163,13 +24163,13 @@
         <v>-0.02874999999999517</v>
       </c>
       <c r="U319">
-        <v>0.9999915424105821</v>
+        <v>-8.45758941792063E-06</v>
       </c>
       <c r="V319">
-        <v>0.9999661664946796</v>
+        <v>-3.383350532037976E-05</v>
       </c>
       <c r="W319">
-        <v>1.000253936008126</v>
+        <v>0.0002539360081259545</v>
       </c>
     </row>
     <row r="320" spans="1:23">
@@ -24204,7 +24204,7 @@
         <v>0.984920039404888</v>
       </c>
       <c r="K320">
-        <v>49.62013682426137</v>
+        <v>-0.003798631757386373</v>
       </c>
       <c r="L320">
         <v>-0.004587991718550457</v>
@@ -24234,13 +24234,13 @@
         <v>-0.03312499999999829</v>
       </c>
       <c r="U320">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V320">
-        <v>0.9999323306998699</v>
+        <v>-6.766930013013539E-05</v>
       </c>
       <c r="W320">
-        <v>1.000253871541</v>
+        <v>0.0002538715410000947</v>
       </c>
     </row>
     <row r="321" spans="1:23">
@@ -24275,7 +24275,7 @@
         <v>0.8521457968697139</v>
       </c>
       <c r="K321">
-        <v>46.00857007638998</v>
+        <v>-0.03991429923610018</v>
       </c>
       <c r="L321">
         <v>-0.00477688152943363</v>
@@ -24305,13 +24305,13 @@
         <v>-0.02812500000000284</v>
       </c>
       <c r="U321">
-        <v>0.9999746270171518</v>
+        <v>-2.537298284821521E-05</v>
       </c>
       <c r="V321">
-        <v>0.9998815707107448</v>
+        <v>-0.0001184292892552063</v>
       </c>
       <c r="W321">
-        <v>0.9994923857868021</v>
+        <v>-0.0005076142131978933</v>
       </c>
     </row>
     <row r="322" spans="1:23">
@@ -24346,7 +24346,7 @@
         <v>0.9230969172509121</v>
       </c>
       <c r="K322">
-        <v>48.00054063684368</v>
+        <v>-0.0199945936315632</v>
       </c>
       <c r="L322">
         <v>-0.004801348646862287</v>
@@ -24376,13 +24376,13 @@
         <v>-0.02312500000000028</v>
       </c>
       <c r="U322">
-        <v>0.9999661684977968</v>
+        <v>-3.383150220315212E-05</v>
       </c>
       <c r="V322">
-        <v>0.9998984771573605</v>
+        <v>-0.0001015228426395343</v>
       </c>
       <c r="W322">
-        <v>1.000253936008126</v>
+        <v>0.0002539360081259545</v>
       </c>
     </row>
     <row r="323" spans="1:23">
@@ -24417,7 +24417,7 @@
         <v>0.8589461864353877</v>
       </c>
       <c r="K323">
-        <v>46.20608131117853</v>
+        <v>-0.03793918688821468</v>
       </c>
       <c r="L323">
         <v>-0.00479955096353623</v>
@@ -24447,13 +24447,13 @@
         <v>-0.01624999999999943</v>
       </c>
       <c r="U323">
-        <v>0.9999577091914844</v>
+        <v>-4.22908085155882E-05</v>
       </c>
       <c r="V323">
-        <v>0.9998984668494264</v>
+        <v>-0.0001015331505735961</v>
       </c>
       <c r="W323">
-        <v>0.9997461284589998</v>
+        <v>-0.0002538715410002057</v>
       </c>
     </row>
     <row r="324" spans="1:23">
@@ -24488,7 +24488,7 @@
         <v>0.7493169796191113</v>
       </c>
       <c r="K324">
-        <v>42.83483144274197</v>
+        <v>-0.07165168557258028</v>
       </c>
       <c r="L324">
         <v>-0.004949284764158864</v>
@@ -24518,13 +24518,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U324">
-        <v>0.999932331844634</v>
+        <v>-6.766815536596305E-05</v>
       </c>
       <c r="V324">
-        <v>0.9998646087191985</v>
+        <v>-0.0001353912808015334</v>
       </c>
       <c r="W324">
-        <v>0.999492127983748</v>
+        <v>-0.0005078720162520201</v>
       </c>
     </row>
     <row r="325" spans="1:23">
@@ -24559,7 +24559,7 @@
         <v>0.8164918311360779</v>
       </c>
       <c r="K325">
-        <v>44.94883033002269</v>
+        <v>-0.05051169669977312</v>
       </c>
       <c r="L325">
         <v>-0.00507089480618014</v>
@@ -24589,13 +24589,13 @@
         <v>-0.004375000000003126</v>
       </c>
       <c r="U325">
-        <v>0.9999577045408403</v>
+        <v>-4.229545915968025E-05</v>
       </c>
       <c r="V325">
-        <v>0.999898442789438</v>
+        <v>-0.0001015572105620421</v>
       </c>
       <c r="W325">
-        <v>1.00025406504065</v>
+        <v>0.0002540650406503975</v>
       </c>
     </row>
     <row r="326" spans="1:23">
@@ -24630,7 +24630,7 @@
         <v>0.8872022011539877</v>
       </c>
       <c r="K326">
-        <v>47.01150733140734</v>
+        <v>-0.02988492668592657</v>
       </c>
       <c r="L326">
         <v>-0.005056864288615597</v>
@@ -24660,13 +24660,13 @@
         <v>-0.001250000000005969</v>
       </c>
       <c r="U326">
-        <v>0.9999661622014872</v>
+        <v>-3.383779851284796E-05</v>
       </c>
       <c r="V326">
-        <v>0.9999153603954363</v>
+        <v>-8.463960456372988E-05</v>
       </c>
       <c r="W326">
-        <v>1.000254000508001</v>
+        <v>0.0002540005080011731</v>
       </c>
     </row>
     <row r="327" spans="1:23">
@@ -24701,7 +24701,7 @@
         <v>0.8257406957484907</v>
       </c>
       <c r="K327">
-        <v>45.22770937139929</v>
+        <v>-0.04772290628600706</v>
       </c>
       <c r="L327">
         <v>-0.005035549000450622</v>
@@ -24731,13 +24731,13 @@
         <v>-7.105427357601002E-15</v>
       </c>
       <c r="U327">
-        <v>0.9999661610564518</v>
+        <v>-3.383894354824779E-05</v>
       </c>
       <c r="V327">
-        <v>0.9998814945233541</v>
+        <v>-0.0001185054766459359</v>
       </c>
       <c r="W327">
-        <v>0.9997460639918739</v>
+        <v>-0.0002539360081260655</v>
       </c>
     </row>
     <row r="328" spans="1:23">
@@ -24772,7 +24772,7 @@
         <v>0.8986624281284596</v>
       </c>
       <c r="K328">
-        <v>47.33134309790313</v>
+        <v>-0.02668656902096872</v>
       </c>
       <c r="L328">
         <v>-0.004900439852776316</v>
@@ -24802,13 +24802,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U328">
-        <v>0.9999661599113391</v>
+        <v>-3.384008866091914E-05</v>
       </c>
       <c r="V328">
-        <v>1.000016931360265</v>
+        <v>1.69313602653709E-05</v>
       </c>
       <c r="W328">
-        <v>1.000254000508001</v>
+        <v>0.0002540005080011731</v>
       </c>
     </row>
     <row r="329" spans="1:23">
@@ -24843,7 +24843,7 @@
         <v>0.8986624281284598</v>
       </c>
       <c r="K329">
-        <v>47.33134309790313</v>
+        <v>-0.02668656902096872</v>
       </c>
       <c r="L329">
         <v>-0.004687151124158752</v>
@@ -24873,13 +24873,13 @@
         <v>0.0006249999999994316</v>
       </c>
       <c r="U329">
-        <v>0.9999830793830743</v>
+        <v>-1.692061692570856E-05</v>
       </c>
       <c r="V329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:23">
@@ -24914,7 +24914,7 @@
         <v>0.9794621315965119</v>
       </c>
       <c r="K330">
-        <v>49.48122603419234</v>
+        <v>-0.005187739658076618</v>
       </c>
       <c r="L330">
         <v>-0.004330592884823085</v>
@@ -24944,13 +24944,13 @@
         <v>7.105427357601002E-15</v>
       </c>
       <c r="U330">
-        <v>0.9999915395483812</v>
+        <v>-8.460451618841347E-06</v>
       </c>
       <c r="V330">
-        <v>1.000050793220798</v>
+        <v>5.079322079826198E-05</v>
       </c>
       <c r="W330">
-        <v>1.000253936008126</v>
+        <v>0.0002539360081259545</v>
       </c>
     </row>
     <row r="331" spans="1:23">
@@ -24985,7 +24985,7 @@
         <v>0.902686547043157</v>
       </c>
       <c r="K331">
-        <v>47.44273555967294</v>
+        <v>-0.02557264440327062</v>
       </c>
       <c r="L331">
         <v>-0.003986600450347498</v>
@@ -25015,13 +25015,13 @@
         <v>-0.001250000000005969</v>
       </c>
       <c r="U331">
-        <v>0.9999746184304035</v>
+        <v>-2.53815695965276E-05</v>
       </c>
       <c r="V331">
-        <v>1.000050790640978</v>
+        <v>5.079064097790464E-05</v>
       </c>
       <c r="W331">
-        <v>0.9997461284589998</v>
+        <v>-0.0002538715410002057</v>
       </c>
     </row>
     <row r="332" spans="1:23">
@@ -25056,7 +25056,7 @@
         <v>0.7748235993528243</v>
       </c>
       <c r="K332">
-        <v>43.65637236485686</v>
+        <v>-0.06343627635143134</v>
       </c>
       <c r="L332">
         <v>-0.003842488709232328</v>
@@ -25086,13 +25086,13 @@
         <v>-0.001874999999998295</v>
       </c>
       <c r="U332">
-        <v>0.9999407748343815</v>
+        <v>-5.922516561851499E-05</v>
       </c>
       <c r="V332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W332">
-        <v>0.999492127983748</v>
+        <v>-0.0005078720162520201</v>
       </c>
     </row>
     <row r="333" spans="1:23">
@@ -25127,7 +25127,7 @@
         <v>0.7748235993528243</v>
       </c>
       <c r="K333">
-        <v>43.65637236485686</v>
+        <v>-0.06343627635143134</v>
       </c>
       <c r="L333">
         <v>-0.003814684835816897</v>
@@ -25157,13 +25157,13 @@
         <v>-0.003125000000004263</v>
       </c>
       <c r="U333">
-        <v>0.9999492325656166</v>
+        <v>-5.076743438336973E-05</v>
       </c>
       <c r="V333">
-        <v>0.999966141292387</v>
+        <v>-3.385870761296594E-05</v>
       </c>
       <c r="W333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:23">
@@ -25198,7 +25198,7 @@
         <v>0.6697124250755961</v>
       </c>
       <c r="K334">
-        <v>40.10944729271419</v>
+        <v>-0.09890552707285816</v>
       </c>
       <c r="L334">
         <v>-0.004030122475026079</v>
@@ -25228,13 +25228,13 @@
         <v>-0.005624999999994884</v>
       </c>
       <c r="U334">
-        <v>0.9999407683195126</v>
+        <v>-5.923168048738159E-05</v>
       </c>
       <c r="V334">
-        <v>0.9999153503648398</v>
+        <v>-8.464963516019441E-05</v>
       </c>
       <c r="W334">
-        <v>0.9994918699186993</v>
+        <v>-0.0005081300813006839</v>
       </c>
     </row>
     <row r="335" spans="1:23">
@@ -25269,7 +25269,7 @@
         <v>0.7411114773481821</v>
       </c>
       <c r="K335">
-        <v>42.5654236957268</v>
+        <v>-0.07434576304273199</v>
       </c>
       <c r="L335">
         <v>-0.004272116992466128</v>
@@ -25299,13 +25299,13 @@
         <v>-0.005624999999994884</v>
       </c>
       <c r="U335">
-        <v>0.9999238404711737</v>
+        <v>-7.615952882633614E-05</v>
       </c>
       <c r="V335">
-        <v>0.9999153431986725</v>
+        <v>-8.465680132752063E-05</v>
       </c>
       <c r="W335">
-        <v>1.000254194204372</v>
+        <v>0.0002541942043721157</v>
       </c>
     </row>
     <row r="336" spans="1:23">
@@ -25340,7 +25340,7 @@
         <v>0.5698106697810897</v>
       </c>
       <c r="K336">
-        <v>36.29805050697928</v>
+        <v>-0.1370194949302072</v>
       </c>
       <c r="L336">
         <v>-0.004869037445003537</v>
@@ -25370,13 +25370,13 @@
         <v>-0.008749999999999147</v>
       </c>
       <c r="U336">
-        <v>0.9998815205984902</v>
+        <v>-0.0001184794015097745</v>
       </c>
       <c r="V336">
-        <v>0.9998814704438086</v>
+        <v>-0.0001185295561914046</v>
       </c>
       <c r="W336">
-        <v>0.9989834815756036</v>
+        <v>-0.001016518424396429</v>
       </c>
     </row>
     <row r="337" spans="1:23">
@@ -25411,7 +25411,7 @@
         <v>0.4818779367670617</v>
       </c>
       <c r="K337">
-        <v>32.51805866131933</v>
+        <v>-0.1748194133868067</v>
       </c>
       <c r="L337">
         <v>-0.005902653880745635</v>
@@ -25441,13 +25441,13 @@
         <v>-0.01499999999999346</v>
       </c>
       <c r="U337">
-        <v>0.9998561151079136</v>
+        <v>-0.0001438848920863878</v>
       </c>
       <c r="V337">
-        <v>0.9998137171888229</v>
+        <v>-0.000186282811177052</v>
       </c>
       <c r="W337">
-        <v>0.9992368354108369</v>
+        <v>-0.0007631645891631456</v>
       </c>
     </row>
     <row r="338" spans="1:23">
@@ -25482,7 +25482,7 @@
         <v>0.4347924441647849</v>
       </c>
       <c r="K338">
-        <v>30.30350807415105</v>
+        <v>-0.1969649192584895</v>
       </c>
       <c r="L338">
         <v>-0.007298535060896886</v>
@@ -25512,13 +25512,13 @@
         <v>-0.02312500000000028</v>
       </c>
       <c r="U338">
-        <v>0.9998476293669002</v>
+        <v>-0.0001523706330998076</v>
       </c>
       <c r="V338">
-        <v>0.9997967445248056</v>
+        <v>-0.0002032554751943971</v>
       </c>
       <c r="W338">
-        <v>0.9994908350305498</v>
+        <v>-0.0005091649694501932</v>
       </c>
     </row>
     <row r="339" spans="1:23">
@@ -25553,7 +25553,7 @@
         <v>0.4135257943554143</v>
       </c>
       <c r="K339">
-        <v>29.25491674837015</v>
+        <v>-0.2074508325162985</v>
       </c>
       <c r="L339">
         <v>-0.008891034779621349</v>
@@ -25583,13 +25583,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U339">
-        <v>0.9998391398213604</v>
+        <v>-0.000160860178639588</v>
       </c>
       <c r="V339">
-        <v>0.9998136446033172</v>
+        <v>-0.0001863553966827691</v>
       </c>
       <c r="W339">
-        <v>0.999745287824758</v>
+        <v>-0.0002547121752419779</v>
       </c>
     </row>
     <row r="340" spans="1:23">
@@ -25624,7 +25624,7 @@
         <v>0.3932773163860952</v>
       </c>
       <c r="K340">
-        <v>28.22677953346604</v>
+        <v>-0.2177322046653395</v>
       </c>
       <c r="L340">
         <v>-0.01056152761696298</v>
@@ -25654,13 +25654,13 @@
         <v>-0.03875000000000028</v>
       </c>
       <c r="U340">
-        <v>0.9998391139412005</v>
+        <v>-0.000160886058799492</v>
       </c>
       <c r="V340">
-        <v>0.9997797207536938</v>
+        <v>-0.0002202792463061876</v>
       </c>
       <c r="W340">
-        <v>0.9997452229299364</v>
+        <v>-0.0002547770700636054</v>
       </c>
     </row>
     <row r="341" spans="1:23">
@@ -25695,7 +25695,7 @@
         <v>0.7025328108737088</v>
       </c>
       <c r="K341">
-        <v>41.26398072253196</v>
+        <v>-0.08736019277468038</v>
       </c>
       <c r="L341">
         <v>-0.01157977077731022</v>
@@ -25725,13 +25725,13 @@
         <v>-0.04187499999999034</v>
       </c>
       <c r="U341">
-        <v>0.9998899023518552</v>
+        <v>-0.0001100976481448468</v>
       </c>
       <c r="V341">
-        <v>0.999864413673881</v>
+        <v>-0.000135586326118986</v>
       </c>
       <c r="W341">
-        <v>1.001529051987768</v>
+        <v>0.001529051987767538</v>
       </c>
     </row>
     <row r="342" spans="1:23">
@@ -25766,7 +25766,7 @@
         <v>0.6337627692611878</v>
       </c>
       <c r="K342">
-        <v>38.79160311308752</v>
+        <v>-0.1120839688691248</v>
       </c>
       <c r="L342">
         <v>-0.01228085042537159</v>
@@ -25796,13 +25796,13 @@
         <v>-0.04312500000000341</v>
       </c>
       <c r="U342">
-        <v>0.999864480281881</v>
+        <v>-0.0001355197181189816</v>
       </c>
       <c r="V342">
-        <v>0.9998474446987032</v>
+        <v>-0.000152555301296764</v>
       </c>
       <c r="W342">
-        <v>0.9994910941475827</v>
+        <v>-0.0005089058524172518</v>
       </c>
     </row>
     <row r="343" spans="1:23">
@@ -25837,7 +25837,7 @@
         <v>0.6027108747909887</v>
       </c>
       <c r="K343">
-        <v>37.60571443490011</v>
+        <v>-0.1239428556509989</v>
       </c>
       <c r="L343">
         <v>-0.01279299067536322</v>
@@ -25867,13 +25867,13 @@
         <v>-0.046875</v>
       </c>
       <c r="U343">
-        <v>0.9999152886961237</v>
+        <v>-8.471130387632808E-05</v>
       </c>
       <c r="V343">
-        <v>0.9998135150713729</v>
+        <v>-0.0001864849286270509</v>
       </c>
       <c r="W343">
-        <v>0.999745417515275</v>
+        <v>-0.0002545824847249856</v>
       </c>
     </row>
     <row r="344" spans="1:23">
@@ -25908,7 +25908,7 @@
         <v>0.6542857010364257</v>
       </c>
       <c r="K344">
-        <v>39.55094942950359</v>
+        <v>-0.1044905057049641</v>
       </c>
       <c r="L344">
         <v>-0.0130190435093161</v>
@@ -25938,13 +25938,13 @@
         <v>-0.04437500000000227</v>
       </c>
       <c r="U344">
-        <v>0.9999152815195106</v>
+        <v>-8.471848048940966E-05</v>
       </c>
       <c r="V344">
-        <v>0.9998304366256886</v>
+        <v>-0.0001695633743113989</v>
       </c>
       <c r="W344">
-        <v>1.000254647313471</v>
+        <v>0.0002546473134708016</v>
       </c>
     </row>
     <row r="345" spans="1:23">
@@ -25979,7 +25979,7 @@
         <v>0.537552356303108</v>
       </c>
       <c r="K345">
-        <v>34.96156433954545</v>
+        <v>-0.1503843566045455</v>
       </c>
       <c r="L345">
         <v>-0.01338012144499523</v>
@@ -26009,13 +26009,13 @@
         <v>-0.04062499999999858</v>
       </c>
       <c r="U345">
-        <v>0.999898329210018</v>
+        <v>-0.0001016707899820224</v>
       </c>
       <c r="V345">
-        <v>0.9997456118036123</v>
+        <v>-0.0002543881963876782</v>
       </c>
       <c r="W345">
-        <v>0.9989816700610998</v>
+        <v>-0.001018329938900164</v>
       </c>
     </row>
     <row r="346" spans="1:23">
@@ -26050,7 +26050,7 @@
         <v>0.5375523563031079</v>
       </c>
       <c r="K346">
-        <v>34.96156433954543</v>
+        <v>-0.1503843566045457</v>
       </c>
       <c r="L346">
         <v>-0.01375147037804359</v>
@@ -26080,13 +26080,13 @@
         <v>-0.03374999999999773</v>
       </c>
       <c r="U346">
-        <v>0.9999067922993492</v>
+        <v>-9.32077006507992E-05</v>
       </c>
       <c r="V346">
-        <v>0.9997625106022053</v>
+        <v>-0.0002374893977946657</v>
       </c>
       <c r="W346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:23">
@@ -26121,7 +26121,7 @@
         <v>0.5375523563031079</v>
       </c>
       <c r="K347">
-        <v>34.96156433954543</v>
+        <v>-0.1503843566045457</v>
       </c>
       <c r="L347">
         <v>-0.0140554740768909</v>
@@ -26151,13 +26151,13 @@
         <v>-0.02624999999999744</v>
       </c>
       <c r="U347">
-        <v>0.9998983093936699</v>
+        <v>-0.0001016906063301404</v>
       </c>
       <c r="V347">
-        <v>0.9997963893036513</v>
+        <v>-0.0002036106963486661</v>
       </c>
       <c r="W347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:23">
@@ -26192,7 +26192,7 @@
         <v>0.537552356303108</v>
       </c>
       <c r="K348">
-        <v>34.96156433954545</v>
+        <v>-0.1503843566045455</v>
       </c>
       <c r="L348">
         <v>-0.01424826560798045</v>
@@ -26222,13 +26222,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U348">
-        <v>0.9998813488935783</v>
+        <v>-0.0001186511064217299</v>
       </c>
       <c r="V348">
-        <v>0.999796347837893</v>
+        <v>-0.0002036521621070486</v>
       </c>
       <c r="W348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:23">
@@ -26263,7 +26263,7 @@
         <v>0.5923135728664842</v>
       </c>
       <c r="K349">
-        <v>37.1982995660962</v>
+        <v>-0.128017004339038</v>
       </c>
       <c r="L349">
         <v>-0.01421704667360184</v>
@@ -26293,13 +26293,13 @@
         <v>-0.01812499999999773</v>
       </c>
       <c r="U349">
-        <v>0.999881334813823</v>
+        <v>-0.0001186651861769805</v>
       </c>
       <c r="V349">
-        <v>0.9998472297664315</v>
+        <v>-0.0001527702335685222</v>
       </c>
       <c r="W349">
-        <v>1.000254841997961</v>
+        <v>0.0002548419979611083</v>
       </c>
     </row>
     <row r="350" spans="1:23">
@@ -26334,7 +26334,7 @@
         <v>0.7076003445788963</v>
       </c>
       <c r="K350">
-        <v>41.43828776009028</v>
+        <v>-0.08561712239909719</v>
       </c>
       <c r="L350">
         <v>-0.01381519173843587</v>
@@ -26364,13 +26364,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U350">
-        <v>0.9998897978213874</v>
+        <v>-0.0001102021786125729</v>
       </c>
       <c r="V350">
-        <v>0.9998641834881073</v>
+        <v>-0.0001358165118926502</v>
       </c>
       <c r="W350">
-        <v>1.000509554140127</v>
+        <v>0.0005095541401274328</v>
       </c>
     </row>
     <row r="351" spans="1:23">
@@ -26405,7 +26405,7 @@
         <v>0.5694014837905409</v>
       </c>
       <c r="K351">
-        <v>36.28144166241503</v>
+        <v>-0.1371855833758497</v>
       </c>
       <c r="L351">
         <v>-0.01353445282617473</v>
@@ -26435,13 +26435,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U351">
-        <v>0.9998728296256105</v>
+        <v>-0.0001271703743894737</v>
       </c>
       <c r="V351">
-        <v>0.9998641650394771</v>
+        <v>-0.0001358349605229403</v>
       </c>
       <c r="W351">
-        <v>0.9989814107461165</v>
+        <v>-0.001018589253883539</v>
       </c>
     </row>
     <row r="352" spans="1:23">
@@ -26476,7 +26476,7 @@
         <v>0.7749871454636524</v>
       </c>
       <c r="K352">
-        <v>43.66156382846449</v>
+        <v>-0.06338436171535505</v>
       </c>
       <c r="L352">
         <v>-0.01292533861110386</v>
@@ -26506,13 +26506,13 @@
         <v>-0.01124999999999687</v>
       </c>
       <c r="U352">
-        <v>0.9998982507609994</v>
+        <v>-0.0001017492390006369</v>
       </c>
       <c r="V352">
-        <v>0.9999830183232292</v>
+        <v>-1.698167677077755E-05</v>
       </c>
       <c r="W352">
-        <v>1.00101962783584</v>
+        <v>0.001019627835840087</v>
       </c>
     </row>
     <row r="353" spans="1:23">
@@ -26547,7 +26547,7 @@
         <v>0.7749871454636524</v>
       </c>
       <c r="K353">
-        <v>43.66156382846449</v>
+        <v>-0.06338436171535505</v>
       </c>
       <c r="L353">
         <v>-0.01210895490048111</v>
@@ -26577,13 +26577,13 @@
         <v>-0.006875000000000853</v>
       </c>
       <c r="U353">
-        <v>0.9999067203731187</v>
+        <v>-9.327962688132629E-05</v>
       </c>
       <c r="V353">
-        <v>1.000016981965153</v>
+        <v>1.698196515298456E-05</v>
       </c>
       <c r="W353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:23">
@@ -26618,7 +26618,7 @@
         <v>0.6619031103608707</v>
       </c>
       <c r="K354">
-        <v>39.82802043237906</v>
+        <v>-0.1017197956762094</v>
       </c>
       <c r="L354">
         <v>-0.01145278904469228</v>
@@ -26648,13 +26648,13 @@
         <v>-0.00562500000000199</v>
       </c>
       <c r="U354">
-        <v>0.9998982309140558</v>
+        <v>-0.00010176908594417</v>
       </c>
       <c r="V354">
-        <v>0.9999830183232292</v>
+        <v>-1.698167677077755E-05</v>
       </c>
       <c r="W354">
-        <v>0.9992360580595875</v>
+        <v>-0.0007639419404125158</v>
       </c>
     </row>
     <row r="355" spans="1:23">
@@ -26689,7 +26689,7 @@
         <v>0.453112655836423</v>
       </c>
       <c r="K355">
-        <v>31.1822110981208</v>
+        <v>-0.188177889018792</v>
       </c>
       <c r="L355">
         <v>-0.0117277197454189</v>
@@ -26719,13 +26719,13 @@
         <v>-0.01062499999999744</v>
       </c>
       <c r="U355">
-        <v>0.9998134043527677</v>
+        <v>-0.0001865956472323349</v>
       </c>
       <c r="V355">
-        <v>0.9998471623136229</v>
+        <v>-0.0001528376863770831</v>
       </c>
       <c r="W355">
-        <v>0.9977064220183486</v>
+        <v>-0.002293577981651418</v>
       </c>
     </row>
     <row r="356" spans="1:23">
@@ -26760,7 +26760,7 @@
         <v>0.6375802600782066</v>
       </c>
       <c r="K356">
-        <v>38.93429077166315</v>
+        <v>-0.1106570922833685</v>
       </c>
       <c r="L356">
         <v>-0.01204357472288292</v>
@@ -26790,13 +26790,13 @@
         <v>-0.01312500000000227</v>
       </c>
       <c r="U356">
-        <v>0.9998473023413639</v>
+        <v>-0.0001526976586361251</v>
       </c>
       <c r="V356">
-        <v>0.9998301543896599</v>
+        <v>-0.0001698456103400581</v>
       </c>
       <c r="W356">
-        <v>1.001277139208174</v>
+        <v>0.00127713920817385</v>
       </c>
     </row>
     <row r="357" spans="1:23">
@@ -26831,7 +26831,7 @@
         <v>0.5710496340396186</v>
       </c>
       <c r="K357">
-        <v>36.34828726392853</v>
+        <v>-0.1365171273607146</v>
       </c>
       <c r="L357">
         <v>-0.01259839945234366</v>
@@ -26861,13 +26861,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U357">
-        <v>0.999830310023587</v>
+        <v>-0.0001696899764129789</v>
       </c>
       <c r="V357">
-        <v>0.9998131380909505</v>
+        <v>-0.000186861909049485</v>
       </c>
       <c r="W357">
-        <v>0.999234693877551</v>
+        <v>-0.000765306122448961</v>
       </c>
     </row>
     <row r="358" spans="1:23">
@@ -26902,7 +26902,7 @@
         <v>0.5508799608205986</v>
       </c>
       <c r="K358">
-        <v>35.52047706703993</v>
+        <v>-0.1447952293296006</v>
       </c>
       <c r="L358">
         <v>-0.01330969190570185</v>
@@ -26932,13 +26932,13 @@
         <v>-0.02125000000000199</v>
       </c>
       <c r="U358">
-        <v>0.999813309346413</v>
+        <v>-0.0001866906535870072</v>
       </c>
       <c r="V358">
-        <v>0.999813103167052</v>
+        <v>-0.0001868968329480358</v>
       </c>
       <c r="W358">
-        <v>0.9997447025785038</v>
+        <v>-0.0002552974214962145</v>
       </c>
     </row>
     <row r="359" spans="1:23">
@@ -26973,7 +26973,7 @@
         <v>0.4956015774042412</v>
       </c>
       <c r="K359">
-        <v>33.13727298044208</v>
+        <v>-0.1686272701955792</v>
       </c>
       <c r="L359">
         <v>-0.01430033361498177</v>
@@ -27003,13 +27003,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U359">
-        <v>0.9997878119164828</v>
+        <v>-0.0002121880835171952</v>
       </c>
       <c r="V359">
-        <v>0.9997450930410401</v>
+        <v>-0.0002549069589599107</v>
       </c>
       <c r="W359">
-        <v>0.9992339121552606</v>
+        <v>-0.0007660878447394159</v>
       </c>
     </row>
     <row r="360" spans="1:23">
@@ -27044,7 +27044,7 @@
         <v>0.4956015774042412</v>
       </c>
       <c r="K360">
-        <v>33.13727298044208</v>
+        <v>-0.1686272701955792</v>
       </c>
       <c r="L360">
         <v>-0.01534537998979203</v>
@@ -27074,13 +27074,13 @@
         <v>-0.0331250000000054</v>
       </c>
       <c r="U360">
-        <v>0.9997792775584703</v>
+        <v>-0.0002207224415297082</v>
       </c>
       <c r="V360">
-        <v>0.9998130205677375</v>
+        <v>-0.0001869794322625351</v>
       </c>
       <c r="W360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
